--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_36.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1572298.164882155</v>
+        <v>1554870.261374716</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3817463.914172343</v>
+        <v>3855299.675110577</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11119949.81033197</v>
+        <v>11118058.75660723</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6617918.194458083</v>
+        <v>6613631.208160182</v>
       </c>
     </row>
     <row r="11">
@@ -2078,19 +2078,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>158.4675005399118</v>
+        <v>136.1288100505742</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2126,10 +2126,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>63.77461712270471</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>75.80355735284969</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>5.886541933122388</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,22 +2205,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>16.64774323435044</v>
       </c>
       <c r="S21" t="n">
-        <v>55.88998008549119</v>
+        <v>88.17308018554513</v>
       </c>
       <c r="T21" t="n">
-        <v>114.0702278763766</v>
+        <v>116.6546377765289</v>
       </c>
       <c r="U21" t="n">
-        <v>139.8468812625298</v>
+        <v>142.4312911626821</v>
       </c>
       <c r="V21" t="n">
-        <v>146.7060863309803</v>
+        <v>149.2904962311326</v>
       </c>
       <c r="W21" t="n">
-        <v>158.4675005399118</v>
+        <v>80.69900471309263</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2248,19 +2248,19 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>3.373718876344519</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>76.13267168899461</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>69.35597410881331</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>7.264679298227804</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2281,25 +2281,25 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.06754243324941456</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.738132817199141</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>140.5065071186796</v>
       </c>
       <c r="T22" t="n">
-        <v>141.8510886098365</v>
+        <v>144.4354985099888</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="V22" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2318,19 +2318,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>139.5781744755544</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2372,19 +2372,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>136.1288100505742</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>154.5513283952933</v>
       </c>
     </row>
     <row r="24">
@@ -2394,28 +2394,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>83.02309273157465</v>
       </c>
       <c r="C24" t="n">
-        <v>47.29676019342972</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>61.35056474619378</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>71.55057963695597</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>58.97471157493891</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>53.83342624491794</v>
       </c>
       <c r="H24" t="n">
-        <v>26.14094341805149</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>3.302132032970107</v>
+        <v>5.886541933122388</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,25 +2445,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>85.58867028539285</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>114.0702278763766</v>
+        <v>31.02530484140164</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>146.7060863309803</v>
+        <v>149.2904962311326</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>122.1726048590117</v>
       </c>
     </row>
     <row r="25">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>93.73747936349233</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2485,19 +2485,19 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>61.91095710463856</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>33.4138445285977</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>71.94038400896559</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>9.849089198380085</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2518,16 +2518,16 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>2.651952333401695</v>
       </c>
       <c r="R25" t="n">
-        <v>91.19889055872451</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>140.5065071186796</v>
       </c>
       <c r="T25" t="n">
-        <v>131.961651062569</v>
+        <v>144.4354985099888</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2536,13 +2536,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>139.6151545705922</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>135.0745624338021</v>
       </c>
     </row>
     <row r="26">
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="C26" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>136.1288100505742</v>
       </c>
       <c r="H26" t="n">
-        <v>139.5781744755544</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2609,13 +2609,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2637,7 +2637,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>9.805421644626971</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2646,10 +2646,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>53.83342624491797</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>28.7253533182038</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2682,25 +2682,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>88.17308018554516</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>146.5354484441046</v>
+        <v>142.4312911626822</v>
       </c>
       <c r="V27" t="n">
-        <v>153.394653512555</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="X27" t="n">
-        <v>126.3670515666072</v>
+        <v>122.2628942851848</v>
       </c>
       <c r="Y27" t="n">
-        <v>30.21602203211115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>96.32188926364464</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>83.73673018033517</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2734,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>13.95324647980252</v>
+        <v>9.849089198380113</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2755,28 +2755,28 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>2.651952333401724</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>93.78330045887682</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>16.68894093577792</v>
       </c>
       <c r="T28" t="n">
-        <v>98.45591861552843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="X28" t="n">
-        <v>146.3037217521669</v>
+        <v>142.1995644707445</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2795,19 +2795,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>136.1288100505742</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2843,22 +2843,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0.4679658042143092</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>139.11020867134</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>60.47305475181928</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2883,7 +2883,7 @@
         <v>32.83376815688742</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>25.10807292671417</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2928,16 +2928,16 @@
         <v>113.7059378444784</v>
       </c>
       <c r="V30" t="n">
-        <v>120.5651429129288</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>106.9612748883477</v>
+        <v>33.30015772309959</v>
       </c>
       <c r="X30" t="n">
         <v>93.53754096698101</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>93.4472515408079</v>
       </c>
     </row>
     <row r="31">
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>42.43333073634958</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>49.99172827094311</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,19 +3001,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>115.710145191785</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="V31" t="n">
         <v>139.9021990873316</v>
       </c>
       <c r="W31" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>100.7862110875929</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="F32" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>136.1288100505742</v>
       </c>
       <c r="I32" t="n">
-        <v>28.71776914791941</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>110.8604053276349</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3108,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>44.67563955549083</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3171,10 +3171,10 @@
         <v>139.4595389244232</v>
       </c>
       <c r="X33" t="n">
-        <v>93.53754096698101</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>59.78323098815336</v>
+        <v>93.4472515408079</v>
       </c>
     </row>
     <row r="34">
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>67.59653594544083</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>55.01137686213137</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>34.19851841007271</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1.170116836529277</v>
       </c>
       <c r="G34" t="n">
         <v>55.7555351219623</v>
@@ -3205,7 +3205,7 @@
         <v>49.99172827094311</v>
       </c>
       <c r="I34" t="n">
-        <v>0.6667003626394771</v>
+        <v>43.21503069076182</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>111.7811538004758</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>115.710145191785</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>106.3492091155983</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>5.87895776283803</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3311,25 +3311,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>56.36832780831223</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>104.7167512062614</v>
       </c>
       <c r="T35" t="n">
-        <v>133.6992167127163</v>
+        <v>129.5950594312939</v>
       </c>
       <c r="U35" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="V35" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,25 +3342,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>12.11788217731216</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>83.31186613690066</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>58.04843271322368</v>
+        <v>8.280784882977654</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>51.56842226054643</v>
       </c>
       <c r="G36" t="n">
-        <v>47.94688431179556</v>
+        <v>43.84272703037318</v>
       </c>
       <c r="H36" t="n">
-        <v>22.83881138508139</v>
+        <v>18.73465410365901</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3393,25 +3393,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>78.18238097100037</v>
       </c>
       <c r="T36" t="n">
-        <v>110.7680958434065</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>136.5447492295597</v>
+        <v>132.4405919481374</v>
       </c>
       <c r="V36" t="n">
-        <v>143.4039542980102</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>112.1819056444669</v>
       </c>
     </row>
     <row r="37">
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>27.1126872922869</v>
+        <v>73.74603096579038</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>2.625698331610342</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>83.79260124433203</v>
       </c>
       <c r="S37" t="n">
-        <v>134.6199651855572</v>
+        <v>130.5158079041348</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3481,13 +3481,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="W37" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="X37" t="n">
-        <v>136.3130225376221</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3509,19 +3509,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>158.4675005399118</v>
+        <v>136.1288100505742</v>
       </c>
       <c r="I38" t="n">
-        <v>121.0792567189908</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,13 +3554,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>18.49891775656347</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="V38" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>154.5513283952933</v>
       </c>
     </row>
     <row r="39">
@@ -3633,19 +3633,19 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>60.18811967574564</v>
+        <v>61.21888280579557</v>
       </c>
       <c r="U39" t="n">
-        <v>136.5447492295597</v>
+        <v>132.4405919481374</v>
       </c>
       <c r="V39" t="n">
-        <v>143.4039542980102</v>
+        <v>139.2997970165878</v>
       </c>
       <c r="W39" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="X39" t="n">
-        <v>116.3763523520624</v>
+        <v>112.27219507064</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>77.85018824721276</v>
+        <v>73.74603096579038</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>52.93317251373172</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>51.92025789009379</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>74.49018922562131</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>68.72638237460212</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>61.94968479442083</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,25 +3706,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>83.79260124433203</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>132.224476227862</v>
       </c>
       <c r="U40" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>61.72798622834161</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>158.4675005399118</v>
+        <v>136.1288100505742</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="E41" t="n">
-        <v>139.5781744755544</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3803,10 +3803,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="Y41" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
     </row>
     <row r="42">
@@ -3831,13 +3831,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>53.83342624491796</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>5.886541933122402</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,22 +3864,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>5.616631083760674</v>
       </c>
       <c r="S42" t="n">
-        <v>55.88998008549119</v>
+        <v>88.17308018554515</v>
       </c>
       <c r="T42" t="n">
-        <v>114.0702278763766</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>139.8468812625298</v>
+        <v>142.4312911626822</v>
       </c>
       <c r="V42" t="n">
-        <v>146.7060863309803</v>
+        <v>149.2904962311326</v>
       </c>
       <c r="W42" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3895,31 +3895,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>93.73747936349231</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>81.15232028018285</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>62.9238717282765</v>
       </c>
       <c r="F43" t="n">
-        <v>59.32654720448626</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>84.48088844016608</v>
       </c>
       <c r="H43" t="n">
-        <v>9.724710426790839</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>71.94038400896561</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>1.712344971500789</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3940,16 +3940,16 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.06754243324940035</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>91.1988905587245</v>
+        <v>93.78330045887681</v>
       </c>
       <c r="S43" t="n">
-        <v>137.9220972185273</v>
+        <v>140.5065071186796</v>
       </c>
       <c r="T43" t="n">
-        <v>141.8510886098365</v>
+        <v>144.4354985099888</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>172.7455824067403</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="C20" t="n">
-        <v>12.67740004319295</v>
+        <v>480.7014650452396</v>
       </c>
       <c r="D20" t="n">
-        <v>12.67740004319295</v>
+        <v>324.5890121207009</v>
       </c>
       <c r="E20" t="n">
-        <v>12.67740004319295</v>
+        <v>168.4765591961622</v>
       </c>
       <c r="F20" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="G20" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="H20" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="I20" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="J20" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="K20" t="n">
-        <v>12.67740004319295</v>
+        <v>115.3791121825458</v>
       </c>
       <c r="L20" t="n">
-        <v>169.5602255777057</v>
+        <v>268.3849272938862</v>
       </c>
       <c r="M20" t="n">
-        <v>326.4430511122184</v>
+        <v>421.3907424052265</v>
       </c>
       <c r="N20" t="n">
-        <v>483.3258766467312</v>
+        <v>574.3965575165669</v>
       </c>
       <c r="O20" t="n">
-        <v>632.5208267893793</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="P20" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="Q20" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="R20" t="n">
-        <v>569.4511969851982</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="S20" t="n">
-        <v>492.8819471338348</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="T20" t="n">
-        <v>492.8819471338348</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="U20" t="n">
-        <v>492.8819471338348</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="V20" t="n">
-        <v>492.8819471338348</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="W20" t="n">
-        <v>492.8819471338348</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="X20" t="n">
-        <v>492.8819471338348</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="Y20" t="n">
-        <v>332.8137647702875</v>
+        <v>618.2053135811732</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>12.67740004319295</v>
+        <v>18.31010822427234</v>
       </c>
       <c r="C21" t="n">
-        <v>12.67740004319295</v>
+        <v>18.31010822427234</v>
       </c>
       <c r="D21" t="n">
-        <v>12.67740004319295</v>
+        <v>18.31010822427234</v>
       </c>
       <c r="E21" t="n">
-        <v>12.67740004319295</v>
+        <v>18.31010822427234</v>
       </c>
       <c r="F21" t="n">
-        <v>12.67740004319295</v>
+        <v>18.31010822427234</v>
       </c>
       <c r="G21" t="n">
-        <v>12.67740004319295</v>
+        <v>18.31010822427234</v>
       </c>
       <c r="H21" t="n">
-        <v>12.67740004319295</v>
+        <v>18.31010822427234</v>
       </c>
       <c r="I21" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="J21" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="K21" t="n">
-        <v>12.67740004319295</v>
+        <v>137.7216663294609</v>
       </c>
       <c r="L21" t="n">
-        <v>169.5602255777057</v>
+        <v>290.7274814408012</v>
       </c>
       <c r="M21" t="n">
-        <v>326.4430511122184</v>
+        <v>443.7332965521416</v>
       </c>
       <c r="N21" t="n">
-        <v>483.3258766467312</v>
+        <v>548.8107550678438</v>
       </c>
       <c r="O21" t="n">
-        <v>564.475443646318</v>
+        <v>548.8107550678438</v>
       </c>
       <c r="P21" t="n">
-        <v>564.475443646318</v>
+        <v>548.8107550678438</v>
       </c>
       <c r="Q21" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="R21" t="n">
-        <v>633.8700021596474</v>
+        <v>601.3894113242535</v>
       </c>
       <c r="S21" t="n">
-        <v>577.4154768207674</v>
+        <v>512.325693965117</v>
       </c>
       <c r="T21" t="n">
-        <v>462.1930244203869</v>
+        <v>394.4927265140777</v>
       </c>
       <c r="U21" t="n">
-        <v>320.9335483976295</v>
+        <v>250.6227354406614</v>
       </c>
       <c r="V21" t="n">
-        <v>172.7455824067403</v>
+        <v>99.82425439911339</v>
       </c>
       <c r="W21" t="n">
-        <v>12.67740004319295</v>
+        <v>18.31010822427234</v>
       </c>
       <c r="X21" t="n">
-        <v>12.67740004319295</v>
+        <v>18.31010822427234</v>
       </c>
       <c r="Y21" t="n">
-        <v>12.67740004319295</v>
+        <v>18.31010822427234</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>170.381484863779</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="C22" t="n">
-        <v>170.381484863779</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="D22" t="n">
-        <v>170.381484863779</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="E22" t="n">
-        <v>170.381484863779</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="F22" t="n">
-        <v>166.9736880189866</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="G22" t="n">
-        <v>166.9736880189866</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="H22" t="n">
-        <v>90.07199944424458</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="I22" t="n">
-        <v>20.01545994039275</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="J22" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="K22" t="n">
-        <v>75.86415894582944</v>
+        <v>72.99229937310919</v>
       </c>
       <c r="L22" t="n">
-        <v>188.411839763803</v>
+        <v>182.9814143899319</v>
       </c>
       <c r="M22" t="n">
-        <v>312.8334337662857</v>
+        <v>304.8444425912638</v>
       </c>
       <c r="N22" t="n">
-        <v>441.7578402319825</v>
+        <v>431.2102832558098</v>
       </c>
       <c r="O22" t="n">
-        <v>551.3306726771423</v>
+        <v>538.2245498998188</v>
       </c>
       <c r="P22" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="Q22" t="n">
-        <v>633.8017774795975</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="R22" t="n">
-        <v>633.8017774795975</v>
+        <v>612.4092198264266</v>
       </c>
       <c r="S22" t="n">
-        <v>633.8017774795975</v>
+        <v>470.4834550600835</v>
       </c>
       <c r="T22" t="n">
-        <v>490.5178495908737</v>
+        <v>324.5890121207009</v>
       </c>
       <c r="U22" t="n">
-        <v>490.5178495908737</v>
+        <v>168.4765591961622</v>
       </c>
       <c r="V22" t="n">
-        <v>330.4496672273264</v>
+        <v>168.4765591961622</v>
       </c>
       <c r="W22" t="n">
-        <v>170.381484863779</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="X22" t="n">
-        <v>170.381484863779</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="Y22" t="n">
-        <v>170.381484863779</v>
+        <v>12.36410627162346</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>473.8018197961001</v>
+        <v>168.4765591961622</v>
       </c>
       <c r="C23" t="n">
-        <v>313.7336374325528</v>
+        <v>168.4765591961622</v>
       </c>
       <c r="D23" t="n">
-        <v>153.6654550690054</v>
+        <v>168.4765591961622</v>
       </c>
       <c r="E23" t="n">
-        <v>12.67740004319295</v>
+        <v>168.4765591961622</v>
       </c>
       <c r="F23" t="n">
-        <v>12.67740004319295</v>
+        <v>168.4765591961622</v>
       </c>
       <c r="G23" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="H23" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="I23" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="J23" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="K23" t="n">
-        <v>115.6924059541153</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="L23" t="n">
-        <v>272.575231488628</v>
+        <v>165.3699213829638</v>
       </c>
       <c r="M23" t="n">
-        <v>272.575231488628</v>
+        <v>226.3444930351338</v>
       </c>
       <c r="N23" t="n">
-        <v>429.4580570231408</v>
+        <v>379.3503081464742</v>
       </c>
       <c r="O23" t="n">
-        <v>578.6530071657888</v>
+        <v>528.5452582891222</v>
       </c>
       <c r="P23" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="Q23" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="R23" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="S23" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="T23" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="U23" t="n">
-        <v>633.8700021596474</v>
+        <v>480.7014650452396</v>
       </c>
       <c r="V23" t="n">
-        <v>633.8700021596474</v>
+        <v>324.5890121207009</v>
       </c>
       <c r="W23" t="n">
-        <v>633.8700021596474</v>
+        <v>324.5890121207009</v>
       </c>
       <c r="X23" t="n">
-        <v>473.8018197961001</v>
+        <v>324.5890121207009</v>
       </c>
       <c r="Y23" t="n">
-        <v>473.8018197961001</v>
+        <v>168.4765591961622</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>284.0063814599</v>
+        <v>72.68730645146218</v>
       </c>
       <c r="C24" t="n">
-        <v>236.2318762140114</v>
+        <v>72.68730645146218</v>
       </c>
       <c r="D24" t="n">
-        <v>174.2616087936136</v>
+        <v>72.68730645146218</v>
       </c>
       <c r="E24" t="n">
-        <v>101.9882960290117</v>
+        <v>72.68730645146218</v>
       </c>
       <c r="F24" t="n">
-        <v>42.41788029675011</v>
+        <v>72.68730645146218</v>
       </c>
       <c r="G24" t="n">
-        <v>42.41788029675011</v>
+        <v>18.31010822427234</v>
       </c>
       <c r="H24" t="n">
-        <v>16.01288694518295</v>
+        <v>18.31010822427234</v>
       </c>
       <c r="I24" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="J24" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="K24" t="n">
-        <v>12.67740004319295</v>
+        <v>137.7216663294609</v>
       </c>
       <c r="L24" t="n">
-        <v>12.67740004319295</v>
+        <v>290.7274814408012</v>
       </c>
       <c r="M24" t="n">
-        <v>163.2215255561092</v>
+        <v>443.7332965521416</v>
       </c>
       <c r="N24" t="n">
-        <v>320.1043510906219</v>
+        <v>596.7391116634819</v>
       </c>
       <c r="O24" t="n">
-        <v>476.9871766251346</v>
+        <v>596.7391116634819</v>
       </c>
       <c r="P24" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="Q24" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="R24" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="S24" t="n">
-        <v>547.4167998511697</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="T24" t="n">
-        <v>432.1943474507892</v>
+        <v>586.8666218221816</v>
       </c>
       <c r="U24" t="n">
-        <v>432.1943474507892</v>
+        <v>586.8666218221816</v>
       </c>
       <c r="V24" t="n">
-        <v>284.0063814599</v>
+        <v>436.0681407806336</v>
       </c>
       <c r="W24" t="n">
-        <v>284.0063814599</v>
+        <v>279.9556878560949</v>
       </c>
       <c r="X24" t="n">
-        <v>284.0063814599</v>
+        <v>279.9556878560949</v>
       </c>
       <c r="Y24" t="n">
-        <v>284.0063814599</v>
+        <v>156.5490162813356</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>12.67740004319295</v>
+        <v>191.2674141914032</v>
       </c>
       <c r="C25" t="n">
-        <v>12.67740004319295</v>
+        <v>191.2674141914032</v>
       </c>
       <c r="D25" t="n">
-        <v>12.67740004319295</v>
+        <v>191.2674141914032</v>
       </c>
       <c r="E25" t="n">
-        <v>12.67740004319295</v>
+        <v>191.2674141914032</v>
       </c>
       <c r="F25" t="n">
-        <v>12.67740004319295</v>
+        <v>128.7310938836875</v>
       </c>
       <c r="G25" t="n">
-        <v>12.67740004319295</v>
+        <v>128.7310938836875</v>
       </c>
       <c r="H25" t="n">
-        <v>12.67740004319295</v>
+        <v>94.97973577399284</v>
       </c>
       <c r="I25" t="n">
-        <v>12.67740004319295</v>
+        <v>22.31268121948214</v>
       </c>
       <c r="J25" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="K25" t="n">
-        <v>75.86415894582944</v>
+        <v>72.99229937310923</v>
       </c>
       <c r="L25" t="n">
-        <v>188.411839763803</v>
+        <v>182.981414389932</v>
       </c>
       <c r="M25" t="n">
-        <v>312.8334337662857</v>
+        <v>304.8444425912639</v>
       </c>
       <c r="N25" t="n">
-        <v>441.7578402319825</v>
+        <v>431.2102832558099</v>
       </c>
       <c r="O25" t="n">
-        <v>551.3306726771423</v>
+        <v>538.2245498998188</v>
       </c>
       <c r="P25" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="Q25" t="n">
-        <v>633.8700021596474</v>
+        <v>615.5265738504644</v>
       </c>
       <c r="R25" t="n">
-        <v>541.7499106861883</v>
+        <v>615.5265738504644</v>
       </c>
       <c r="S25" t="n">
-        <v>541.7499106861883</v>
+        <v>473.6008090841214</v>
       </c>
       <c r="T25" t="n">
-        <v>408.4553136532903</v>
+        <v>327.7063661447387</v>
       </c>
       <c r="U25" t="n">
-        <v>408.4553136532903</v>
+        <v>327.7063661447387</v>
       </c>
       <c r="V25" t="n">
-        <v>408.4553136532903</v>
+        <v>327.7063661447387</v>
       </c>
       <c r="W25" t="n">
-        <v>248.387131289743</v>
+        <v>327.7063661447387</v>
       </c>
       <c r="X25" t="n">
-        <v>107.3617226325791</v>
+        <v>327.7063661447387</v>
       </c>
       <c r="Y25" t="n">
-        <v>107.3617226325791</v>
+        <v>191.2674141914032</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>313.7336374325528</v>
+        <v>462.0928606566345</v>
       </c>
       <c r="C26" t="n">
-        <v>153.6654550690054</v>
+        <v>462.0928606566345</v>
       </c>
       <c r="D26" t="n">
-        <v>153.6654550690054</v>
+        <v>305.9804077320957</v>
       </c>
       <c r="E26" t="n">
-        <v>153.6654550690054</v>
+        <v>305.9804077320957</v>
       </c>
       <c r="F26" t="n">
-        <v>153.6654550690054</v>
+        <v>149.867954807557</v>
       </c>
       <c r="G26" t="n">
-        <v>153.6654550690054</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="H26" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="I26" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="J26" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="K26" t="n">
-        <v>12.67740004319295</v>
+        <v>115.3791121825458</v>
       </c>
       <c r="L26" t="n">
-        <v>169.5602255777057</v>
+        <v>268.3849272938862</v>
       </c>
       <c r="M26" t="n">
-        <v>326.4430511122184</v>
+        <v>421.3907424052265</v>
       </c>
       <c r="N26" t="n">
-        <v>483.3258766467312</v>
+        <v>574.3965575165669</v>
       </c>
       <c r="O26" t="n">
-        <v>544.2099468675964</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="P26" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="Q26" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="R26" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="S26" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="T26" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="U26" t="n">
-        <v>473.8018197961001</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="V26" t="n">
-        <v>473.8018197961001</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="W26" t="n">
-        <v>313.7336374325528</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="X26" t="n">
-        <v>313.7336374325528</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="Y26" t="n">
-        <v>313.7336374325528</v>
+        <v>618.2053135811732</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>12.67740004319295</v>
+        <v>105.6612792087434</v>
       </c>
       <c r="C27" t="n">
-        <v>12.67740004319295</v>
+        <v>105.6612792087434</v>
       </c>
       <c r="D27" t="n">
-        <v>12.67740004319295</v>
+        <v>95.75681290103941</v>
       </c>
       <c r="E27" t="n">
-        <v>12.67740004319295</v>
+        <v>95.75681290103941</v>
       </c>
       <c r="F27" t="n">
-        <v>12.67740004319295</v>
+        <v>95.75681290103941</v>
       </c>
       <c r="G27" t="n">
-        <v>12.67740004319295</v>
+        <v>41.37961467384953</v>
       </c>
       <c r="H27" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="I27" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="J27" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="K27" t="n">
-        <v>138.0349601010304</v>
+        <v>89.79330973382281</v>
       </c>
       <c r="L27" t="n">
-        <v>294.9177856355431</v>
+        <v>89.79330973382281</v>
       </c>
       <c r="M27" t="n">
-        <v>407.5926181118053</v>
+        <v>89.79330973382281</v>
       </c>
       <c r="N27" t="n">
-        <v>407.5926181118053</v>
+        <v>242.7991248451632</v>
       </c>
       <c r="O27" t="n">
-        <v>407.5926181118053</v>
+        <v>395.8049399565035</v>
       </c>
       <c r="P27" t="n">
-        <v>564.475443646318</v>
+        <v>548.8107550678438</v>
       </c>
       <c r="Q27" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="R27" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="S27" t="n">
-        <v>633.8700021596474</v>
+        <v>529.1415962220367</v>
       </c>
       <c r="T27" t="n">
-        <v>633.8700021596474</v>
+        <v>529.1415962220367</v>
       </c>
       <c r="U27" t="n">
-        <v>485.8543976706528</v>
+        <v>385.2716051486203</v>
       </c>
       <c r="V27" t="n">
-        <v>330.9103032135265</v>
+        <v>385.2716051486203</v>
       </c>
       <c r="W27" t="n">
-        <v>170.8421208499792</v>
+        <v>229.1591522240816</v>
       </c>
       <c r="X27" t="n">
-        <v>43.1986344190628</v>
+        <v>105.6612792087434</v>
       </c>
       <c r="Y27" t="n">
-        <v>12.67740004319295</v>
+        <v>105.6612792087434</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>26.77158840662983</v>
+        <v>106.8952369571945</v>
       </c>
       <c r="C28" t="n">
-        <v>26.77158840662983</v>
+        <v>22.31268121948217</v>
       </c>
       <c r="D28" t="n">
-        <v>26.77158840662983</v>
+        <v>22.31268121948217</v>
       </c>
       <c r="E28" t="n">
-        <v>26.77158840662983</v>
+        <v>22.31268121948217</v>
       </c>
       <c r="F28" t="n">
-        <v>26.77158840662983</v>
+        <v>22.31268121948217</v>
       </c>
       <c r="G28" t="n">
-        <v>26.77158840662983</v>
+        <v>22.31268121948217</v>
       </c>
       <c r="H28" t="n">
-        <v>26.77158840662983</v>
+        <v>22.31268121948217</v>
       </c>
       <c r="I28" t="n">
-        <v>26.77158840662983</v>
+        <v>22.31268121948217</v>
       </c>
       <c r="J28" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="K28" t="n">
-        <v>69.24247743607049</v>
+        <v>72.99229937310918</v>
       </c>
       <c r="L28" t="n">
-        <v>175.168476744285</v>
+        <v>182.981414389932</v>
       </c>
       <c r="M28" t="n">
-        <v>292.9683892370088</v>
+        <v>304.8444425912639</v>
       </c>
       <c r="N28" t="n">
-        <v>415.2711141929466</v>
+        <v>431.2102832558099</v>
       </c>
       <c r="O28" t="n">
-        <v>518.2222651283474</v>
+        <v>538.2245498998188</v>
       </c>
       <c r="P28" t="n">
-        <v>594.1399131010935</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="Q28" t="n">
-        <v>594.1399131010935</v>
+        <v>615.5265738504644</v>
       </c>
       <c r="R28" t="n">
-        <v>594.1399131010935</v>
+        <v>520.7959673263464</v>
       </c>
       <c r="S28" t="n">
-        <v>594.1399131010935</v>
+        <v>503.938451229601</v>
       </c>
       <c r="T28" t="n">
-        <v>494.6894902571254</v>
+        <v>503.938451229601</v>
       </c>
       <c r="U28" t="n">
-        <v>334.6213078935781</v>
+        <v>503.938451229601</v>
       </c>
       <c r="V28" t="n">
-        <v>334.6213078935781</v>
+        <v>503.938451229601</v>
       </c>
       <c r="W28" t="n">
-        <v>174.5531255300307</v>
+        <v>347.8259983050623</v>
       </c>
       <c r="X28" t="n">
-        <v>26.77158840662983</v>
+        <v>204.1900745972396</v>
       </c>
       <c r="Y28" t="n">
-        <v>26.77158840662983</v>
+        <v>204.1900745972396</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>172.7455824067403</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="C29" t="n">
-        <v>172.7455824067403</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="D29" t="n">
-        <v>12.67740004319295</v>
+        <v>462.0928606566345</v>
       </c>
       <c r="E29" t="n">
-        <v>12.67740004319295</v>
+        <v>305.9804077320957</v>
       </c>
       <c r="F29" t="n">
-        <v>12.67740004319295</v>
+        <v>149.867954807557</v>
       </c>
       <c r="G29" t="n">
-        <v>12.67740004319295</v>
+        <v>149.867954807557</v>
       </c>
       <c r="H29" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="I29" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="J29" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="K29" t="n">
-        <v>115.6924059541153</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="L29" t="n">
-        <v>272.575231488628</v>
+        <v>73.33867792379345</v>
       </c>
       <c r="M29" t="n">
-        <v>272.575231488628</v>
+        <v>226.3444930351338</v>
       </c>
       <c r="N29" t="n">
-        <v>429.4580570231408</v>
+        <v>379.3503081464742</v>
       </c>
       <c r="O29" t="n">
-        <v>578.6530071657888</v>
+        <v>528.5452582891222</v>
       </c>
       <c r="P29" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="Q29" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="R29" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="S29" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="T29" t="n">
-        <v>633.3973094281178</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="U29" t="n">
-        <v>492.8819471338348</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="V29" t="n">
-        <v>492.8819471338348</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="W29" t="n">
-        <v>332.8137647702875</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="X29" t="n">
-        <v>332.8137647702875</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="Y29" t="n">
-        <v>172.7455824067403</v>
+        <v>618.2053135811732</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>45.84282242388731</v>
+        <v>131.975112165988</v>
       </c>
       <c r="C30" t="n">
-        <v>45.84282242388731</v>
+        <v>70.89121847728163</v>
       </c>
       <c r="D30" t="n">
-        <v>45.84282242388731</v>
+        <v>70.89121847728163</v>
       </c>
       <c r="E30" t="n">
-        <v>45.84282242388731</v>
+        <v>70.89121847728163</v>
       </c>
       <c r="F30" t="n">
-        <v>12.67740004319295</v>
+        <v>37.72579609658727</v>
       </c>
       <c r="G30" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="H30" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="I30" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="J30" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="K30" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="L30" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="M30" t="n">
-        <v>169.5602255777057</v>
+        <v>165.3699213829638</v>
       </c>
       <c r="N30" t="n">
-        <v>326.4430511122184</v>
+        <v>318.3757364943042</v>
       </c>
       <c r="O30" t="n">
-        <v>483.3258766467312</v>
+        <v>471.3815516056445</v>
       </c>
       <c r="P30" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="Q30" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="R30" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="S30" t="n">
-        <v>573.8217932027369</v>
+        <v>558.1571046242627</v>
       </c>
       <c r="T30" t="n">
-        <v>485.0043341539237</v>
+        <v>469.3396455754495</v>
       </c>
       <c r="U30" t="n">
-        <v>370.1498514827334</v>
+        <v>354.4851629042592</v>
       </c>
       <c r="V30" t="n">
-        <v>248.3668788434113</v>
+        <v>354.4851629042592</v>
       </c>
       <c r="W30" t="n">
-        <v>140.3251870369994</v>
+        <v>320.8486399516333</v>
       </c>
       <c r="X30" t="n">
-        <v>45.84282242388731</v>
+        <v>226.3662753385212</v>
       </c>
       <c r="Y30" t="n">
-        <v>45.84282242388731</v>
+        <v>131.975112165988</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.5393502819299</v>
+        <v>62.86080149479833</v>
       </c>
       <c r="C31" t="n">
-        <v>12.67740004319295</v>
+        <v>62.86080149479833</v>
       </c>
       <c r="D31" t="n">
-        <v>12.67740004319295</v>
+        <v>62.86080149479833</v>
       </c>
       <c r="E31" t="n">
-        <v>12.67740004319295</v>
+        <v>62.86080149479833</v>
       </c>
       <c r="F31" t="n">
-        <v>12.67740004319295</v>
+        <v>62.86080149479833</v>
       </c>
       <c r="G31" t="n">
-        <v>12.67740004319295</v>
+        <v>62.86080149479833</v>
       </c>
       <c r="H31" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="I31" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="J31" t="n">
-        <v>31.3649015218184</v>
+        <v>31.05160775024891</v>
       </c>
       <c r="K31" t="n">
-        <v>120.4311944083259</v>
+        <v>120.1179006367564</v>
       </c>
       <c r="L31" t="n">
-        <v>170.1941266474965</v>
+        <v>156.3275634072498</v>
       </c>
       <c r="M31" t="n">
-        <v>209.3821648397187</v>
+        <v>306.6286913936035</v>
       </c>
       <c r="N31" t="n">
-        <v>364.1861052892866</v>
+        <v>459.6345065049438</v>
       </c>
       <c r="O31" t="n">
-        <v>499.6384717183173</v>
+        <v>483.9737831398431</v>
       </c>
       <c r="P31" t="n">
-        <v>608.0573351846933</v>
+        <v>592.3926466062192</v>
       </c>
       <c r="Q31" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="R31" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="S31" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="T31" t="n">
-        <v>516.9910676224907</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="U31" t="n">
-        <v>356.9228852589434</v>
+        <v>462.0928606566345</v>
       </c>
       <c r="V31" t="n">
-        <v>215.6075326454772</v>
+        <v>320.7775080431683</v>
       </c>
       <c r="W31" t="n">
-        <v>55.5393502819299</v>
+        <v>164.6650551186296</v>
       </c>
       <c r="X31" t="n">
-        <v>55.5393502819299</v>
+        <v>62.86080149479833</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.5393502819299</v>
+        <v>62.86080149479833</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>361.8216123944486</v>
+        <v>462.0928606566345</v>
       </c>
       <c r="C32" t="n">
-        <v>361.8216123944486</v>
+        <v>462.0928606566345</v>
       </c>
       <c r="D32" t="n">
-        <v>201.7534300309013</v>
+        <v>462.0928606566345</v>
       </c>
       <c r="E32" t="n">
-        <v>201.7534300309013</v>
+        <v>305.9804077320957</v>
       </c>
       <c r="F32" t="n">
-        <v>41.68524766735396</v>
+        <v>305.9804077320957</v>
       </c>
       <c r="G32" t="n">
-        <v>41.68524766735396</v>
+        <v>149.867954807557</v>
       </c>
       <c r="H32" t="n">
-        <v>41.68524766735396</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="I32" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="J32" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="K32" t="n">
-        <v>115.6924059541153</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="L32" t="n">
-        <v>272.575231488628</v>
+        <v>165.3699213829638</v>
       </c>
       <c r="M32" t="n">
-        <v>272.575231488628</v>
+        <v>318.3757364943042</v>
       </c>
       <c r="N32" t="n">
-        <v>429.4580570231408</v>
+        <v>469.0103634385251</v>
       </c>
       <c r="O32" t="n">
-        <v>578.6530071657888</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="P32" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="Q32" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="R32" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="S32" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="T32" t="n">
-        <v>521.8897947579959</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="U32" t="n">
-        <v>521.8897947579959</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="V32" t="n">
-        <v>521.8897947579959</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="W32" t="n">
-        <v>521.8897947579959</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="X32" t="n">
-        <v>521.8897947579959</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="Y32" t="n">
-        <v>361.8216123944486</v>
+        <v>618.2053135811732</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>12.67740004319295</v>
+        <v>57.49101491353339</v>
       </c>
       <c r="C33" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="D33" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="E33" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="F33" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="G33" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="H33" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="I33" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="J33" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="K33" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="L33" t="n">
-        <v>93.82696704277981</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="M33" t="n">
-        <v>93.82696704277981</v>
+        <v>159.1878682471522</v>
       </c>
       <c r="N33" t="n">
-        <v>250.7097925772925</v>
+        <v>312.1936833584925</v>
       </c>
       <c r="O33" t="n">
-        <v>407.5926181118053</v>
+        <v>465.1994984698329</v>
       </c>
       <c r="P33" t="n">
-        <v>564.475443646318</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="Q33" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="R33" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="S33" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="T33" t="n">
-        <v>545.0525431108341</v>
+        <v>529.3878545323599</v>
       </c>
       <c r="U33" t="n">
-        <v>430.1980604396438</v>
+        <v>414.5333718611697</v>
       </c>
       <c r="V33" t="n">
-        <v>308.4150878003218</v>
+        <v>292.7503992218476</v>
       </c>
       <c r="W33" t="n">
-        <v>167.5468666645408</v>
+        <v>151.8821780860666</v>
       </c>
       <c r="X33" t="n">
-        <v>73.06450205142866</v>
+        <v>151.8821780860666</v>
       </c>
       <c r="Y33" t="n">
-        <v>12.67740004319295</v>
+        <v>57.49101491353339</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>175.7332996570074</v>
+        <v>198.5569641809863</v>
       </c>
       <c r="C34" t="n">
-        <v>120.1662523215211</v>
+        <v>198.5569641809863</v>
       </c>
       <c r="D34" t="n">
-        <v>120.1662523215211</v>
+        <v>198.5569641809863</v>
       </c>
       <c r="E34" t="n">
-        <v>120.1662523215211</v>
+        <v>164.0130061910139</v>
       </c>
       <c r="F34" t="n">
-        <v>120.1662523215211</v>
+        <v>162.8310699924995</v>
       </c>
       <c r="G34" t="n">
-        <v>63.84752997610466</v>
+        <v>106.512347647083</v>
       </c>
       <c r="H34" t="n">
-        <v>13.35083475292979</v>
+        <v>56.01565242390814</v>
       </c>
       <c r="I34" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="J34" t="n">
-        <v>31.3649015218184</v>
+        <v>31.05160775024891</v>
       </c>
       <c r="K34" t="n">
-        <v>120.4311944083259</v>
+        <v>120.1179006367564</v>
       </c>
       <c r="L34" t="n">
-        <v>258.8584092101704</v>
+        <v>258.5451154386009</v>
       </c>
       <c r="M34" t="n">
-        <v>409.159537196524</v>
+        <v>297.733153630823</v>
       </c>
       <c r="N34" t="n">
-        <v>475.299195083418</v>
+        <v>450.7389687421634</v>
       </c>
       <c r="O34" t="n">
-        <v>499.6384717183173</v>
+        <v>483.9737831398431</v>
       </c>
       <c r="P34" t="n">
-        <v>608.0573351846933</v>
+        <v>592.3926466062192</v>
       </c>
       <c r="Q34" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="R34" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="S34" t="n">
-        <v>520.9597457955304</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="T34" t="n">
-        <v>404.0808112583737</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="U34" t="n">
-        <v>404.0808112583737</v>
+        <v>462.0928606566345</v>
       </c>
       <c r="V34" t="n">
-        <v>404.0808112583737</v>
+        <v>462.0928606566345</v>
       </c>
       <c r="W34" t="n">
-        <v>244.0126288948264</v>
+        <v>305.9804077320957</v>
       </c>
       <c r="X34" t="n">
-        <v>244.0126288948264</v>
+        <v>305.9804077320957</v>
       </c>
       <c r="Y34" t="n">
-        <v>244.0126288948264</v>
+        <v>198.5569641809863</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>18.61574121777682</v>
+        <v>168.4765591961622</v>
       </c>
       <c r="C35" t="n">
-        <v>18.61574121777682</v>
+        <v>168.4765591961622</v>
       </c>
       <c r="D35" t="n">
-        <v>18.61574121777682</v>
+        <v>168.4765591961622</v>
       </c>
       <c r="E35" t="n">
-        <v>18.61574121777682</v>
+        <v>168.4765591961622</v>
       </c>
       <c r="F35" t="n">
-        <v>18.61574121777682</v>
+        <v>168.4765591961622</v>
       </c>
       <c r="G35" t="n">
-        <v>18.61574121777682</v>
+        <v>168.4765591961622</v>
       </c>
       <c r="H35" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="I35" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="J35" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="K35" t="n">
-        <v>81.24934565592287</v>
+        <v>115.3791121825458</v>
       </c>
       <c r="L35" t="n">
-        <v>238.1321711904356</v>
+        <v>268.3849272938862</v>
       </c>
       <c r="M35" t="n">
-        <v>395.0149967249483</v>
+        <v>268.3849272938862</v>
       </c>
       <c r="N35" t="n">
-        <v>395.0149967249483</v>
+        <v>421.3907424052265</v>
       </c>
       <c r="O35" t="n">
-        <v>544.2099468675964</v>
+        <v>570.5856925478746</v>
       </c>
       <c r="P35" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="Q35" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="R35" t="n">
-        <v>633.8700021596474</v>
+        <v>561.2676087242921</v>
       </c>
       <c r="S35" t="n">
-        <v>633.8700021596474</v>
+        <v>455.4931125563513</v>
       </c>
       <c r="T35" t="n">
-        <v>498.8202883084188</v>
+        <v>324.5890121207009</v>
       </c>
       <c r="U35" t="n">
-        <v>338.7521059448715</v>
+        <v>168.4765591961622</v>
       </c>
       <c r="V35" t="n">
-        <v>178.6839235813241</v>
+        <v>168.4765591961622</v>
       </c>
       <c r="W35" t="n">
-        <v>178.6839235813241</v>
+        <v>168.4765591961622</v>
       </c>
       <c r="X35" t="n">
-        <v>18.61574121777682</v>
+        <v>168.4765591961622</v>
       </c>
       <c r="Y35" t="n">
-        <v>18.61574121777682</v>
+        <v>168.4765591961622</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>226.9662834240023</v>
+        <v>136.0273267540036</v>
       </c>
       <c r="C36" t="n">
-        <v>142.8128832857188</v>
+        <v>136.0273267540036</v>
       </c>
       <c r="D36" t="n">
-        <v>84.17810276731109</v>
+        <v>127.6628975792786</v>
       </c>
       <c r="E36" t="n">
-        <v>84.17810276731109</v>
+        <v>127.6628975792786</v>
       </c>
       <c r="F36" t="n">
-        <v>84.17810276731109</v>
+        <v>75.57358216458528</v>
       </c>
       <c r="G36" t="n">
-        <v>35.74690649277011</v>
+        <v>31.28799930562246</v>
       </c>
       <c r="H36" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="I36" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="J36" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="K36" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="L36" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="M36" t="n">
-        <v>169.5602255777057</v>
+        <v>165.3699213829638</v>
       </c>
       <c r="N36" t="n">
-        <v>326.4430511122184</v>
+        <v>318.3757364943042</v>
       </c>
       <c r="O36" t="n">
-        <v>483.3258766467312</v>
+        <v>395.8049399565035</v>
       </c>
       <c r="P36" t="n">
-        <v>633.8700021596474</v>
+        <v>548.8107550678438</v>
       </c>
       <c r="Q36" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="R36" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="S36" t="n">
-        <v>633.8700021596474</v>
+        <v>539.2332115902637</v>
       </c>
       <c r="T36" t="n">
-        <v>521.983036661257</v>
+        <v>539.2332115902637</v>
       </c>
       <c r="U36" t="n">
-        <v>384.0590475404896</v>
+        <v>405.4548358850745</v>
       </c>
       <c r="V36" t="n">
-        <v>239.2065684515904</v>
+        <v>405.4548358850745</v>
       </c>
       <c r="W36" t="n">
-        <v>239.2065684515904</v>
+        <v>249.3423829605358</v>
       </c>
       <c r="X36" t="n">
-        <v>239.2065684515904</v>
+        <v>249.3423829605358</v>
       </c>
       <c r="Y36" t="n">
-        <v>239.2065684515904</v>
+        <v>136.0273267540036</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>40.06395286368476</v>
+        <v>89.50726717808885</v>
       </c>
       <c r="C37" t="n">
-        <v>12.67740004319295</v>
+        <v>15.01632680860361</v>
       </c>
       <c r="D37" t="n">
-        <v>12.67740004319295</v>
+        <v>15.01632680860361</v>
       </c>
       <c r="E37" t="n">
-        <v>12.67740004319295</v>
+        <v>15.01632680860361</v>
       </c>
       <c r="F37" t="n">
-        <v>12.67740004319295</v>
+        <v>15.01632680860361</v>
       </c>
       <c r="G37" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="H37" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="I37" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="J37" t="n">
-        <v>12.67740004319295</v>
+        <v>12.50430018762649</v>
       </c>
       <c r="K37" t="n">
-        <v>79.13326965846984</v>
+        <v>83.02328551151155</v>
       </c>
       <c r="L37" t="n">
-        <v>175.3353969132413</v>
+        <v>202.9031927507336</v>
       </c>
       <c r="M37" t="n">
-        <v>303.0261016283644</v>
+        <v>267.9067065117341</v>
       </c>
       <c r="N37" t="n">
-        <v>435.2196188067016</v>
+        <v>404.1633393986795</v>
       </c>
       <c r="O37" t="n">
-        <v>548.0615619645018</v>
+        <v>521.0683982650878</v>
       </c>
       <c r="P37" t="n">
-        <v>633.8700021596474</v>
+        <v>610.9399541688415</v>
       </c>
       <c r="Q37" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="R37" t="n">
-        <v>633.8700021596474</v>
+        <v>533.5663224252822</v>
       </c>
       <c r="S37" t="n">
-        <v>497.8902393459532</v>
+        <v>401.7321730271663</v>
       </c>
       <c r="T37" t="n">
-        <v>497.8902393459532</v>
+        <v>401.7321730271663</v>
       </c>
       <c r="U37" t="n">
-        <v>497.8902393459532</v>
+        <v>401.7321730271663</v>
       </c>
       <c r="V37" t="n">
-        <v>337.8220569824059</v>
+        <v>245.6197201026276</v>
       </c>
       <c r="W37" t="n">
-        <v>177.7538746188586</v>
+        <v>89.50726717808885</v>
       </c>
       <c r="X37" t="n">
-        <v>40.06395286368476</v>
+        <v>89.50726717808885</v>
       </c>
       <c r="Y37" t="n">
-        <v>40.06395286368476</v>
+        <v>89.50726717808885</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>455.1160442844198</v>
+        <v>305.9804077320957</v>
       </c>
       <c r="C38" t="n">
-        <v>455.1160442844198</v>
+        <v>305.9804077320957</v>
       </c>
       <c r="D38" t="n">
-        <v>455.1160442844198</v>
+        <v>305.9804077320957</v>
       </c>
       <c r="E38" t="n">
-        <v>455.1160442844198</v>
+        <v>149.867954807557</v>
       </c>
       <c r="F38" t="n">
-        <v>455.1160442844198</v>
+        <v>149.867954807557</v>
       </c>
       <c r="G38" t="n">
-        <v>295.0478619208724</v>
+        <v>149.867954807557</v>
       </c>
       <c r="H38" t="n">
-        <v>134.9796795573251</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="I38" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="J38" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="K38" t="n">
-        <v>115.6924059541153</v>
+        <v>69.52781295510118</v>
       </c>
       <c r="L38" t="n">
-        <v>115.6924059541153</v>
+        <v>222.5336280664415</v>
       </c>
       <c r="M38" t="n">
-        <v>238.1321711904356</v>
+        <v>375.5394431777819</v>
       </c>
       <c r="N38" t="n">
-        <v>395.0149967249483</v>
+        <v>528.5452582891222</v>
       </c>
       <c r="O38" t="n">
-        <v>544.2099468675964</v>
+        <v>528.5452582891222</v>
       </c>
       <c r="P38" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="Q38" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="R38" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="S38" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="T38" t="n">
-        <v>615.1842266479671</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="U38" t="n">
-        <v>615.1842266479671</v>
+        <v>462.0928606566345</v>
       </c>
       <c r="V38" t="n">
-        <v>455.1160442844198</v>
+        <v>462.0928606566345</v>
       </c>
       <c r="W38" t="n">
-        <v>455.1160442844198</v>
+        <v>462.0928606566345</v>
       </c>
       <c r="X38" t="n">
-        <v>455.1160442844198</v>
+        <v>462.0928606566345</v>
       </c>
       <c r="Y38" t="n">
-        <v>455.1160442844198</v>
+        <v>305.9804077320957</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="C39" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="D39" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="E39" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="F39" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="G39" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="H39" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="I39" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="J39" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="K39" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="L39" t="n">
-        <v>163.2215255561092</v>
+        <v>159.1878682471522</v>
       </c>
       <c r="M39" t="n">
-        <v>320.1043510906219</v>
+        <v>312.1936833584925</v>
       </c>
       <c r="N39" t="n">
-        <v>476.9871766251346</v>
+        <v>465.1994984698329</v>
       </c>
       <c r="O39" t="n">
-        <v>633.8700021596474</v>
+        <v>465.1994984698329</v>
       </c>
       <c r="P39" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="Q39" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="R39" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="S39" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="T39" t="n">
-        <v>573.0739216790962</v>
+        <v>556.3680582217837</v>
       </c>
       <c r="U39" t="n">
-        <v>435.1499325583288</v>
+        <v>422.5896825165944</v>
       </c>
       <c r="V39" t="n">
-        <v>290.2974534694296</v>
+        <v>281.8828168432733</v>
       </c>
       <c r="W39" t="n">
-        <v>130.2292711058822</v>
+        <v>125.7703639187346</v>
       </c>
       <c r="X39" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="Y39" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>91.31395382825634</v>
+        <v>400.0062454274419</v>
       </c>
       <c r="C40" t="n">
-        <v>12.67740004319295</v>
+        <v>325.5153050579566</v>
       </c>
       <c r="D40" t="n">
-        <v>12.67740004319295</v>
+        <v>325.5153050579566</v>
       </c>
       <c r="E40" t="n">
-        <v>12.67740004319295</v>
+        <v>272.0474540339852</v>
       </c>
       <c r="F40" t="n">
-        <v>12.67740004319295</v>
+        <v>219.6027490944965</v>
       </c>
       <c r="G40" t="n">
-        <v>12.67740004319295</v>
+        <v>144.360133715081</v>
       </c>
       <c r="H40" t="n">
-        <v>12.67740004319295</v>
+        <v>74.93954545790714</v>
       </c>
       <c r="I40" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="J40" t="n">
-        <v>12.67740004319295</v>
+        <v>12.50430018762649</v>
       </c>
       <c r="K40" t="n">
-        <v>79.13326965846984</v>
+        <v>83.02328551151155</v>
       </c>
       <c r="L40" t="n">
-        <v>194.9500611890837</v>
+        <v>202.9031927507336</v>
       </c>
       <c r="M40" t="n">
-        <v>322.6407659042068</v>
+        <v>334.6570131744649</v>
       </c>
       <c r="N40" t="n">
-        <v>454.8342830825441</v>
+        <v>470.9136460614102</v>
       </c>
       <c r="O40" t="n">
-        <v>544.8593182607783</v>
+        <v>521.0683982650878</v>
       </c>
       <c r="P40" t="n">
-        <v>630.6677584559238</v>
+        <v>610.9399541688415</v>
       </c>
       <c r="Q40" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="R40" t="n">
-        <v>633.8700021596474</v>
+        <v>533.5663224252822</v>
       </c>
       <c r="S40" t="n">
-        <v>633.8700021596474</v>
+        <v>533.5663224252822</v>
       </c>
       <c r="T40" t="n">
-        <v>633.8700021596474</v>
+        <v>400.0062454274419</v>
       </c>
       <c r="U40" t="n">
-        <v>473.8018197961001</v>
+        <v>400.0062454274419</v>
       </c>
       <c r="V40" t="n">
-        <v>313.7336374325528</v>
+        <v>400.0062454274419</v>
       </c>
       <c r="W40" t="n">
-        <v>153.6654550690054</v>
+        <v>400.0062454274419</v>
       </c>
       <c r="X40" t="n">
-        <v>91.31395382825634</v>
+        <v>400.0062454274419</v>
       </c>
       <c r="Y40" t="n">
-        <v>91.31395382825634</v>
+        <v>400.0062454274419</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>313.7336374325528</v>
+        <v>168.4765591961622</v>
       </c>
       <c r="C41" t="n">
-        <v>313.7336374325528</v>
+        <v>168.4765591961622</v>
       </c>
       <c r="D41" t="n">
-        <v>153.6654550690054</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="E41" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="F41" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="G41" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="H41" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="I41" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="J41" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="K41" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="L41" t="n">
-        <v>169.5602255777057</v>
+        <v>73.33867792379345</v>
       </c>
       <c r="M41" t="n">
-        <v>326.4430511122184</v>
+        <v>226.3444930351338</v>
       </c>
       <c r="N41" t="n">
-        <v>483.3258766467312</v>
+        <v>379.3503081464742</v>
       </c>
       <c r="O41" t="n">
-        <v>632.5208267893793</v>
+        <v>528.5452582891222</v>
       </c>
       <c r="P41" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="Q41" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="R41" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="S41" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="T41" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="U41" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="V41" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="W41" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="X41" t="n">
-        <v>633.8700021596474</v>
+        <v>462.0928606566345</v>
       </c>
       <c r="Y41" t="n">
-        <v>473.8018197961001</v>
+        <v>305.9804077320957</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>12.67740004319295</v>
+        <v>72.68730645146221</v>
       </c>
       <c r="C42" t="n">
-        <v>12.67740004319295</v>
+        <v>72.68730645146221</v>
       </c>
       <c r="D42" t="n">
-        <v>12.67740004319295</v>
+        <v>72.68730645146221</v>
       </c>
       <c r="E42" t="n">
-        <v>12.67740004319295</v>
+        <v>72.68730645146221</v>
       </c>
       <c r="F42" t="n">
-        <v>12.67740004319295</v>
+        <v>72.68730645146221</v>
       </c>
       <c r="G42" t="n">
-        <v>12.67740004319295</v>
+        <v>18.31010822427235</v>
       </c>
       <c r="H42" t="n">
-        <v>12.67740004319295</v>
+        <v>18.31010822427235</v>
       </c>
       <c r="I42" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="J42" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="K42" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="L42" t="n">
-        <v>169.5602255777057</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="M42" t="n">
-        <v>326.4430511122184</v>
+        <v>165.3699213829638</v>
       </c>
       <c r="N42" t="n">
-        <v>483.3258766467312</v>
+        <v>318.3757364943042</v>
       </c>
       <c r="O42" t="n">
-        <v>483.3258766467312</v>
+        <v>471.3815516056445</v>
       </c>
       <c r="P42" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="Q42" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="R42" t="n">
-        <v>633.8700021596474</v>
+        <v>612.5319488501018</v>
       </c>
       <c r="S42" t="n">
-        <v>577.4154768207674</v>
+        <v>523.4682314909653</v>
       </c>
       <c r="T42" t="n">
-        <v>462.1930244203869</v>
+        <v>523.4682314909653</v>
       </c>
       <c r="U42" t="n">
-        <v>320.9335483976295</v>
+        <v>379.5982404175489</v>
       </c>
       <c r="V42" t="n">
-        <v>172.7455824067403</v>
+        <v>228.7997593760009</v>
       </c>
       <c r="W42" t="n">
-        <v>12.67740004319295</v>
+        <v>72.68730645146221</v>
       </c>
       <c r="X42" t="n">
-        <v>12.67740004319295</v>
+        <v>72.68730645146221</v>
       </c>
       <c r="Y42" t="n">
-        <v>12.67740004319295</v>
+        <v>72.68730645146221</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>164.3981858123444</v>
+        <v>235.6544993513295</v>
       </c>
       <c r="C43" t="n">
-        <v>82.42614512529103</v>
+        <v>235.6544993513295</v>
       </c>
       <c r="D43" t="n">
-        <v>82.42614512529103</v>
+        <v>235.6544993513295</v>
       </c>
       <c r="E43" t="n">
-        <v>82.42614512529103</v>
+        <v>172.095032959131</v>
       </c>
       <c r="F43" t="n">
-        <v>22.5003398682342</v>
+        <v>172.095032959131</v>
       </c>
       <c r="G43" t="n">
-        <v>22.5003398682342</v>
+        <v>86.76080221148852</v>
       </c>
       <c r="H43" t="n">
-        <v>12.67740004319295</v>
+        <v>86.76080221148852</v>
       </c>
       <c r="I43" t="n">
-        <v>12.67740004319295</v>
+        <v>14.0937476569778</v>
       </c>
       <c r="J43" t="n">
-        <v>12.67740004319295</v>
+        <v>12.36410627162346</v>
       </c>
       <c r="K43" t="n">
-        <v>75.86415894582944</v>
+        <v>72.99229937310918</v>
       </c>
       <c r="L43" t="n">
-        <v>188.411839763803</v>
+        <v>182.9814143899319</v>
       </c>
       <c r="M43" t="n">
-        <v>312.8334337662856</v>
+        <v>304.8444425912638</v>
       </c>
       <c r="N43" t="n">
-        <v>441.7578402319824</v>
+        <v>431.2102832558098</v>
       </c>
       <c r="O43" t="n">
-        <v>551.3306726771423</v>
+        <v>538.2245498998188</v>
       </c>
       <c r="P43" t="n">
-        <v>633.8700021596474</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="Q43" t="n">
-        <v>633.8017774795975</v>
+        <v>618.2053135811732</v>
       </c>
       <c r="R43" t="n">
-        <v>541.6816860061384</v>
+        <v>523.4747070570552</v>
       </c>
       <c r="S43" t="n">
-        <v>402.3664362904543</v>
+        <v>381.5489422907121</v>
       </c>
       <c r="T43" t="n">
-        <v>259.0825084017306</v>
+        <v>235.6544993513295</v>
       </c>
       <c r="U43" t="n">
-        <v>259.0825084017306</v>
+        <v>235.6544993513295</v>
       </c>
       <c r="V43" t="n">
-        <v>259.0825084017306</v>
+        <v>235.6544993513295</v>
       </c>
       <c r="W43" t="n">
-        <v>259.0825084017306</v>
+        <v>235.6544993513295</v>
       </c>
       <c r="X43" t="n">
-        <v>259.0825084017306</v>
+        <v>235.6544993513295</v>
       </c>
       <c r="Y43" t="n">
-        <v>259.0825084017306</v>
+        <v>235.6544993513295</v>
       </c>
     </row>
     <row r="44">
@@ -9401,22 +9401,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>394.2339155098991</v>
+        <v>390.3177433652805</v>
       </c>
       <c r="M20" t="n">
-        <v>388.8137337671845</v>
+        <v>384.8975616225661</v>
       </c>
       <c r="N20" t="n">
-        <v>387.8805641365028</v>
+        <v>383.9643919918842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>274.3494801738143</v>
       </c>
       <c r="P20" t="n">
-        <v>232.5957991595807</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9480,19 +9480,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>297.021880319786</v>
+        <v>293.1057081751675</v>
       </c>
       <c r="M21" t="n">
-        <v>300.6015344619302</v>
+        <v>296.6853623173116</v>
       </c>
       <c r="N21" t="n">
-        <v>289.8092126232451</v>
+        <v>237.4805590688911</v>
       </c>
       <c r="O21" t="n">
-        <v>224.5655040399867</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -9638,22 +9638,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L23" t="n">
-        <v>394.2339155098991</v>
+        <v>390.3177433652805</v>
       </c>
       <c r="M23" t="n">
-        <v>230.3462332272727</v>
+        <v>291.936709643606</v>
       </c>
       <c r="N23" t="n">
-        <v>387.8805641365028</v>
+        <v>383.9643919918842</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>287.0077381733084</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9717,22 +9717,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>293.1057081751675</v>
       </c>
       <c r="M24" t="n">
-        <v>294.1988071673882</v>
+        <v>296.6853623173116</v>
       </c>
       <c r="N24" t="n">
-        <v>289.8092126232451</v>
+        <v>285.8930404786266</v>
       </c>
       <c r="O24" t="n">
-        <v>301.0637449843563</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>292.4419079542421</v>
+        <v>155.6574396544224</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9875,22 +9875,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>394.2339155098991</v>
+        <v>390.3177433652805</v>
       </c>
       <c r="M26" t="n">
-        <v>388.8137337671845</v>
+        <v>384.8975616225661</v>
       </c>
       <c r="N26" t="n">
-        <v>387.8805641365028</v>
+        <v>383.9643919918842</v>
       </c>
       <c r="O26" t="n">
-        <v>291.5972722508435</v>
+        <v>274.3494801738143</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9954,22 +9954,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>216.0527556028432</v>
       </c>
       <c r="L27" t="n">
-        <v>297.021880319786</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>255.9469960192529</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>285.8930404786266</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>297.1475728397377</v>
       </c>
       <c r="P27" t="n">
-        <v>292.4419079542421</v>
+        <v>288.5257358096235</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10112,22 +10112,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L29" t="n">
-        <v>394.2339155098991</v>
+        <v>297.3568913863206</v>
       </c>
       <c r="M29" t="n">
-        <v>230.3462332272727</v>
+        <v>384.8975616225661</v>
       </c>
       <c r="N29" t="n">
-        <v>387.8805641365028</v>
+        <v>383.9643919918842</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>287.0077381733084</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10197,16 +10197,16 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>300.6015344619302</v>
+        <v>296.6853623173116</v>
       </c>
       <c r="N30" t="n">
-        <v>289.8092126232451</v>
+        <v>285.8930404786266</v>
       </c>
       <c r="O30" t="n">
-        <v>301.0637449843563</v>
+        <v>297.1475728397377</v>
       </c>
       <c r="P30" t="n">
-        <v>286.0391806597002</v>
+        <v>282.281237692642</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10349,22 +10349,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L32" t="n">
-        <v>394.2339155098991</v>
+        <v>390.3177433652805</v>
       </c>
       <c r="M32" t="n">
-        <v>230.3462332272727</v>
+        <v>384.8975616225661</v>
       </c>
       <c r="N32" t="n">
-        <v>387.8805641365028</v>
+        <v>381.5692524291374</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>287.0077381733084</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10431,22 +10431,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>220.5236393754165</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>290.4408642003302</v>
       </c>
       <c r="N33" t="n">
-        <v>289.8092126232451</v>
+        <v>285.8930404786266</v>
       </c>
       <c r="O33" t="n">
-        <v>301.0637449843563</v>
+        <v>297.1475728397377</v>
       </c>
       <c r="P33" t="n">
-        <v>292.4419079542421</v>
+        <v>288.5257358096235</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,22 +10586,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>289.3544425729906</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>394.2339155098991</v>
+        <v>390.3177433652805</v>
       </c>
       <c r="M35" t="n">
-        <v>388.8137337671845</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N35" t="n">
-        <v>229.4130635965909</v>
+        <v>383.9643919918842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>279.3336230616317</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10671,19 +10671,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>300.6015344619302</v>
+        <v>296.6853623173116</v>
       </c>
       <c r="N36" t="n">
-        <v>289.8092126232451</v>
+        <v>285.8930404786266</v>
       </c>
       <c r="O36" t="n">
-        <v>301.0637449843563</v>
+        <v>220.8075610729286</v>
       </c>
       <c r="P36" t="n">
-        <v>286.0391806597002</v>
+        <v>288.5257358096235</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,19 +10823,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>277.8309689070792</v>
       </c>
       <c r="L38" t="n">
-        <v>235.7664149699872</v>
+        <v>390.3177433652805</v>
       </c>
       <c r="M38" t="n">
-        <v>354.0227637690104</v>
+        <v>384.8975616225661</v>
       </c>
       <c r="N38" t="n">
-        <v>387.8805641365028</v>
+        <v>383.9643919918842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10905,19 +10905,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>290.6191530252441</v>
+        <v>286.861210058186</v>
       </c>
       <c r="M39" t="n">
-        <v>300.6015344619302</v>
+        <v>296.6853623173116</v>
       </c>
       <c r="N39" t="n">
-        <v>289.8092126232451</v>
+        <v>285.8930404786266</v>
       </c>
       <c r="O39" t="n">
-        <v>301.0637449843563</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>288.5257358096235</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11063,19 +11063,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
-        <v>394.2339155098991</v>
+        <v>297.3568913863206</v>
       </c>
       <c r="M41" t="n">
-        <v>388.8137337671845</v>
+        <v>384.8975616225661</v>
       </c>
       <c r="N41" t="n">
-        <v>387.8805641365028</v>
+        <v>383.9643919918842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>232.5957991595807</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11142,19 +11142,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>297.021880319786</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>300.6015344619302</v>
+        <v>296.6853623173116</v>
       </c>
       <c r="N42" t="n">
-        <v>289.8092126232451</v>
+        <v>285.8930404786266</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>297.1475728397377</v>
       </c>
       <c r="P42" t="n">
-        <v>286.0391806597002</v>
+        <v>282.281237692642</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>319.478152230117</v>
+        <v>317.9584048488469</v>
       </c>
       <c r="C14" t="n">
-        <v>302.017202337644</v>
+        <v>300.4974549563739</v>
       </c>
       <c r="D14" t="n">
-        <v>291.4273521873193</v>
+        <v>289.9076048060493</v>
       </c>
       <c r="E14" t="n">
-        <v>318.6746806388982</v>
+        <v>317.1549332576281</v>
       </c>
       <c r="F14" t="n">
-        <v>343.6203563083478</v>
+        <v>342.1006089270778</v>
       </c>
       <c r="G14" t="n">
-        <v>352.0470480817714</v>
+        <v>350.5273007005014</v>
       </c>
       <c r="H14" t="n">
-        <v>276.2191126824035</v>
+        <v>274.6993653011335</v>
       </c>
       <c r="I14" t="n">
-        <v>147.2202001370423</v>
+        <v>145.7004527557722</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23540,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>86.6134285077861</v>
+        <v>85.093681126516</v>
       </c>
       <c r="S14" t="n">
-        <v>145.7643801528818</v>
+        <v>144.2446327716117</v>
       </c>
       <c r="T14" t="n">
-        <v>159.8401601307678</v>
+        <v>158.3204127494977</v>
       </c>
       <c r="U14" t="n">
-        <v>188.0899634744729</v>
+        <v>186.5702160932028</v>
       </c>
       <c r="V14" t="n">
-        <v>264.4965690367713</v>
+        <v>262.9768216555012</v>
       </c>
       <c r="W14" t="n">
-        <v>285.9852792840494</v>
+        <v>284.4655319027793</v>
       </c>
       <c r="X14" t="n">
-        <v>306.4754112451054</v>
+        <v>304.9556638638354</v>
       </c>
       <c r="Y14" t="n">
-        <v>322.98224922269</v>
+        <v>321.4625018414199</v>
       </c>
     </row>
     <row r="15">
@@ -23571,28 +23571,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>103.2774942165038</v>
+        <v>101.7577468352337</v>
       </c>
       <c r="C15" t="n">
-        <v>109.4528095549522</v>
+        <v>107.9330621736821</v>
       </c>
       <c r="D15" t="n">
-        <v>84.18937613127517</v>
+        <v>82.66962875000507</v>
       </c>
       <c r="E15" t="n">
-        <v>94.38939102203736</v>
+        <v>92.86964364076726</v>
       </c>
       <c r="F15" t="n">
-        <v>81.81352296002029</v>
+        <v>80.2937755787502</v>
       </c>
       <c r="G15" t="n">
-        <v>74.08782772984705</v>
+        <v>72.56808034857696</v>
       </c>
       <c r="H15" t="n">
-        <v>48.97975480313288</v>
+        <v>47.46000742186278</v>
       </c>
       <c r="I15" t="n">
-        <v>26.14094341805149</v>
+        <v>24.6211960367814</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,28 +23619,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>36.90214471927955</v>
+        <v>35.38239733800945</v>
       </c>
       <c r="S15" t="n">
-        <v>108.4274816704742</v>
+        <v>106.9077342892041</v>
       </c>
       <c r="T15" t="n">
-        <v>136.909039261458</v>
+        <v>135.3892918801879</v>
       </c>
       <c r="U15" t="n">
-        <v>162.6856926476112</v>
+        <v>161.1659452663411</v>
       </c>
       <c r="V15" t="n">
-        <v>169.5448977160617</v>
+        <v>168.0251503347916</v>
       </c>
       <c r="W15" t="n">
-        <v>188.439293727556</v>
+        <v>186.9195463462859</v>
       </c>
       <c r="X15" t="n">
-        <v>142.5172957701139</v>
+        <v>140.9975483888438</v>
       </c>
       <c r="Y15" t="n">
-        <v>142.4270063439408</v>
+        <v>140.9072589626707</v>
       </c>
     </row>
     <row r="16">
@@ -23650,31 +23650,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>116.5762907485737</v>
+        <v>115.0565433673036</v>
       </c>
       <c r="C16" t="n">
-        <v>103.9911316652642</v>
+        <v>102.4713842839942</v>
       </c>
       <c r="D16" t="n">
-        <v>85.35978358484877</v>
+        <v>83.84003620357868</v>
       </c>
       <c r="E16" t="n">
-        <v>83.17827321320559</v>
+        <v>81.65852583193549</v>
       </c>
       <c r="F16" t="n">
-        <v>82.16535858956766</v>
+        <v>80.64561120829757</v>
       </c>
       <c r="G16" t="n">
-        <v>104.7352899250952</v>
+        <v>103.2155425438251</v>
       </c>
       <c r="H16" t="n">
-        <v>98.97148307407599</v>
+        <v>97.4517356928059</v>
       </c>
       <c r="I16" t="n">
-        <v>92.1947854938947</v>
+        <v>90.67503811262461</v>
       </c>
       <c r="J16" t="n">
-        <v>30.10349068330919</v>
+        <v>28.5837433020391</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,31 +23695,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>22.9063538183308</v>
+        <v>21.38660643706071</v>
       </c>
       <c r="R16" t="n">
-        <v>114.0377019438059</v>
+        <v>112.5179545625358</v>
       </c>
       <c r="S16" t="n">
-        <v>160.7609086036087</v>
+        <v>159.2411612223386</v>
       </c>
       <c r="T16" t="n">
-        <v>164.6898999949179</v>
+        <v>163.1701526136478</v>
       </c>
       <c r="U16" t="n">
-        <v>223.0633399231273</v>
+        <v>221.5435925418572</v>
       </c>
       <c r="V16" t="n">
-        <v>188.8819538904644</v>
+        <v>187.3622065091943</v>
       </c>
       <c r="W16" t="n">
-        <v>223.2673089032274</v>
+        <v>221.7475615219573</v>
       </c>
       <c r="X16" t="n">
-        <v>162.4539659556736</v>
+        <v>160.9342185744035</v>
       </c>
       <c r="Y16" t="n">
-        <v>155.3289639187312</v>
+        <v>153.8092165374611</v>
       </c>
     </row>
     <row r="17">
@@ -23729,28 +23729,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>319.478152230117</v>
+        <v>317.9584048488469</v>
       </c>
       <c r="C17" t="n">
-        <v>302.017202337644</v>
+        <v>300.4974549563739</v>
       </c>
       <c r="D17" t="n">
-        <v>291.4273521873193</v>
+        <v>289.9076048060493</v>
       </c>
       <c r="E17" t="n">
-        <v>318.6746806388982</v>
+        <v>317.1549332576281</v>
       </c>
       <c r="F17" t="n">
-        <v>343.6203563083478</v>
+        <v>342.1006089270778</v>
       </c>
       <c r="G17" t="n">
-        <v>352.0470480817714</v>
+        <v>350.5273007005014</v>
       </c>
       <c r="H17" t="n">
-        <v>276.2191126824035</v>
+        <v>274.6993653011335</v>
       </c>
       <c r="I17" t="n">
-        <v>147.2202001370423</v>
+        <v>145.7004527557722</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,28 +23777,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>86.6134285077861</v>
+        <v>85.093681126516</v>
       </c>
       <c r="S17" t="n">
-        <v>145.7643801528818</v>
+        <v>144.2446327716117</v>
       </c>
       <c r="T17" t="n">
-        <v>159.8401601307678</v>
+        <v>158.3204127494977</v>
       </c>
       <c r="U17" t="n">
-        <v>188.0899634744729</v>
+        <v>186.5702160932028</v>
       </c>
       <c r="V17" t="n">
-        <v>264.4965690367713</v>
+        <v>262.9768216555012</v>
       </c>
       <c r="W17" t="n">
-        <v>285.9852792840494</v>
+        <v>284.4655319027793</v>
       </c>
       <c r="X17" t="n">
-        <v>306.4754112451054</v>
+        <v>304.9556638638354</v>
       </c>
       <c r="Y17" t="n">
-        <v>322.98224922269</v>
+        <v>321.4625018414199</v>
       </c>
     </row>
     <row r="18">
@@ -23808,28 +23808,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>103.2774942165038</v>
+        <v>101.7577468352337</v>
       </c>
       <c r="C18" t="n">
-        <v>109.4528095549522</v>
+        <v>107.9330621736821</v>
       </c>
       <c r="D18" t="n">
-        <v>84.18937613127517</v>
+        <v>82.66962875000507</v>
       </c>
       <c r="E18" t="n">
-        <v>94.38939102203736</v>
+        <v>92.86964364076726</v>
       </c>
       <c r="F18" t="n">
-        <v>81.81352296002029</v>
+        <v>80.2937755787502</v>
       </c>
       <c r="G18" t="n">
-        <v>74.08782772984705</v>
+        <v>72.56808034857696</v>
       </c>
       <c r="H18" t="n">
-        <v>48.97975480313288</v>
+        <v>47.46000742186278</v>
       </c>
       <c r="I18" t="n">
-        <v>26.14094341805149</v>
+        <v>24.6211960367814</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,28 +23856,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>36.90214471927955</v>
+        <v>35.38239733800945</v>
       </c>
       <c r="S18" t="n">
-        <v>108.4274816704742</v>
+        <v>106.9077342892041</v>
       </c>
       <c r="T18" t="n">
-        <v>136.909039261458</v>
+        <v>135.3892918801879</v>
       </c>
       <c r="U18" t="n">
-        <v>162.6856926476112</v>
+        <v>161.1659452663411</v>
       </c>
       <c r="V18" t="n">
-        <v>169.5448977160617</v>
+        <v>168.0251503347916</v>
       </c>
       <c r="W18" t="n">
-        <v>188.439293727556</v>
+        <v>186.9195463462859</v>
       </c>
       <c r="X18" t="n">
-        <v>142.5172957701139</v>
+        <v>140.9975483888438</v>
       </c>
       <c r="Y18" t="n">
-        <v>142.4270063439408</v>
+        <v>140.9072589626707</v>
       </c>
     </row>
     <row r="19">
@@ -23887,31 +23887,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>116.5762907485737</v>
+        <v>115.0565433673036</v>
       </c>
       <c r="C19" t="n">
-        <v>103.9911316652642</v>
+        <v>102.4713842839942</v>
       </c>
       <c r="D19" t="n">
-        <v>85.35978358484877</v>
+        <v>83.84003620357868</v>
       </c>
       <c r="E19" t="n">
-        <v>83.17827321320559</v>
+        <v>81.65852583193549</v>
       </c>
       <c r="F19" t="n">
-        <v>82.16535858956766</v>
+        <v>80.64561120829757</v>
       </c>
       <c r="G19" t="n">
-        <v>104.7352899250952</v>
+        <v>103.2155425438251</v>
       </c>
       <c r="H19" t="n">
-        <v>98.97148307407599</v>
+        <v>97.4517356928059</v>
       </c>
       <c r="I19" t="n">
-        <v>92.1947854938947</v>
+        <v>90.67503811262461</v>
       </c>
       <c r="J19" t="n">
-        <v>30.10349068330919</v>
+        <v>28.5837433020391</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,31 +23932,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>22.9063538183308</v>
+        <v>21.38660643706071</v>
       </c>
       <c r="R19" t="n">
-        <v>114.0377019438059</v>
+        <v>112.5179545625358</v>
       </c>
       <c r="S19" t="n">
-        <v>160.7609086036087</v>
+        <v>159.2411612223386</v>
       </c>
       <c r="T19" t="n">
-        <v>164.6898999949179</v>
+        <v>163.1701526136478</v>
       </c>
       <c r="U19" t="n">
-        <v>223.0633399231273</v>
+        <v>221.5435925418572</v>
       </c>
       <c r="V19" t="n">
-        <v>188.8819538904644</v>
+        <v>187.3622065091943</v>
       </c>
       <c r="W19" t="n">
-        <v>223.2673089032274</v>
+        <v>221.7475615219573</v>
       </c>
       <c r="X19" t="n">
-        <v>162.4539659556736</v>
+        <v>160.9342185744035</v>
       </c>
       <c r="Y19" t="n">
-        <v>155.3289639187312</v>
+        <v>153.8092165374611</v>
       </c>
     </row>
     <row r="20">
@@ -23966,28 +23966,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>138.1718403051237</v>
+        <v>299.2237507451879</v>
       </c>
       <c r="C20" t="n">
-        <v>120.7108904126508</v>
+        <v>145.6339908021406</v>
       </c>
       <c r="D20" t="n">
-        <v>268.588540802238</v>
+        <v>116.621622307097</v>
       </c>
       <c r="E20" t="n">
-        <v>295.8358692538168</v>
+        <v>143.8689507586758</v>
       </c>
       <c r="F20" t="n">
-        <v>320.7815449232664</v>
+        <v>168.8146264281255</v>
       </c>
       <c r="G20" t="n">
-        <v>329.2082366966901</v>
+        <v>331.7926465968424</v>
       </c>
       <c r="H20" t="n">
-        <v>253.3803012973222</v>
+        <v>255.9647111974745</v>
       </c>
       <c r="I20" t="n">
-        <v>124.3813887519609</v>
+        <v>126.9657986521132</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,28 +24014,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>66.35902702285699</v>
       </c>
       <c r="S20" t="n">
-        <v>47.12201141495068</v>
+        <v>125.5099786679527</v>
       </c>
       <c r="T20" t="n">
-        <v>137.0013487456864</v>
+        <v>139.5857586458387</v>
       </c>
       <c r="U20" t="n">
-        <v>165.2511520893915</v>
+        <v>167.8355619895438</v>
       </c>
       <c r="V20" t="n">
-        <v>241.6577576516899</v>
+        <v>244.2421675518422</v>
       </c>
       <c r="W20" t="n">
-        <v>263.146467898968</v>
+        <v>265.7308777991203</v>
       </c>
       <c r="X20" t="n">
-        <v>283.636599860024</v>
+        <v>286.2210097601763</v>
       </c>
       <c r="Y20" t="n">
-        <v>141.6759372976968</v>
+        <v>302.7278477377609</v>
       </c>
     </row>
     <row r="21">
@@ -24045,28 +24045,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>80.43868283142237</v>
+        <v>83.02309273157465</v>
       </c>
       <c r="C21" t="n">
-        <v>86.61399816987077</v>
+        <v>89.19840807002305</v>
       </c>
       <c r="D21" t="n">
-        <v>61.35056474619378</v>
+        <v>63.93497464634606</v>
       </c>
       <c r="E21" t="n">
-        <v>71.55057963695597</v>
+        <v>74.13498953710825</v>
       </c>
       <c r="F21" t="n">
-        <v>58.97471157493891</v>
+        <v>61.55912147509119</v>
       </c>
       <c r="G21" t="n">
-        <v>51.24901634476566</v>
+        <v>53.83342624491794</v>
       </c>
       <c r="H21" t="n">
-        <v>26.14094341805149</v>
+        <v>28.72535331820377</v>
       </c>
       <c r="I21" t="n">
-        <v>3.302132032970107</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,10 +24093,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>14.06333333419816</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>29.69869019990166</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24108,13 +24108,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>7.132981802562796</v>
+        <v>87.48588752953428</v>
       </c>
       <c r="X21" t="n">
-        <v>119.6784843850325</v>
+        <v>122.2628942851848</v>
       </c>
       <c r="Y21" t="n">
-        <v>119.5881949588594</v>
+        <v>122.1726048590117</v>
       </c>
     </row>
     <row r="22">
@@ -24124,31 +24124,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>93.73747936349233</v>
+        <v>96.32188926364461</v>
       </c>
       <c r="C22" t="n">
-        <v>81.15232028018286</v>
+        <v>83.73673018033514</v>
       </c>
       <c r="D22" t="n">
-        <v>62.52097219976739</v>
+        <v>65.10538209991967</v>
       </c>
       <c r="E22" t="n">
-        <v>60.3394618281242</v>
+        <v>62.92387172827648</v>
       </c>
       <c r="F22" t="n">
-        <v>55.95282832814176</v>
+        <v>61.91095710463856</v>
       </c>
       <c r="G22" t="n">
-        <v>81.89647854001379</v>
+        <v>84.48088844016607</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>78.71708158914689</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>71.94038400896559</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>9.849089198380085</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,31 +24169,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>2.651952333401695</v>
       </c>
       <c r="R22" t="n">
-        <v>91.19889055872451</v>
+        <v>88.04516764167765</v>
       </c>
       <c r="S22" t="n">
-        <v>137.9220972185273</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>200.2245285380459</v>
+        <v>48.2576100429049</v>
       </c>
       <c r="V22" t="n">
-        <v>7.575641965471192</v>
+        <v>168.6275524055353</v>
       </c>
       <c r="W22" t="n">
-        <v>41.96099697823419</v>
+        <v>48.46157902300502</v>
       </c>
       <c r="X22" t="n">
-        <v>139.6151545705922</v>
+        <v>142.1995644707445</v>
       </c>
       <c r="Y22" t="n">
-        <v>132.4901525336498</v>
+        <v>135.0745624338021</v>
       </c>
     </row>
     <row r="23">
@@ -24203,28 +24203,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>296.6393408450356</v>
+        <v>299.2237507451879</v>
       </c>
       <c r="C23" t="n">
-        <v>120.7108904126508</v>
+        <v>281.7628008527149</v>
       </c>
       <c r="D23" t="n">
-        <v>110.1210402623261</v>
+        <v>271.1729507023903</v>
       </c>
       <c r="E23" t="n">
-        <v>156.2576947782624</v>
+        <v>298.4202791539691</v>
       </c>
       <c r="F23" t="n">
-        <v>320.7815449232664</v>
+        <v>323.3659548234187</v>
       </c>
       <c r="G23" t="n">
-        <v>329.2082366966901</v>
+        <v>177.2413182015491</v>
       </c>
       <c r="H23" t="n">
-        <v>253.3803012973222</v>
+        <v>255.9647111974745</v>
       </c>
       <c r="I23" t="n">
-        <v>124.3813887519609</v>
+        <v>126.9657986521132</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,28 +24251,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>63.77461712270471</v>
+        <v>66.35902702285699</v>
       </c>
       <c r="S23" t="n">
-        <v>122.9255687678004</v>
+        <v>125.5099786679527</v>
       </c>
       <c r="T23" t="n">
-        <v>137.0013487456864</v>
+        <v>139.5857586458387</v>
       </c>
       <c r="U23" t="n">
-        <v>165.2511520893915</v>
+        <v>31.70675193896957</v>
       </c>
       <c r="V23" t="n">
-        <v>241.6577576516899</v>
+        <v>89.69083915654892</v>
       </c>
       <c r="W23" t="n">
-        <v>263.146467898968</v>
+        <v>265.7308777991203</v>
       </c>
       <c r="X23" t="n">
-        <v>125.1690993201122</v>
+        <v>286.2210097601763</v>
       </c>
       <c r="Y23" t="n">
-        <v>300.1434378376086</v>
+        <v>148.1765193424676</v>
       </c>
     </row>
     <row r="24">
@@ -24282,25 +24282,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>80.43868283142237</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>39.31723797644105</v>
+        <v>89.19840807002305</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>63.93497464634606</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>74.13498953710825</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>61.55912147509119</v>
       </c>
       <c r="G24" t="n">
-        <v>51.24901634476566</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>28.72535331820377</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24330,28 +24330,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>14.06333333419816</v>
+        <v>16.64774323435044</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>88.17308018554513</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>85.62933293512728</v>
       </c>
       <c r="U24" t="n">
-        <v>139.8468812625298</v>
+        <v>142.4312911626821</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>165.6004823424746</v>
+        <v>13.63356384733362</v>
       </c>
       <c r="X24" t="n">
-        <v>119.6784843850325</v>
+        <v>122.2628942851848</v>
       </c>
       <c r="Y24" t="n">
-        <v>119.5881949588594</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24361,31 +24361,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>96.32188926364461</v>
       </c>
       <c r="C25" t="n">
-        <v>81.15232028018286</v>
+        <v>83.73673018033514</v>
       </c>
       <c r="D25" t="n">
-        <v>62.52097219976739</v>
+        <v>65.10538209991967</v>
       </c>
       <c r="E25" t="n">
-        <v>60.3394618281242</v>
+        <v>62.92387172827648</v>
       </c>
       <c r="F25" t="n">
-        <v>59.32654720448627</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>81.89647854001379</v>
+        <v>84.48088844016607</v>
       </c>
       <c r="H25" t="n">
-        <v>76.13267168899461</v>
+        <v>45.30323706054919</v>
       </c>
       <c r="I25" t="n">
-        <v>69.35597410881331</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>7.264679298227804</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,31 +24406,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.06754243324941456</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>93.78330045887679</v>
       </c>
       <c r="S25" t="n">
-        <v>137.9220972185273</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>9.889437547267534</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>200.2245285380459</v>
+        <v>202.8089384381982</v>
       </c>
       <c r="V25" t="n">
-        <v>166.043142505383</v>
+        <v>168.6275524055353</v>
       </c>
       <c r="W25" t="n">
-        <v>41.96099697823419</v>
+        <v>203.0129074182983</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>142.1995644707445</v>
       </c>
       <c r="Y25" t="n">
-        <v>132.4901525336498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24440,28 +24440,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>303.3279080266103</v>
+        <v>144.6724223498946</v>
       </c>
       <c r="C26" t="n">
-        <v>127.3994575942255</v>
+        <v>281.7628008527149</v>
       </c>
       <c r="D26" t="n">
-        <v>275.2771079838127</v>
+        <v>116.621622307097</v>
       </c>
       <c r="E26" t="n">
-        <v>302.5244364353915</v>
+        <v>298.4202791539691</v>
       </c>
       <c r="F26" t="n">
-        <v>327.4701121048412</v>
+        <v>168.8146264281255</v>
       </c>
       <c r="G26" t="n">
-        <v>335.8968038782648</v>
+        <v>195.6638365462681</v>
       </c>
       <c r="H26" t="n">
-        <v>120.4906940033425</v>
+        <v>255.9647111974745</v>
       </c>
       <c r="I26" t="n">
-        <v>131.0699559335357</v>
+        <v>126.9657986521133</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,28 +24488,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>70.46318430427942</v>
+        <v>66.35902702285702</v>
       </c>
       <c r="S26" t="n">
-        <v>129.6141359493751</v>
+        <v>125.5099786679527</v>
       </c>
       <c r="T26" t="n">
-        <v>143.6899159272611</v>
+        <v>139.5857586458387</v>
       </c>
       <c r="U26" t="n">
-        <v>13.4722187310544</v>
+        <v>167.8355619895438</v>
       </c>
       <c r="V26" t="n">
-        <v>248.3463248332646</v>
+        <v>244.2421675518422</v>
       </c>
       <c r="W26" t="n">
-        <v>111.3675345406309</v>
+        <v>265.7308777991203</v>
       </c>
       <c r="X26" t="n">
-        <v>290.3251670415988</v>
+        <v>286.2210097601763</v>
       </c>
       <c r="Y26" t="n">
-        <v>306.8320050191833</v>
+        <v>302.727847737761</v>
       </c>
     </row>
     <row r="27">
@@ -24519,28 +24519,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>87.12725001299708</v>
+        <v>83.02309273157468</v>
       </c>
       <c r="C27" t="n">
-        <v>93.30256535144548</v>
+        <v>89.19840807002308</v>
       </c>
       <c r="D27" t="n">
-        <v>68.03913192776849</v>
+        <v>54.12955300171912</v>
       </c>
       <c r="E27" t="n">
-        <v>78.23914681853068</v>
+        <v>74.13498953710828</v>
       </c>
       <c r="F27" t="n">
-        <v>65.66327875651362</v>
+        <v>61.55912147509122</v>
       </c>
       <c r="G27" t="n">
-        <v>57.93758352634038</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>32.8295105996262</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>9.990699214544819</v>
+        <v>5.886541933122416</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,28 +24567,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>20.75190051577287</v>
+        <v>16.64774323435047</v>
       </c>
       <c r="S27" t="n">
-        <v>92.27723746696756</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>120.7587950579513</v>
+        <v>116.6546377765289</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>149.2904962311326</v>
       </c>
       <c r="W27" t="n">
-        <v>13.82154898413751</v>
+        <v>13.63356384733365</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>96.06074010832295</v>
+        <v>122.1726048590117</v>
       </c>
     </row>
     <row r="28">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>100.426046545067</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>87.84088746175757</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>69.2095393813421</v>
+        <v>65.10538209991969</v>
       </c>
       <c r="E28" t="n">
-        <v>67.02802900969891</v>
+        <v>62.92387172827651</v>
       </c>
       <c r="F28" t="n">
-        <v>66.01511438606099</v>
+        <v>61.91095710463858</v>
       </c>
       <c r="G28" t="n">
-        <v>88.5850457215885</v>
+        <v>84.4808884401661</v>
       </c>
       <c r="H28" t="n">
-        <v>82.82123887056932</v>
+        <v>78.71708158914691</v>
       </c>
       <c r="I28" t="n">
-        <v>76.04454129038803</v>
+        <v>71.94038400896562</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24643,31 +24643,31 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>6.756109614824126</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>97.88745774029923</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>144.610664400102</v>
+        <v>123.8175661829017</v>
       </c>
       <c r="T28" t="n">
-        <v>50.0837371758828</v>
+        <v>144.4354985099888</v>
       </c>
       <c r="U28" t="n">
-        <v>48.44559517970879</v>
+        <v>202.8089384381982</v>
       </c>
       <c r="V28" t="n">
-        <v>172.7317096869577</v>
+        <v>168.6275524055353</v>
       </c>
       <c r="W28" t="n">
-        <v>48.6495641598089</v>
+        <v>48.46157902300504</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>139.1787197152245</v>
+        <v>135.0745624338021</v>
       </c>
     </row>
     <row r="29">
@@ -24683,19 +24683,19 @@
         <v>253.0374475345111</v>
       </c>
       <c r="D29" t="n">
-        <v>83.98009684427467</v>
+        <v>87.89626898889321</v>
       </c>
       <c r="E29" t="n">
-        <v>269.6949258357653</v>
+        <v>115.143597440472</v>
       </c>
       <c r="F29" t="n">
-        <v>294.640601505215</v>
+        <v>140.0892731099217</v>
       </c>
       <c r="G29" t="n">
         <v>303.0672932786386</v>
       </c>
       <c r="H29" t="n">
-        <v>227.2393578792707</v>
+        <v>91.11054782869647</v>
       </c>
       <c r="I29" t="n">
         <v>98.24044533390945</v>
@@ -24731,22 +24731,22 @@
         <v>96.78462534974888</v>
       </c>
       <c r="T29" t="n">
-        <v>110.3924395234206</v>
+        <v>110.8604053276349</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>139.11020867134</v>
       </c>
       <c r="V29" t="n">
         <v>215.5168142336385</v>
       </c>
       <c r="W29" t="n">
-        <v>78.53802394100472</v>
+        <v>237.0055244809166</v>
       </c>
       <c r="X29" t="n">
         <v>257.4956564419726</v>
       </c>
       <c r="Y29" t="n">
-        <v>115.5349938796453</v>
+        <v>274.0024944195571</v>
       </c>
     </row>
     <row r="30">
@@ -24759,7 +24759,7 @@
         <v>54.29773941337088</v>
       </c>
       <c r="C30" t="n">
-        <v>60.47305475181928</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>35.20962132814229</v>
@@ -24771,7 +24771,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>25.10807292671417</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -24816,16 +24816,16 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>120.5651429129288</v>
       </c>
       <c r="W30" t="n">
-        <v>32.49826403607541</v>
+        <v>106.1593812013236</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>93.4472515408079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24838,7 +24838,7 @@
         <v>67.59653594544083</v>
       </c>
       <c r="C31" t="n">
-        <v>12.57804612578179</v>
+        <v>55.01137686213137</v>
       </c>
       <c r="D31" t="n">
         <v>36.38002878171589</v>
@@ -24853,7 +24853,7 @@
         <v>55.7555351219623</v>
       </c>
       <c r="H31" t="n">
-        <v>49.99172827094311</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>43.21503069076182</v>
@@ -24889,19 +24889,19 @@
         <v>111.7811538004758</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>115.710145191785</v>
       </c>
       <c r="U31" t="n">
-        <v>15.6160845800826</v>
+        <v>19.53225672470114</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>15.82005356018271</v>
+        <v>19.73622570480126</v>
       </c>
       <c r="X31" t="n">
-        <v>113.4742111525407</v>
+        <v>12.68800006494776</v>
       </c>
       <c r="Y31" t="n">
         <v>106.3492091155983</v>
@@ -24914,28 +24914,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>270.4983974269841</v>
+        <v>115.9470690316908</v>
       </c>
       <c r="C32" t="n">
         <v>253.0374475345111</v>
       </c>
       <c r="D32" t="n">
-        <v>83.98009684427467</v>
+        <v>242.4475973841865</v>
       </c>
       <c r="E32" t="n">
-        <v>269.6949258357653</v>
+        <v>115.143597440472</v>
       </c>
       <c r="F32" t="n">
-        <v>136.1731009653031</v>
+        <v>294.640601505215</v>
       </c>
       <c r="G32" t="n">
-        <v>303.0672932786386</v>
+        <v>148.5159648833453</v>
       </c>
       <c r="H32" t="n">
-        <v>227.2393578792707</v>
+        <v>91.11054782869647</v>
       </c>
       <c r="I32" t="n">
-        <v>69.52267618599004</v>
+        <v>98.24044533390945</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24968,7 +24968,7 @@
         <v>96.78462534974888</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>110.8604053276349</v>
       </c>
       <c r="U32" t="n">
         <v>139.11020867134</v>
@@ -24983,7 +24983,7 @@
         <v>257.4956564419726</v>
       </c>
       <c r="Y32" t="n">
-        <v>115.5349938796453</v>
+        <v>274.0024944195571</v>
       </c>
     </row>
     <row r="33">
@@ -24996,7 +24996,7 @@
         <v>54.29773941337088</v>
       </c>
       <c r="C33" t="n">
-        <v>60.47305475181928</v>
+        <v>15.79741519632845</v>
       </c>
       <c r="D33" t="n">
         <v>35.20962132814229</v>
@@ -25059,10 +25059,10 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>93.53754096698101</v>
       </c>
       <c r="Y33" t="n">
-        <v>33.66402055265454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25072,19 +25072,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>67.59653594544083</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>55.01137686213137</v>
       </c>
       <c r="D34" t="n">
         <v>36.38002878171589</v>
       </c>
       <c r="E34" t="n">
-        <v>34.19851841007271</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>33.18560378643478</v>
+        <v>32.01548694990551</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>42.54833032812235</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,25 +25123,25 @@
         <v>65.05794714067302</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>111.7811538004758</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>115.710145191785</v>
       </c>
       <c r="U34" t="n">
-        <v>174.0835851199944</v>
+        <v>19.53225672470114</v>
       </c>
       <c r="V34" t="n">
         <v>139.9021990873316</v>
       </c>
       <c r="W34" t="n">
-        <v>15.82005356018271</v>
+        <v>19.73622570480126</v>
       </c>
       <c r="X34" t="n">
         <v>113.4742111525407</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3492091155983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25151,28 +25151,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>293.3372088120655</v>
+        <v>289.2330515306431</v>
       </c>
       <c r="C35" t="n">
-        <v>275.8762589195925</v>
+        <v>271.7721016381701</v>
       </c>
       <c r="D35" t="n">
-        <v>265.2864087692679</v>
+        <v>261.1822514878455</v>
       </c>
       <c r="E35" t="n">
-        <v>292.5337372208467</v>
+        <v>288.4295799394243</v>
       </c>
       <c r="F35" t="n">
-        <v>317.4794128902964</v>
+        <v>313.375255608874</v>
       </c>
       <c r="G35" t="n">
-        <v>325.90610466372</v>
+        <v>321.8019473822976</v>
       </c>
       <c r="H35" t="n">
-        <v>244.199211501514</v>
+        <v>91.42268358763641</v>
       </c>
       <c r="I35" t="n">
-        <v>121.0792567189908</v>
+        <v>116.9750994375685</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,28 +25199,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>60.4724850897346</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>119.6234367348303</v>
+        <v>10.8025282471465</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>3.481519516509593</v>
+        <v>3.293534379705761</v>
       </c>
       <c r="V35" t="n">
-        <v>79.888125078808</v>
+        <v>234.2514683372975</v>
       </c>
       <c r="W35" t="n">
-        <v>259.8443358659979</v>
+        <v>255.7401785845756</v>
       </c>
       <c r="X35" t="n">
-        <v>121.8669672871421</v>
+        <v>276.2303105456316</v>
       </c>
       <c r="Y35" t="n">
-        <v>296.8413058046385</v>
+        <v>292.7371485232161</v>
       </c>
     </row>
     <row r="36">
@@ -25230,19 +25230,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>65.01866862114009</v>
+        <v>73.03239351702989</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>79.20770885547829</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>45.66349054882365</v>
       </c>
       <c r="E36" t="n">
-        <v>68.24844760398587</v>
+        <v>64.14429032256349</v>
       </c>
       <c r="F36" t="n">
-        <v>55.6725795419688</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -25278,28 +25278,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>10.76120130122806</v>
+        <v>6.657044019805682</v>
       </c>
       <c r="S36" t="n">
-        <v>82.28653825242274</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>106.6639385619842</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>139.2997970165878</v>
       </c>
       <c r="W36" t="n">
-        <v>162.2983503095045</v>
+        <v>3.642864632788871</v>
       </c>
       <c r="X36" t="n">
-        <v>116.3763523520624</v>
+        <v>112.27219507064</v>
       </c>
       <c r="Y36" t="n">
-        <v>116.2860629258893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25309,31 +25309,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>90.43534733052222</v>
+        <v>86.33119004909985</v>
       </c>
       <c r="C37" t="n">
-        <v>50.73750095492586</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>59.21884016679728</v>
+        <v>55.1146828853749</v>
       </c>
       <c r="E37" t="n">
-        <v>57.03732979515409</v>
+        <v>52.93317251373172</v>
       </c>
       <c r="F37" t="n">
-        <v>56.02441517151617</v>
+        <v>51.92025789009379</v>
       </c>
       <c r="G37" t="n">
-        <v>78.59434650704368</v>
+        <v>71.86449089401097</v>
       </c>
       <c r="H37" t="n">
-        <v>72.8305396560245</v>
+        <v>68.72638237460212</v>
       </c>
       <c r="I37" t="n">
-        <v>66.05384207584321</v>
+        <v>61.94968479442083</v>
       </c>
       <c r="J37" t="n">
-        <v>3.962547265257697</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25357,28 +25357,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>87.89675852575441</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>138.5489565768664</v>
+        <v>134.4447992954441</v>
       </c>
       <c r="U37" t="n">
-        <v>196.9223965050758</v>
+        <v>192.8182392236534</v>
       </c>
       <c r="V37" t="n">
-        <v>4.273509932501099</v>
+        <v>4.085524795697268</v>
       </c>
       <c r="W37" t="n">
-        <v>38.6588649452641</v>
+        <v>38.47087980846027</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>132.2088652561997</v>
       </c>
       <c r="Y37" t="n">
-        <v>129.1880205006797</v>
+        <v>125.0838632192573</v>
       </c>
     </row>
     <row r="38">
@@ -25388,28 +25388,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>293.3372088120655</v>
+        <v>289.2330515306431</v>
       </c>
       <c r="C38" t="n">
-        <v>275.8762589195925</v>
+        <v>271.7721016381701</v>
       </c>
       <c r="D38" t="n">
-        <v>265.2864087692679</v>
+        <v>261.1822514878455</v>
       </c>
       <c r="E38" t="n">
-        <v>292.5337372208467</v>
+        <v>133.878251544131</v>
       </c>
       <c r="F38" t="n">
-        <v>317.4794128902964</v>
+        <v>313.375255608874</v>
       </c>
       <c r="G38" t="n">
-        <v>167.4386041238081</v>
+        <v>321.8019473822976</v>
       </c>
       <c r="H38" t="n">
-        <v>91.61066872444025</v>
+        <v>109.8452019323555</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>116.9750994375685</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,28 +25436,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>60.4724850897346</v>
+        <v>56.36832780831223</v>
       </c>
       <c r="S38" t="n">
-        <v>119.6234367348303</v>
+        <v>115.5192794534079</v>
       </c>
       <c r="T38" t="n">
-        <v>115.2002989561528</v>
+        <v>129.5950594312939</v>
       </c>
       <c r="U38" t="n">
-        <v>161.9490200564214</v>
+        <v>3.293534379705761</v>
       </c>
       <c r="V38" t="n">
-        <v>79.888125078808</v>
+        <v>234.2514683372975</v>
       </c>
       <c r="W38" t="n">
-        <v>259.8443358659979</v>
+        <v>255.7401785845756</v>
       </c>
       <c r="X38" t="n">
-        <v>280.334467827054</v>
+        <v>276.2303105456316</v>
       </c>
       <c r="Y38" t="n">
-        <v>296.8413058046385</v>
+        <v>138.1858201279229</v>
       </c>
     </row>
     <row r="39">
@@ -25467,25 +25467,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>77.13655079845226</v>
+        <v>73.03239351702989</v>
       </c>
       <c r="C39" t="n">
-        <v>83.31186613690066</v>
+        <v>79.20770885547829</v>
       </c>
       <c r="D39" t="n">
-        <v>58.04843271322368</v>
+        <v>53.9442754318013</v>
       </c>
       <c r="E39" t="n">
-        <v>68.24844760398587</v>
+        <v>64.14429032256349</v>
       </c>
       <c r="F39" t="n">
-        <v>55.6725795419688</v>
+        <v>51.56842226054643</v>
       </c>
       <c r="G39" t="n">
-        <v>47.94688431179556</v>
+        <v>43.84272703037318</v>
       </c>
       <c r="H39" t="n">
-        <v>22.83881138508139</v>
+        <v>18.73465410365901</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25515,13 +25515,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>10.76120130122806</v>
+        <v>6.657044019805682</v>
       </c>
       <c r="S39" t="n">
-        <v>82.28653825242274</v>
+        <v>78.18238097100037</v>
       </c>
       <c r="T39" t="n">
-        <v>50.57997616766089</v>
+        <v>45.44505575618858</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25530,13 +25530,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>3.830849769592703</v>
+        <v>3.642864632788871</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>116.2860629258893</v>
+        <v>112.1819056444669</v>
       </c>
     </row>
     <row r="40">
@@ -25546,31 +25546,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>90.43534733052222</v>
+        <v>86.33119004909985</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>59.21884016679728</v>
+        <v>55.1146828853749</v>
       </c>
       <c r="E40" t="n">
-        <v>57.03732979515409</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>56.02441517151617</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>78.59434650704368</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>72.8305396560245</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>66.05384207584321</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>3.962547265257697</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25594,28 +25594,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>87.89675852575441</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>134.6199651855572</v>
+        <v>130.5158079041348</v>
       </c>
       <c r="T40" t="n">
-        <v>138.5489565768664</v>
+        <v>2.220323067582086</v>
       </c>
       <c r="U40" t="n">
-        <v>38.45489596516398</v>
+        <v>192.8182392236534</v>
       </c>
       <c r="V40" t="n">
-        <v>4.273509932501099</v>
+        <v>158.6368531909906</v>
       </c>
       <c r="W40" t="n">
-        <v>38.6588649452641</v>
+        <v>193.0222082037536</v>
       </c>
       <c r="X40" t="n">
-        <v>74.58503630928048</v>
+        <v>132.2088652561997</v>
       </c>
       <c r="Y40" t="n">
-        <v>129.1880205006797</v>
+        <v>125.0838632192573</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25625,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>138.1718403051237</v>
+        <v>163.0949406946137</v>
       </c>
       <c r="C41" t="n">
-        <v>279.1783909525626</v>
+        <v>281.7628008527149</v>
       </c>
       <c r="D41" t="n">
-        <v>110.1210402623261</v>
+        <v>116.621622307097</v>
       </c>
       <c r="E41" t="n">
-        <v>156.2576947782624</v>
+        <v>298.4202791539691</v>
       </c>
       <c r="F41" t="n">
-        <v>320.7815449232664</v>
+        <v>323.3659548234187</v>
       </c>
       <c r="G41" t="n">
-        <v>329.2082366966901</v>
+        <v>331.7926465968424</v>
       </c>
       <c r="H41" t="n">
-        <v>253.3803012973221</v>
+        <v>255.9647111974745</v>
       </c>
       <c r="I41" t="n">
-        <v>124.3813887519609</v>
+        <v>126.9657986521132</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,28 +25673,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>63.7746171227047</v>
+        <v>66.35902702285701</v>
       </c>
       <c r="S41" t="n">
-        <v>122.9255687678004</v>
+        <v>125.5099786679527</v>
       </c>
       <c r="T41" t="n">
-        <v>137.0013487456864</v>
+        <v>139.5857586458387</v>
       </c>
       <c r="U41" t="n">
-        <v>165.2511520893915</v>
+        <v>167.8355619895438</v>
       </c>
       <c r="V41" t="n">
-        <v>241.6577576516899</v>
+        <v>244.2421675518422</v>
       </c>
       <c r="W41" t="n">
-        <v>263.146467898968</v>
+        <v>265.7308777991203</v>
       </c>
       <c r="X41" t="n">
-        <v>283.636599860024</v>
+        <v>131.669681364883</v>
       </c>
       <c r="Y41" t="n">
-        <v>141.6759372976967</v>
+        <v>148.1765193424676</v>
       </c>
     </row>
     <row r="42">
@@ -25704,28 +25704,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>80.43868283142235</v>
+        <v>83.02309273157466</v>
       </c>
       <c r="C42" t="n">
-        <v>86.61399816987075</v>
+        <v>89.19840807002306</v>
       </c>
       <c r="D42" t="n">
-        <v>61.35056474619377</v>
+        <v>63.93497464634608</v>
       </c>
       <c r="E42" t="n">
-        <v>71.55057963695596</v>
+        <v>74.13498953710827</v>
       </c>
       <c r="F42" t="n">
-        <v>58.97471157493889</v>
+        <v>61.5591214750912</v>
       </c>
       <c r="G42" t="n">
-        <v>51.24901634476565</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>26.14094341805148</v>
+        <v>28.72535331820379</v>
       </c>
       <c r="I42" t="n">
-        <v>3.302132032970093</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,13 +25752,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>14.06333333419815</v>
+        <v>11.03111215058978</v>
       </c>
       <c r="S42" t="n">
-        <v>29.69869019990165</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>116.6546377765289</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25767,13 +25767,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>7.132981802562767</v>
+        <v>13.63356384733362</v>
       </c>
       <c r="X42" t="n">
-        <v>119.6784843850325</v>
+        <v>122.2628942851848</v>
       </c>
       <c r="Y42" t="n">
-        <v>119.5881949588594</v>
+        <v>122.1726048590117</v>
       </c>
     </row>
     <row r="43">
@@ -25783,31 +25783,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>96.32188926364462</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>83.73673018033516</v>
       </c>
       <c r="D43" t="n">
-        <v>62.52097219976737</v>
+        <v>65.10538209991968</v>
       </c>
       <c r="E43" t="n">
-        <v>60.33946182812419</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>61.91095710463857</v>
       </c>
       <c r="G43" t="n">
-        <v>81.89647854001377</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>66.40796126220376</v>
+        <v>78.7170815891469</v>
       </c>
       <c r="I43" t="n">
-        <v>69.3559741088133</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>7.26467929822779</v>
+        <v>8.13674422687931</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,7 +25828,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>2.651952333401709</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -25840,19 +25840,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>200.2245285380459</v>
+        <v>202.8089384381982</v>
       </c>
       <c r="V43" t="n">
-        <v>166.043142505383</v>
+        <v>168.6275524055353</v>
       </c>
       <c r="W43" t="n">
-        <v>200.428497518146</v>
+        <v>203.0129074182983</v>
       </c>
       <c r="X43" t="n">
-        <v>139.6151545705922</v>
+        <v>142.1995644707445</v>
       </c>
       <c r="Y43" t="n">
-        <v>132.4901525336498</v>
+        <v>135.0745624338021</v>
       </c>
     </row>
     <row r="44">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>409721.7652517604</v>
+        <v>412801.3813451661</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>409721.7652517604</v>
+        <v>412801.3813451661</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>568237.0129231759</v>
+        <v>560262.6030658155</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>568237.0129231758</v>
+        <v>560262.6030658158</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>553880.9115078063</v>
+        <v>560262.6030658155</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>619033.6596676407</v>
+        <v>616296.298031949</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>619033.6596676405</v>
+        <v>616296.2980319487</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>574862.4676469521</v>
+        <v>580207.2428450414</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>574862.467646952</v>
+        <v>580207.2428450414</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>568237.0129231757</v>
+        <v>560262.6030658158</v>
       </c>
     </row>
     <row r="16">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>737348.7048453346</v>
+      </c>
+      <c r="C2" t="n">
         <v>737348.7048453348</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>737348.7048453346</v>
       </c>
-      <c r="D2" t="n">
-        <v>737348.7048453345</v>
-      </c>
       <c r="E2" t="n">
-        <v>216683.9137227133</v>
+        <v>216683.9137227132</v>
       </c>
       <c r="F2" t="n">
-        <v>331374.8120542505</v>
+        <v>334635.5820355034</v>
       </c>
       <c r="G2" t="n">
-        <v>331374.8120542503</v>
+        <v>334635.5820355034</v>
       </c>
       <c r="H2" t="n">
-        <v>461186.2266010023</v>
+        <v>453644.1151743841</v>
       </c>
       <c r="I2" t="n">
-        <v>461186.2266010024</v>
+        <v>453644.1151743842</v>
       </c>
       <c r="J2" t="n">
-        <v>445985.6486317872</v>
+        <v>453644.1151743841</v>
       </c>
       <c r="K2" t="n">
-        <v>514970.9113892594</v>
+        <v>512973.9098444085</v>
       </c>
       <c r="L2" t="n">
-        <v>514970.9113892594</v>
+        <v>512973.9098444084</v>
       </c>
       <c r="M2" t="n">
-        <v>468201.4139555887</v>
+        <v>474761.9690582703</v>
       </c>
       <c r="N2" t="n">
-        <v>468201.4139555891</v>
+        <v>474761.9690582702</v>
       </c>
       <c r="O2" t="n">
-        <v>461186.2266010022</v>
+        <v>453644.1151743842</v>
       </c>
       <c r="P2" t="n">
         <v>193513.3299566035</v>
@@ -26375,22 +26375,22 @@
         <v>7992.559371635843</v>
       </c>
       <c r="F3" t="n">
-        <v>42611.99217505503</v>
+        <v>43827.7900800711</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>61027.00696123819</v>
+        <v>56687.06264593291</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2641.705626376074</v>
+        <v>7992.559371635821</v>
       </c>
       <c r="K3" t="n">
-        <v>68875.60065475598</v>
+        <v>66808.07273463414</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>439830.3974941829</v>
+        <v>441649.2499958206</v>
       </c>
       <c r="C4" t="n">
-        <v>439830.3974941829</v>
+        <v>441649.2499958206</v>
       </c>
       <c r="D4" t="n">
-        <v>439830.3974941829</v>
+        <v>441649.2499958206</v>
       </c>
       <c r="E4" t="n">
-        <v>109632.2639604309</v>
+        <v>111451.1164620685</v>
       </c>
       <c r="F4" t="n">
-        <v>182367.5846659631</v>
+        <v>186254.37066349</v>
       </c>
       <c r="G4" t="n">
-        <v>182367.5846659631</v>
+        <v>186254.37066349</v>
       </c>
       <c r="H4" t="n">
-        <v>255556.2096745879</v>
+        <v>253466.467479331</v>
       </c>
       <c r="I4" t="n">
-        <v>255556.2096745879</v>
+        <v>253466.4674793309</v>
       </c>
       <c r="J4" t="n">
-        <v>245903.8369291158</v>
+        <v>253466.4674793309</v>
       </c>
       <c r="K4" t="n">
-        <v>289665.684393421</v>
+        <v>291092.5712547421</v>
       </c>
       <c r="L4" t="n">
-        <v>289665.684393421</v>
+        <v>291092.5712547421</v>
       </c>
       <c r="M4" t="n">
-        <v>260005.1407534105</v>
+        <v>266859.1071499776</v>
       </c>
       <c r="N4" t="n">
-        <v>260005.1407534106</v>
+        <v>266859.1071499776</v>
       </c>
       <c r="O4" t="n">
-        <v>255556.2096745879</v>
+        <v>253466.467479331</v>
       </c>
       <c r="P4" t="n">
-        <v>94937.81247666414</v>
+        <v>96756.66497830173</v>
       </c>
     </row>
     <row r="5">
@@ -26479,34 +26479,34 @@
         <v>839.9080922675672</v>
       </c>
       <c r="F5" t="n">
-        <v>5317.842554973444</v>
+        <v>5445.606197569439</v>
       </c>
       <c r="G5" t="n">
-        <v>5317.842554973444</v>
+        <v>5445.606197569439</v>
       </c>
       <c r="H5" t="n">
-        <v>16872.70262213249</v>
+        <v>16417.33059984378</v>
       </c>
       <c r="I5" t="n">
-        <v>16872.70262213249</v>
+        <v>16417.33059984378</v>
       </c>
       <c r="J5" t="n">
-        <v>16310.40146774469</v>
+        <v>16417.33059984378</v>
       </c>
       <c r="K5" t="n">
-        <v>19070.34559434466</v>
+        <v>18832.24232795186</v>
       </c>
       <c r="L5" t="n">
-        <v>19070.34559434466</v>
+        <v>18832.24232795186</v>
       </c>
       <c r="M5" t="n">
-        <v>17150.30956001225</v>
+        <v>17257.23869211134</v>
       </c>
       <c r="N5" t="n">
-        <v>17150.30956001225</v>
+        <v>17257.23869211134</v>
       </c>
       <c r="O5" t="n">
-        <v>16872.70262213249</v>
+        <v>16417.33059984378</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>263890.7073511519</v>
+        <v>262071.8548495141</v>
       </c>
       <c r="C6" t="n">
-        <v>263890.7073511517</v>
+        <v>262071.8548495142</v>
       </c>
       <c r="D6" t="n">
-        <v>263890.7073511516</v>
+        <v>262071.8548495141</v>
       </c>
       <c r="E6" t="n">
-        <v>98219.18229837899</v>
+        <v>96400.32979674127</v>
       </c>
       <c r="F6" t="n">
-        <v>101077.3926582589</v>
+        <v>99107.81509437284</v>
       </c>
       <c r="G6" t="n">
-        <v>143689.3848333137</v>
+        <v>142935.6051744439</v>
       </c>
       <c r="H6" t="n">
-        <v>127730.3073430436</v>
+        <v>127073.2544492765</v>
       </c>
       <c r="I6" t="n">
-        <v>188757.314304282</v>
+        <v>183760.3170952095</v>
       </c>
       <c r="J6" t="n">
-        <v>181129.7046085507</v>
+        <v>175767.7577235737</v>
       </c>
       <c r="K6" t="n">
-        <v>137359.2807467377</v>
+        <v>136241.0235270804</v>
       </c>
       <c r="L6" t="n">
-        <v>206234.8814014937</v>
+        <v>203049.0962617145</v>
       </c>
       <c r="M6" t="n">
-        <v>191045.9636421659</v>
+        <v>190645.6232161814</v>
       </c>
       <c r="N6" t="n">
-        <v>191045.9636421662</v>
+        <v>190645.6232161813</v>
       </c>
       <c r="O6" t="n">
-        <v>188757.3143042818</v>
+        <v>183760.3170952095</v>
       </c>
       <c r="P6" t="n">
-        <v>98575.51747993936</v>
+        <v>96756.66497830179</v>
       </c>
     </row>
   </sheetData>
@@ -26695,19 +26695,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="F2" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="G2" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="H2" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="I2" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="J2" t="n">
-        <v>79.40593363687026</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="K2" t="n">
         <v>112.2354442364965</v>
@@ -26716,13 +26716,13 @@
         <v>112.2354442364965</v>
       </c>
       <c r="M2" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="N2" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="O2" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829268</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26805,28 +26805,28 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="I4" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="J4" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="K4" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="L4" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="M4" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="N4" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="O4" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -26917,22 +26917,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="F2" t="n">
-        <v>53.26499021881878</v>
+        <v>54.78473760008887</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>22.83881138508139</v>
+        <v>18.73465410365901</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.302132032970093</v>
+        <v>9.990699214544776</v>
       </c>
       <c r="K2" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829268</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27027,7 +27027,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27154,22 +27154,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="K2" t="n">
-        <v>53.26499021881878</v>
+        <v>54.78473760008887</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>22.83881138508139</v>
+        <v>18.73465410365901</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.302132032970093</v>
+        <v>9.990699214544776</v>
       </c>
       <c r="P2" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829268</v>
       </c>
     </row>
     <row r="3">
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
     </row>
   </sheetData>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="C14" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="D14" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="E14" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="F14" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="G14" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="H14" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="I14" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -28372,28 +28372,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="S14" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="T14" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="U14" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="V14" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="W14" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="X14" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="Y14" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
     </row>
     <row r="15">
@@ -28403,28 +28403,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="C15" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="D15" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="E15" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="F15" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="G15" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="H15" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="I15" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="S15" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="T15" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="U15" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="V15" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="W15" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="X15" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="Y15" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
     </row>
     <row r="16">
@@ -28482,31 +28482,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="C16" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="D16" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="E16" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="F16" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="G16" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="H16" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="I16" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="J16" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -28527,31 +28527,31 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="R16" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="S16" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="T16" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="U16" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="V16" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="W16" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="X16" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="Y16" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="C17" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="D17" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="E17" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="F17" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="G17" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="H17" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="I17" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -28609,28 +28609,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="S17" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="T17" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="U17" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="V17" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="W17" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="X17" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="Y17" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
     </row>
     <row r="18">
@@ -28640,28 +28640,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="C18" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="D18" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="E18" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="F18" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="G18" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="H18" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="I18" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -28688,28 +28688,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="S18" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="T18" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="U18" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="V18" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="W18" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="X18" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="Y18" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
     </row>
     <row r="19">
@@ -28719,31 +28719,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="C19" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="D19" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="E19" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="F19" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="G19" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="H19" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="I19" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="J19" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="K19" t="n">
         <v>22.26949182588285</v>
@@ -28764,31 +28764,31 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="R19" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="S19" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="T19" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="U19" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="V19" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="W19" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="X19" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
       <c r="Y19" t="n">
-        <v>63.25568943336359</v>
+        <v>64.77543681463368</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="C20" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="D20" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="E20" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="F20" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="G20" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="H20" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="I20" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -28846,28 +28846,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="S20" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="T20" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="U20" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="V20" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="W20" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="X20" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="Y20" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
     </row>
     <row r="21">
@@ -28877,28 +28877,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="C21" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="D21" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="E21" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="F21" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="G21" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="H21" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="I21" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -28925,28 +28925,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="S21" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="T21" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="U21" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="V21" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="W21" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="X21" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="Y21" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
     </row>
     <row r="22">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="C22" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="D22" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="E22" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="F22" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="G22" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="H22" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="I22" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="J22" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="K22" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="L22" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="M22" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="N22" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="O22" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="P22" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="R22" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="S22" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="T22" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="U22" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="V22" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="W22" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="X22" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="Y22" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="C23" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="D23" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="E23" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="F23" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="G23" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="H23" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="I23" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -29083,28 +29083,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="S23" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="T23" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="U23" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="V23" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="W23" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="X23" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="Y23" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
     </row>
     <row r="24">
@@ -29114,28 +29114,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="C24" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="D24" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="E24" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="F24" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="G24" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="H24" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="I24" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -29162,28 +29162,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="S24" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="T24" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="U24" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="V24" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="W24" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="X24" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="Y24" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
     </row>
     <row r="25">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="C25" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="D25" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="E25" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="F25" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="G25" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="H25" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="I25" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="J25" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="K25" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="L25" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="M25" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="N25" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="O25" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="P25" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="R25" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="S25" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="T25" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="U25" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="V25" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="W25" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="X25" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
       <c r="Y25" t="n">
-        <v>86.09450081844497</v>
+        <v>83.51009091829269</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>79.40593363687026</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="C26" t="n">
-        <v>79.40593363687026</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="D26" t="n">
-        <v>79.40593363687026</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="E26" t="n">
-        <v>79.40593363687026</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="F26" t="n">
-        <v>79.40593363687026</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="G26" t="n">
-        <v>79.40593363687026</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="H26" t="n">
-        <v>79.40593363687026</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="I26" t="n">
-        <v>79.40593363687026</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -29320,28 +29320,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>79.40593363687026</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="S26" t="n">
-        <v>79.40593363687026</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="T26" t="n">
-        <v>79.40593363687026</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="U26" t="n">
-        <v>79.40593363687026</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="V26" t="n">
-        <v>79.40593363687026</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="W26" t="n">
-        <v>79.40593363687026</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="X26" t="n">
-        <v>79.40593363687026</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="Y26" t="n">
-        <v>79.40593363687026</v>
+        <v>83.51009091829266</v>
       </c>
     </row>
     <row r="27">
@@ -29351,28 +29351,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>79.40593363687026</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="C27" t="n">
-        <v>79.40593363687026</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="D27" t="n">
-        <v>79.40593363687026</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="E27" t="n">
-        <v>79.40593363687026</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="F27" t="n">
-        <v>79.40593363687026</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="G27" t="n">
-        <v>79.40593363687026</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="H27" t="n">
-        <v>79.40593363687026</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="I27" t="n">
-        <v>79.40593363687026</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -29399,28 +29399,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>79.40593363687026</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="S27" t="n">
-        <v>79.40593363687026</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="T27" t="n">
-        <v>79.40593363687026</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="U27" t="n">
-        <v>79.40593363687026</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="V27" t="n">
-        <v>79.40593363687026</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="W27" t="n">
-        <v>79.40593363687026</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="X27" t="n">
-        <v>79.40593363687026</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="Y27" t="n">
-        <v>79.40593363687026</v>
+        <v>83.51009091829266</v>
       </c>
     </row>
     <row r="28">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.40593363687026</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="C28" t="n">
-        <v>79.40593363687026</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="D28" t="n">
-        <v>79.40593363687026</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="E28" t="n">
-        <v>79.40593363687026</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="F28" t="n">
-        <v>79.40593363687026</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="G28" t="n">
-        <v>79.40593363687026</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="H28" t="n">
-        <v>79.40593363687026</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="I28" t="n">
-        <v>79.40593363687026</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="J28" t="n">
-        <v>79.40593363687026</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="K28" t="n">
-        <v>79.40593363687026</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="L28" t="n">
-        <v>79.40593363687026</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="M28" t="n">
-        <v>79.40593363687026</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="N28" t="n">
-        <v>79.40593363687026</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="O28" t="n">
-        <v>79.40593363687026</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="P28" t="n">
-        <v>79.40593363687026</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="Q28" t="n">
-        <v>79.40593363687026</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="R28" t="n">
-        <v>79.40593363687026</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="S28" t="n">
-        <v>79.40593363687026</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="T28" t="n">
-        <v>79.40593363687026</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="U28" t="n">
-        <v>79.40593363687026</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="V28" t="n">
-        <v>79.40593363687026</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="W28" t="n">
-        <v>79.40593363687026</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="X28" t="n">
-        <v>79.40593363687026</v>
+        <v>83.51009091829266</v>
       </c>
       <c r="Y28" t="n">
-        <v>79.40593363687026</v>
+        <v>83.51009091829266</v>
       </c>
     </row>
     <row r="29">
@@ -29697,16 +29697,16 @@
         <v>112.2354442364965</v>
       </c>
       <c r="L31" t="n">
-        <v>22.67556286005829</v>
+        <v>8.985391679576239</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="N31" t="n">
-        <v>112.2354442364965</v>
+        <v>110.4191560160647</v>
       </c>
       <c r="O31" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>112.2354442364965</v>
@@ -29937,13 +29937,13 @@
         <v>112.2354442364965</v>
       </c>
       <c r="M34" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>22.67556286005826</v>
+        <v>110.4191560160647</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>8.985391679576253</v>
       </c>
       <c r="P34" t="n">
         <v>112.2354442364965</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="C35" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="D35" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="E35" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="F35" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="G35" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="H35" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="I35" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -30031,28 +30031,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="S35" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="T35" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="U35" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="V35" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="W35" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="X35" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="Y35" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
     </row>
     <row r="36">
@@ -30062,25 +30062,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="C36" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="D36" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="E36" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="F36" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="G36" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="H36" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -30110,28 +30110,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="S36" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="T36" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="U36" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="V36" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="W36" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="X36" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="Y36" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
     </row>
     <row r="37">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="C37" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="D37" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="E37" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="F37" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="G37" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="H37" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="I37" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="J37" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="K37" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="L37" t="n">
-        <v>69.58384065359438</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="M37" t="n">
-        <v>89.39663285141508</v>
+        <v>26.07623794826091</v>
       </c>
       <c r="N37" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="O37" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="P37" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="R37" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="S37" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="T37" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="U37" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="V37" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="W37" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="X37" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="Y37" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="C38" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="D38" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="E38" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="F38" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="G38" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="H38" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="I38" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -30268,28 +30268,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="S38" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="T38" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="U38" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="V38" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="W38" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="X38" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="Y38" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
     </row>
     <row r="39">
@@ -30299,25 +30299,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="C39" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="D39" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="E39" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="F39" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="G39" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="H39" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -30347,28 +30347,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="S39" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="T39" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="U39" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="V39" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="W39" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="X39" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="Y39" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
     </row>
     <row r="40">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="C40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="D40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="E40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="F40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="G40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="H40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="I40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="J40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="K40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="L40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="M40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="N40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="O40" t="n">
-        <v>66.34925105387372</v>
+        <v>26.07623794826089</v>
       </c>
       <c r="P40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="Q40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="R40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="S40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="T40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="U40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="V40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="W40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="X40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
       <c r="Y40" t="n">
-        <v>89.39663285141508</v>
+        <v>93.50079013283745</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829268</v>
       </c>
       <c r="C41" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829268</v>
       </c>
       <c r="D41" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829268</v>
       </c>
       <c r="E41" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829268</v>
       </c>
       <c r="F41" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829268</v>
       </c>
       <c r="G41" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829268</v>
       </c>
       <c r="H41" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829268</v>
       </c>
       <c r="I41" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829268</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -30505,28 +30505,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829268</v>
       </c>
       <c r="S41" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829268</v>
       </c>
       <c r="T41" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829268</v>
       </c>
       <c r="U41" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829268</v>
       </c>
       <c r="V41" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829268</v>
       </c>
       <c r="W41" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829268</v>
       </c>
       <c r="X41" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829268</v>
       </c>
       <c r="Y41" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829268</v>
       </c>
     </row>
     <row r="42">
@@ -30536,28 +30536,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829268</v>
       </c>
       <c r="C42" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829268</v>
       </c>
       <c r="D42" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829268</v>
       </c>
       <c r="E42" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829268</v>
       </c>
       <c r="F42" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829268</v>
       </c>
       <c r="G42" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829268</v>
       </c>
       <c r="H42" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829268</v>
       </c>
       <c r="I42" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829268</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -30584,28 +30584,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829268</v>
       </c>
       <c r="S42" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829268</v>
       </c>
       <c r="T42" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829268</v>
       </c>
       <c r="U42" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829268</v>
       </c>
       <c r="V42" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829268</v>
       </c>
       <c r="W42" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829268</v>
       </c>
       <c r="X42" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829268</v>
       </c>
       <c r="Y42" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829268</v>
       </c>
     </row>
     <row r="43">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829268</v>
       </c>
       <c r="C43" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829268</v>
       </c>
       <c r="D43" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829268</v>
       </c>
       <c r="E43" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829268</v>
       </c>
       <c r="F43" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829268</v>
       </c>
       <c r="G43" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829268</v>
       </c>
       <c r="H43" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829268</v>
       </c>
       <c r="I43" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829268</v>
       </c>
       <c r="J43" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829268</v>
       </c>
       <c r="K43" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829268</v>
       </c>
       <c r="L43" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829268</v>
       </c>
       <c r="M43" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829268</v>
       </c>
       <c r="N43" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829268</v>
       </c>
       <c r="O43" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829268</v>
       </c>
       <c r="P43" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829268</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829268</v>
       </c>
       <c r="R43" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829268</v>
       </c>
       <c r="S43" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829268</v>
       </c>
       <c r="T43" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829268</v>
       </c>
       <c r="U43" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829268</v>
       </c>
       <c r="V43" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829268</v>
       </c>
       <c r="W43" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829268</v>
       </c>
       <c r="X43" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829268</v>
       </c>
       <c r="Y43" t="n">
-        <v>86.09450081844498</v>
+        <v>83.51009091829268</v>
       </c>
     </row>
     <row r="44">
@@ -36121,22 +36121,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L20" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="M20" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="N20" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="O20" t="n">
-        <v>150.7019698410586</v>
+        <v>44.25126875212759</v>
       </c>
       <c r="P20" t="n">
-        <v>1.362803404311197</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36200,19 +36200,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="M21" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="N21" t="n">
-        <v>158.4675005399118</v>
+        <v>106.1388469855578</v>
       </c>
       <c r="O21" t="n">
-        <v>81.96925959554227</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>63.82500899256212</v>
+        <v>61.24059909240984</v>
       </c>
       <c r="L22" t="n">
-        <v>113.6845260787611</v>
+        <v>111.1001161786088</v>
       </c>
       <c r="M22" t="n">
-        <v>125.6783777802856</v>
+        <v>123.0939678801333</v>
       </c>
       <c r="N22" t="n">
-        <v>130.2266731976736</v>
+        <v>127.6422632975213</v>
       </c>
       <c r="O22" t="n">
-        <v>110.6796287324846</v>
+        <v>108.0952188323324</v>
       </c>
       <c r="P22" t="n">
-        <v>83.37306008333846</v>
+        <v>80.78865018318618</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36358,22 +36358,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>61.59047641633333</v>
       </c>
       <c r="N23" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="O23" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P23" t="n">
-        <v>55.77474241803891</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="M24" t="n">
-        <v>152.0647732453699</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="N24" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="O24" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>158.4675005399118</v>
+        <v>21.68303224009217</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>63.82500899256212</v>
+        <v>61.24059909240984</v>
       </c>
       <c r="L25" t="n">
-        <v>113.6845260787611</v>
+        <v>111.1001161786088</v>
       </c>
       <c r="M25" t="n">
-        <v>125.6783777802856</v>
+        <v>123.0939678801333</v>
       </c>
       <c r="N25" t="n">
-        <v>130.2266731976736</v>
+        <v>127.6422632975213</v>
       </c>
       <c r="O25" t="n">
-        <v>110.6796287324846</v>
+        <v>108.0952188323324</v>
       </c>
       <c r="P25" t="n">
-        <v>83.37306008333846</v>
+        <v>80.78865018318618</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36595,22 +36595,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L26" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="M26" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="N26" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="O26" t="n">
-        <v>61.4990608291568</v>
+        <v>44.25126875212759</v>
       </c>
       <c r="P26" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>78.21131662848418</v>
       </c>
       <c r="L27" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>113.8129620972346</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="P27" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36753,22 +36753,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>57.13644181098741</v>
+        <v>61.24059909240981</v>
       </c>
       <c r="L28" t="n">
-        <v>106.9959588971864</v>
+        <v>111.1001161786088</v>
       </c>
       <c r="M28" t="n">
-        <v>118.9898105987108</v>
+        <v>123.0939678801332</v>
       </c>
       <c r="N28" t="n">
-        <v>123.5381060160989</v>
+        <v>127.6422632975213</v>
       </c>
       <c r="O28" t="n">
-        <v>103.9910615509099</v>
+        <v>108.0952188323323</v>
       </c>
       <c r="P28" t="n">
-        <v>76.68449290176375</v>
+        <v>80.78865018318615</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36832,22 +36832,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>158.4675005399118</v>
+        <v>61.59047641633332</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="N29" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="O29" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P29" t="n">
-        <v>55.77474241803891</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36917,16 +36917,16 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="N30" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="O30" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="P30" t="n">
-        <v>152.0647732453699</v>
+        <v>148.3068302783118</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36993,16 +36993,16 @@
         <v>89.96595241061361</v>
       </c>
       <c r="L31" t="n">
-        <v>50.26558812037442</v>
+        <v>36.57541693989238</v>
       </c>
       <c r="M31" t="n">
-        <v>39.58387696184059</v>
+        <v>151.819321198337</v>
       </c>
       <c r="N31" t="n">
-        <v>156.3676166157251</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="O31" t="n">
-        <v>136.8205721505361</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P31" t="n">
         <v>109.51400350139</v>
@@ -37069,22 +37069,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="N32" t="n">
-        <v>158.4675005399118</v>
+        <v>152.1561888325464</v>
       </c>
       <c r="O32" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P32" t="n">
-        <v>55.77474241803891</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37151,22 +37151,22 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>81.9692595955423</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>148.3068302783118</v>
       </c>
       <c r="N33" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="O33" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="P33" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37233,13 +37233,13 @@
         <v>139.8254694968126</v>
       </c>
       <c r="M34" t="n">
-        <v>151.819321198337</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N34" t="n">
-        <v>66.80773523928686</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="O34" t="n">
-        <v>24.58512791403967</v>
+        <v>33.57051959361593</v>
       </c>
       <c r="P34" t="n">
         <v>109.51400350139</v>
@@ -37306,22 +37306,22 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>69.26459152801002</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L35" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="M35" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="O35" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P35" t="n">
-        <v>90.5657124162131</v>
+        <v>48.10062730636221</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37391,19 +37391,19 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="N36" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="O36" t="n">
-        <v>158.4675005399118</v>
+        <v>78.21131662848417</v>
       </c>
       <c r="P36" t="n">
-        <v>152.0647732453699</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>0.1416100161646767</v>
       </c>
       <c r="K37" t="n">
-        <v>67.12714102553223</v>
+        <v>71.2312983069546</v>
       </c>
       <c r="L37" t="n">
-        <v>97.17386591391052</v>
+        <v>121.0908153931536</v>
       </c>
       <c r="M37" t="n">
-        <v>128.9805098132557</v>
+        <v>65.6601149101015</v>
       </c>
       <c r="N37" t="n">
-        <v>133.5288052306437</v>
+        <v>137.6329625120661</v>
       </c>
       <c r="O37" t="n">
-        <v>113.9817607654548</v>
+        <v>118.0859180468771</v>
       </c>
       <c r="P37" t="n">
-        <v>86.67519211630857</v>
+        <v>90.77934939773094</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>7.338746881143067</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,19 +37543,19 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>104.0555615261842</v>
+        <v>57.7411178620987</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="M38" t="n">
-        <v>123.6765305417377</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="N38" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="O38" t="n">
-        <v>150.7019698410586</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37625,19 +37625,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>152.0647732453699</v>
+        <v>148.3068302783118</v>
       </c>
       <c r="M39" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="N39" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="O39" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>0.1416100161646767</v>
       </c>
       <c r="K40" t="n">
-        <v>67.12714102553223</v>
+        <v>71.2312983069546</v>
       </c>
       <c r="L40" t="n">
-        <v>116.9866581117312</v>
+        <v>121.0908153931536</v>
       </c>
       <c r="M40" t="n">
-        <v>128.9805098132557</v>
+        <v>133.084667094678</v>
       </c>
       <c r="N40" t="n">
-        <v>133.5288052306437</v>
+        <v>137.6329625120661</v>
       </c>
       <c r="O40" t="n">
-        <v>90.93437896791339</v>
+        <v>50.66136586230056</v>
       </c>
       <c r="P40" t="n">
-        <v>86.67519211630857</v>
+        <v>90.77934939773094</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.234589599720692</v>
+        <v>7.338746881143067</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,19 +37783,19 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>158.4675005399118</v>
+        <v>61.59047641633332</v>
       </c>
       <c r="M41" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="N41" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>1.362803404311197</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37862,19 +37862,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>158.4675005399118</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="N42" t="n">
-        <v>158.4675005399118</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>154.5513283952933</v>
       </c>
       <c r="P42" t="n">
-        <v>152.0647732453699</v>
+        <v>148.3068302783118</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37938,22 +37938,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>63.82500899256213</v>
+        <v>61.24059909240982</v>
       </c>
       <c r="L43" t="n">
-        <v>113.6845260787611</v>
+        <v>111.1001161786088</v>
       </c>
       <c r="M43" t="n">
-        <v>125.6783777802856</v>
+        <v>123.0939678801333</v>
       </c>
       <c r="N43" t="n">
-        <v>130.2266731976736</v>
+        <v>127.6422632975213</v>
       </c>
       <c r="O43" t="n">
-        <v>110.6796287324847</v>
+        <v>108.0952188323323</v>
       </c>
       <c r="P43" t="n">
-        <v>83.37306008333847</v>
+        <v>80.78865018318616</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1538065.044105525</v>
+        <v>1484009.149441569</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3734806.867071138</v>
+        <v>3734806.867071135</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10880317.68944832</v>
+        <v>10880317.68944833</v>
       </c>
     </row>
     <row r="9">
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>34.73682390723569</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>34.73682390723569</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>30.59619449749315</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1891,19 +1891,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>34.73682390723567</v>
       </c>
       <c r="S17" t="n">
-        <v>34.73682390723569</v>
+        <v>34.73682390723567</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>34.73682390723567</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>30.59619449749318</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1925,22 +1925,22 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>34.73682390723567</v>
       </c>
       <c r="D18" t="n">
-        <v>34.73682390723569</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>34.73682390723567</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>19.83499319626509</v>
       </c>
       <c r="G18" t="n">
-        <v>34.73682390723569</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>22.83881138508139</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>34.73682390723567</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1982,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>34.73682390723569</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>7.757383112411803</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>34.73682390723569</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>34.73682390723569</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>34.73682390723569</v>
+        <v>34.73682390723567</v>
       </c>
       <c r="U19" t="n">
-        <v>30.59619449749319</v>
+        <v>34.73682390723567</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>34.73682390723567</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>30.59619449749315</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>34.73682390723567</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2137,13 +2137,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>34.73682390723567</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>30.59619449749315</v>
       </c>
       <c r="W20" t="n">
-        <v>30.59619449749315</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2207,25 +2207,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="S21" t="n">
         <v>34.73682390723567</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>34.73682390723567</v>
       </c>
       <c r="U21" t="n">
-        <v>34.73682390723567</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>30.59619449749315</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>34.73682390723567</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>19.83499319626509</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>34.73682390723567</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>34.73682390723567</v>
       </c>
       <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
         <v>34.73682390723567</v>
       </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
       <c r="U22" t="n">
-        <v>34.73682390723567</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
         <v>30.59619449749315</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>136.8385792743967</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>163.6325626339412</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>165.511934200075</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>120.3870096817219</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,19 +2365,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>59.78023805246568</v>
+        <v>59.78023805246565</v>
       </c>
       <c r="S23" t="n">
-        <v>118.9311896975613</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>133.0069696754473</v>
       </c>
       <c r="U23" t="n">
-        <v>161.2567730191525</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>165.511934200075</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2396,25 +2396,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>76.44430376118333</v>
+        <v>76.44430376118331</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>82.61961909963171</v>
       </c>
       <c r="D24" t="n">
-        <v>57.35618567595475</v>
+        <v>57.35618567595472</v>
       </c>
       <c r="E24" t="n">
-        <v>39.55787619819245</v>
+        <v>67.55620056671691</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>54.98033250469985</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>47.2546372745266</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>22.14656434781243</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,10 +2447,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>81.59429121515382</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>110.0758488061376</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2462,10 +2462,10 @@
         <v>161.6061032722356</v>
       </c>
       <c r="X24" t="n">
-        <v>115.6841053147935</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>72.35476774088997</v>
       </c>
     </row>
     <row r="25">
@@ -2484,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>56.34508275788514</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>55.33216813424721</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>87.20451148848548</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>133.9277181482882</v>
       </c>
       <c r="T25" t="n">
-        <v>137.8567095395975</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>165.511934200075</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>95.58103550280239</v>
       </c>
       <c r="W25" t="n">
-        <v>147.7089995669268</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>135.6207755003531</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>120.3870096817219</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>118.9311896975613</v>
+        <v>29.65106314262669</v>
       </c>
       <c r="T26" t="n">
-        <v>133.0069696754474</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>161.2567730191525</v>
       </c>
       <c r="V26" t="n">
-        <v>59.35668647049233</v>
+        <v>165.511934200075</v>
       </c>
       <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
         <v>165.511934200075</v>
       </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
       <c r="Y26" t="n">
-        <v>165.511934200075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,22 +2633,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>76.44430376118333</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>46.78998626625381</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>57.35618567595472</v>
       </c>
       <c r="E27" t="n">
-        <v>61.15874365020788</v>
+        <v>67.55620056671691</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>54.98033250469985</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>47.2546372745266</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2681,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>10.06895426395913</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>81.59429121515382</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>110.0758488061376</v>
       </c>
       <c r="U27" t="n">
-        <v>135.8525021922908</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>142.7117072607412</v>
       </c>
       <c r="W27" t="n">
-        <v>161.6061032722356</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>115.5938158886204</v>
+        <v>115.5938158886203</v>
       </c>
     </row>
     <row r="28">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.74310029325329</v>
+        <v>89.74310029325326</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>55.33216813424721</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>77.90209946977473</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>65.36159503857425</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>87.20451148848548</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>133.9277181482882</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>137.8567095395975</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>165.511934200075</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>162.048763435144</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>28.07474057395152</v>
+        <v>26.41905367258265</v>
       </c>
     </row>
     <row r="29">
@@ -2791,23 +2791,23 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>165.511934200075</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>165.511934200075</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>165.511934200075</v>
       </c>
-      <c r="F29" t="n">
-        <v>165.511934200075</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>59.78023805246566</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2851,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>145.782911643426</v>
       </c>
       <c r="W29" t="n">
-        <v>165.511934200075</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>86.00267359096036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>76.44430376118332</v>
+        <v>76.44430376118331</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2879,10 +2879,10 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>67.55620056671691</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>54.98033250469985</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>10.06895426395911</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>81.5942912151538</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>110.0758488061376</v>
@@ -2930,13 +2930,13 @@
         <v>135.8525021922908</v>
       </c>
       <c r="V30" t="n">
-        <v>112.5987086901329</v>
+        <v>142.7117072607412</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>115.6841053147935</v>
+        <v>54.69781915188134</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2955,22 +2955,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>58.52659312952832</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>30.27806879410977</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>55.33216813424721</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>72.13829261875554</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>65.36159503857425</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>87.20451148848547</v>
+        <v>87.20451148848545</v>
       </c>
       <c r="S31" t="n">
-        <v>133.9277181482882</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>137.8567095395975</v>
       </c>
       <c r="U31" t="n">
-        <v>165.511934200075</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>117.8178408672048</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>135.6207755003531</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>165.511934200075</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3043,61 +3043,61 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>145.782911643426</v>
+      </c>
+      <c r="X32" t="n">
         <v>165.511934200075</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>59.08799101519674</v>
-      </c>
-      <c r="S32" t="n">
-        <v>118.2389426602924</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
+      <c r="Y32" t="n">
         <v>165.511934200075</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>133.9679121680118</v>
       </c>
     </row>
     <row r="33">
@@ -3107,25 +3107,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>75.75205672391435</v>
       </c>
       <c r="C33" t="n">
-        <v>81.92737206236279</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>56.66393863868576</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>66.86395352944795</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>54.28808546743089</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>46.56239023725765</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>21.45431731054347</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3155,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.376707226690186</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>80.90204417788487</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>109.3836017688687</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>103.8079599330208</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>142.0194602234723</v>
+        <v>44.82825782387991</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>160.9138562349666</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>114.9918582775245</v>
       </c>
       <c r="Y33" t="n">
-        <v>114.9015688513514</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>71.47831796714384</v>
+        <v>89.05085325598431</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>76.46569417267484</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>52.71359552789095</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>133.2354711110193</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>137.1644625023285</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>165.511934200075</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>161.356516397875</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>134.9285284630842</v>
+        <v>134.9285284630841</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>127.8035264261418</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>150.7303198616175</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3274,14 +3274,14 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>165.511934200075</v>
       </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>165.511934200075</v>
       </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>59.08799101519669</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>160.5645259818835</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>86.69492062822933</v>
       </c>
       <c r="Y35" t="n">
         <v>165.511934200075</v>
@@ -3344,25 +3344,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>75.75205672391435</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>81.92737206236275</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>56.66393863868576</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>66.86395352944795</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>4.562789456746517</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>21.45431731054347</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3392,25 +3392,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.376707226690186</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>80.90204417788487</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>109.3836017688687</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>135.1602551550219</v>
+        <v>82.64575747770003</v>
       </c>
       <c r="V36" t="n">
         <v>142.0194602234723</v>
       </c>
       <c r="W36" t="n">
-        <v>160.9138562349667</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>114.9918582775245</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>57.83434609225937</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,16 +3438,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>77.20985243250577</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>71.44604558148659</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>64.66934800130529</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>2.578053190719785</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>86.51226445121654</v>
+        <v>69.8336636342801</v>
       </c>
       <c r="S37" t="n">
         <v>133.2354711110193</v>
       </c>
       <c r="T37" t="n">
-        <v>95.70252808346514</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>165.511934200075</v>
       </c>
       <c r="V37" t="n">
-        <v>161.3565163978751</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>165.511934200075</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3514,10 +3514,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>86.00267359096037</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>165.511934200075</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>59.78023805246568</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3559,13 +3559,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>145.782911643426</v>
       </c>
       <c r="V38" t="n">
-        <v>165.511934200075</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>165.511934200075</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3581,25 +3581,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>76.44430376118331</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>82.61961909963171</v>
       </c>
       <c r="D39" t="n">
-        <v>15.44958852140038</v>
+        <v>57.35618567595472</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>24.31715241898659</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>54.98033250469985</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>47.2546372745266</v>
       </c>
       <c r="H39" t="n">
-        <v>22.14656434781246</v>
+        <v>22.14656434781243</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,13 +3632,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>81.59429121515382</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>110.0758488061376</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>135.8525021922908</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3650,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>115.5938158886204</v>
+        <v>115.5938158886203</v>
       </c>
     </row>
     <row r="40">
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>3.270300227988741</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>87.20451148848548</v>
+        <v>10.35500668001524</v>
       </c>
       <c r="S40" t="n">
-        <v>133.9277181482882</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>137.8567095395975</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>117.8178408672049</v>
+        <v>165.511934200075</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>162.048763435144</v>
       </c>
       <c r="W40" t="n">
         <v>165.511934200075</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>135.6207755003531</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>130.7751102928394</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>130.7751102928394</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3754,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>130.7751102928393</v>
+        <v>130.7751102928394</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>115.1867171459328</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>82.0497298783485</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>130.7751102928393</v>
+        <v>33.13698726758437</v>
       </c>
       <c r="Y41" t="n">
-        <v>130.7751102928393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>11.32293410489615</v>
+        <v>84.22039317877872</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3827,10 +3827,10 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>89.82569239259976</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>77.2498243305827</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>21.5772447886139</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,25 +3869,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>103.8637830410367</v>
+        <v>103.8637830410366</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>130.7751102928393</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>130.7751102928393</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>130.7751102928393</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>130.7751102928394</v>
       </c>
     </row>
     <row r="43">
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>25.53979205387159</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3942,31 +3942,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.34265518889323</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.4740033143683</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>118.1451689355105</v>
+        <v>130.7751102928394</v>
       </c>
       <c r="T43" t="n">
-        <v>130.7751102928393</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>130.7751102928393</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>130.7751102928394</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>89.64692509206135</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>130.7751102928394</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>130.7751102928393</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,13 +3985,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>115.186717145933</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>130.7751102928394</v>
       </c>
       <c r="G44" t="n">
-        <v>130.7751102928393</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>115.1867171459329</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>130.7751102928394</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>130.7751102928394</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>130.7751102928393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,13 +4055,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>98.7137955870662</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>79.62567750183761</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4073,10 +4073,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>44.41605617369527</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>21.57724478861388</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4112,16 +4112,16 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>67.62235434986835</v>
+        <v>130.7751102928394</v>
       </c>
       <c r="V45" t="n">
-        <v>130.7751102928393</v>
+        <v>130.7751102928394</v>
       </c>
       <c r="W45" t="n">
-        <v>130.7751102928393</v>
+        <v>130.7751102928394</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>49.1934161836238</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4152,13 +4152,13 @@
         <v>100.1715912956576</v>
       </c>
       <c r="H46" t="n">
-        <v>94.40778444463844</v>
+        <v>94.40778444463838</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.63108686445709</v>
       </c>
       <c r="J46" t="n">
-        <v>25.53979205387164</v>
+        <v>25.53979205387158</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4179,25 +4179,25 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>18.34265518889319</v>
       </c>
       <c r="R46" t="n">
-        <v>25.84265964460449</v>
+        <v>109.4740033143683</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>71.94513486256488</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>130.7751102928393</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>130.7751102928393</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>37.86664682897855</v>
+        <v>33.68419287974366</v>
       </c>
       <c r="C17" t="n">
-        <v>2.778945912578855</v>
+        <v>33.68419287974366</v>
       </c>
       <c r="D17" t="n">
-        <v>2.778945912578855</v>
+        <v>33.68419287974366</v>
       </c>
       <c r="E17" t="n">
-        <v>2.778945912578855</v>
+        <v>33.68419287974366</v>
       </c>
       <c r="F17" t="n">
-        <v>2.778945912578855</v>
+        <v>33.68419287974366</v>
       </c>
       <c r="G17" t="n">
-        <v>2.778945912578855</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="H17" t="n">
-        <v>2.778945912578855</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="I17" t="n">
-        <v>2.778945912578855</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="J17" t="n">
-        <v>2.778945912578855</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="K17" t="n">
-        <v>37.16840158074218</v>
+        <v>35.77892862445274</v>
       </c>
       <c r="L17" t="n">
-        <v>37.16840158074218</v>
+        <v>35.77892862445274</v>
       </c>
       <c r="M17" t="n">
-        <v>71.55785724890552</v>
+        <v>35.77892862445274</v>
       </c>
       <c r="N17" t="n">
+        <v>70.16838429261605</v>
+      </c>
+      <c r="O17" t="n">
         <v>104.5578399607794</v>
       </c>
-      <c r="O17" t="n">
-        <v>138.9472956289428</v>
-      </c>
       <c r="P17" t="n">
-        <v>138.9472956289428</v>
+        <v>138.9472956289427</v>
       </c>
       <c r="Q17" t="n">
-        <v>138.9472956289428</v>
+        <v>138.9472956289427</v>
       </c>
       <c r="R17" t="n">
-        <v>138.9472956289428</v>
+        <v>103.859594712543</v>
       </c>
       <c r="S17" t="n">
-        <v>103.8595947125431</v>
+        <v>68.77189379614333</v>
       </c>
       <c r="T17" t="n">
-        <v>103.8595947125431</v>
+        <v>33.68419287974366</v>
       </c>
       <c r="U17" t="n">
-        <v>103.8595947125431</v>
+        <v>33.68419287974366</v>
       </c>
       <c r="V17" t="n">
-        <v>72.95434774537824</v>
+        <v>33.68419287974366</v>
       </c>
       <c r="W17" t="n">
-        <v>72.95434774537824</v>
+        <v>33.68419287974366</v>
       </c>
       <c r="X17" t="n">
-        <v>72.95434774537824</v>
+        <v>33.68419287974366</v>
       </c>
       <c r="Y17" t="n">
-        <v>72.95434774537824</v>
+        <v>33.68419287974366</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>96.02385419495539</v>
+        <v>92.98969440827224</v>
       </c>
       <c r="C18" t="n">
-        <v>96.02385419495539</v>
+        <v>57.90199349187257</v>
       </c>
       <c r="D18" t="n">
-        <v>60.93615327855571</v>
+        <v>57.90199349187257</v>
       </c>
       <c r="E18" t="n">
-        <v>60.93615327855571</v>
+        <v>22.81429257547289</v>
       </c>
       <c r="F18" t="n">
-        <v>60.93615327855571</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="G18" t="n">
-        <v>25.84845236215601</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="H18" t="n">
-        <v>2.778945912578855</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="I18" t="n">
-        <v>2.778945912578855</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="J18" t="n">
-        <v>2.778945912578855</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="K18" t="n">
-        <v>2.778945912578855</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="L18" t="n">
-        <v>37.16840158074218</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="M18" t="n">
-        <v>71.55785724890552</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="N18" t="n">
+        <v>35.77892862445274</v>
+      </c>
+      <c r="O18" t="n">
+        <v>70.16838429261605</v>
+      </c>
+      <c r="P18" t="n">
         <v>104.5578399607794</v>
       </c>
-      <c r="O18" t="n">
-        <v>138.9472956289428</v>
-      </c>
-      <c r="P18" t="n">
-        <v>138.9472956289428</v>
-      </c>
       <c r="Q18" t="n">
-        <v>138.9472956289428</v>
+        <v>138.9472956289427</v>
       </c>
       <c r="R18" t="n">
-        <v>138.9472956289428</v>
+        <v>128.0773953246719</v>
       </c>
       <c r="S18" t="n">
-        <v>138.9472956289428</v>
+        <v>92.98969440827224</v>
       </c>
       <c r="T18" t="n">
-        <v>138.9472956289428</v>
+        <v>92.98969440827224</v>
       </c>
       <c r="U18" t="n">
-        <v>138.9472956289428</v>
+        <v>92.98969440827224</v>
       </c>
       <c r="V18" t="n">
-        <v>103.8595947125431</v>
+        <v>92.98969440827224</v>
       </c>
       <c r="W18" t="n">
-        <v>103.8595947125431</v>
+        <v>92.98969440827224</v>
       </c>
       <c r="X18" t="n">
-        <v>103.8595947125431</v>
+        <v>92.98969440827224</v>
       </c>
       <c r="Y18" t="n">
-        <v>96.02385419495539</v>
+        <v>92.98969440827224</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.778945912578855</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="C19" t="n">
-        <v>2.778945912578855</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="D19" t="n">
-        <v>2.778945912578855</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="E19" t="n">
-        <v>2.778945912578855</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="F19" t="n">
-        <v>2.778945912578855</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="G19" t="n">
-        <v>2.778945912578855</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="H19" t="n">
-        <v>2.778945912578855</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="I19" t="n">
-        <v>2.778945912578855</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="J19" t="n">
-        <v>2.778945912578855</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="K19" t="n">
-        <v>2.778945912578855</v>
+        <v>15.31273894628031</v>
       </c>
       <c r="L19" t="n">
-        <v>30.09307092029183</v>
+        <v>42.62686395399329</v>
       </c>
       <c r="M19" t="n">
-        <v>64.48252658845516</v>
+        <v>77.0163196221566</v>
       </c>
       <c r="N19" t="n">
-        <v>98.87198225661848</v>
+        <v>111.4057752903199</v>
       </c>
       <c r="O19" t="n">
-        <v>123.2112588915178</v>
+        <v>135.7450519252192</v>
       </c>
       <c r="P19" t="n">
-        <v>138.9472956289428</v>
+        <v>135.7450519252192</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.9472956289428</v>
+        <v>138.9472956289427</v>
       </c>
       <c r="R19" t="n">
-        <v>103.8595947125431</v>
+        <v>138.9472956289427</v>
       </c>
       <c r="S19" t="n">
-        <v>68.77189379614339</v>
+        <v>138.9472956289427</v>
       </c>
       <c r="T19" t="n">
-        <v>33.6841928797437</v>
+        <v>103.859594712543</v>
       </c>
       <c r="U19" t="n">
-        <v>2.778945912578855</v>
+        <v>68.77189379614333</v>
       </c>
       <c r="V19" t="n">
-        <v>2.778945912578855</v>
+        <v>33.68419287974366</v>
       </c>
       <c r="W19" t="n">
-        <v>2.778945912578855</v>
+        <v>33.68419287974366</v>
       </c>
       <c r="X19" t="n">
-        <v>2.778945912578855</v>
+        <v>2.778945912578854</v>
       </c>
       <c r="Y19" t="n">
-        <v>2.778945912578855</v>
+        <v>2.778945912578854</v>
       </c>
     </row>
     <row r="20">
@@ -5758,13 +5758,13 @@
         <v>37.16840158074217</v>
       </c>
       <c r="L20" t="n">
-        <v>37.16840158074217</v>
+        <v>71.55785724890549</v>
       </c>
       <c r="M20" t="n">
         <v>71.55785724890549</v>
       </c>
       <c r="N20" t="n">
-        <v>105.9473129170688</v>
+        <v>71.55785724890549</v>
       </c>
       <c r="O20" t="n">
         <v>105.9473129170688</v>
@@ -5785,19 +5785,19 @@
         <v>103.859594712543</v>
       </c>
       <c r="U20" t="n">
-        <v>68.77189379614333</v>
+        <v>103.859594712543</v>
       </c>
       <c r="V20" t="n">
-        <v>68.77189379614333</v>
+        <v>72.95434774537821</v>
       </c>
       <c r="W20" t="n">
+        <v>72.95434774537821</v>
+      </c>
+      <c r="X20" t="n">
+        <v>72.95434774537821</v>
+      </c>
+      <c r="Y20" t="n">
         <v>37.86664682897853</v>
-      </c>
-      <c r="X20" t="n">
-        <v>37.86664682897853</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>2.778945912578854</v>
       </c>
     </row>
     <row r="21">
@@ -5834,19 +5834,19 @@
         <v>2.778945912578854</v>
       </c>
       <c r="K21" t="n">
+        <v>2.778945912578854</v>
+      </c>
+      <c r="L21" t="n">
+        <v>2.778945912578854</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2.778945912578854</v>
+      </c>
+      <c r="N21" t="n">
         <v>35.77892862445274</v>
       </c>
-      <c r="L21" t="n">
+      <c r="O21" t="n">
         <v>70.16838429261605</v>
-      </c>
-      <c r="M21" t="n">
-        <v>70.16838429261605</v>
-      </c>
-      <c r="N21" t="n">
-        <v>70.16838429261605</v>
-      </c>
-      <c r="O21" t="n">
-        <v>104.5578399607794</v>
       </c>
       <c r="P21" t="n">
         <v>104.5578399607794</v>
@@ -5855,22 +5855,22 @@
         <v>138.9472956289427</v>
       </c>
       <c r="R21" t="n">
-        <v>138.9472956289427</v>
+        <v>128.0773953246719</v>
       </c>
       <c r="S21" t="n">
-        <v>103.859594712543</v>
+        <v>92.98969440827224</v>
       </c>
       <c r="T21" t="n">
-        <v>103.859594712543</v>
+        <v>57.90199349187257</v>
       </c>
       <c r="U21" t="n">
-        <v>68.77189379614333</v>
+        <v>57.90199349187257</v>
       </c>
       <c r="V21" t="n">
-        <v>37.86664682897853</v>
+        <v>57.90199349187257</v>
       </c>
       <c r="W21" t="n">
-        <v>2.778945912578854</v>
+        <v>22.81429257547289</v>
       </c>
       <c r="X21" t="n">
         <v>2.778945912578854</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.778945912578854</v>
+        <v>37.86664682897853</v>
       </c>
       <c r="C22" t="n">
-        <v>2.778945912578854</v>
+        <v>37.86664682897853</v>
       </c>
       <c r="D22" t="n">
-        <v>2.778945912578854</v>
+        <v>37.86664682897853</v>
       </c>
       <c r="E22" t="n">
-        <v>2.778945912578854</v>
+        <v>37.86664682897853</v>
       </c>
       <c r="F22" t="n">
-        <v>2.778945912578854</v>
+        <v>37.86664682897853</v>
       </c>
       <c r="G22" t="n">
-        <v>2.778945912578854</v>
+        <v>37.86664682897853</v>
       </c>
       <c r="H22" t="n">
-        <v>2.778945912578854</v>
+        <v>37.86664682897853</v>
       </c>
       <c r="I22" t="n">
         <v>2.778945912578854</v>
@@ -5937,25 +5937,25 @@
         <v>103.859594712543</v>
       </c>
       <c r="S22" t="n">
-        <v>68.77189379614333</v>
+        <v>103.859594712543</v>
       </c>
       <c r="T22" t="n">
         <v>68.77189379614333</v>
       </c>
       <c r="U22" t="n">
-        <v>33.68419287974366</v>
+        <v>68.77189379614333</v>
       </c>
       <c r="V22" t="n">
-        <v>33.68419287974366</v>
+        <v>68.77189379614333</v>
       </c>
       <c r="W22" t="n">
-        <v>33.68419287974366</v>
+        <v>68.77189379614333</v>
       </c>
       <c r="X22" t="n">
-        <v>2.778945912578854</v>
+        <v>68.77189379614333</v>
       </c>
       <c r="Y22" t="n">
-        <v>2.778945912578854</v>
+        <v>37.86664682897853</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>13.240954736006</v>
+        <v>467.3131835397819</v>
       </c>
       <c r="C23" t="n">
-        <v>13.240954736006</v>
+        <v>467.3131835397819</v>
       </c>
       <c r="D23" t="n">
-        <v>13.240954736006</v>
+        <v>302.0277667378211</v>
       </c>
       <c r="E23" t="n">
-        <v>13.240954736006</v>
+        <v>302.0277667378211</v>
       </c>
       <c r="F23" t="n">
-        <v>13.240954736006</v>
+        <v>302.0277667378211</v>
       </c>
       <c r="G23" t="n">
-        <v>13.240954736006</v>
+        <v>302.0277667378211</v>
       </c>
       <c r="H23" t="n">
-        <v>13.240954736006</v>
+        <v>134.8439948185534</v>
       </c>
       <c r="I23" t="n">
         <v>13.240954736006</v>
@@ -5992,19 +5992,19 @@
         <v>13.240954736006</v>
       </c>
       <c r="K23" t="n">
-        <v>116.2559606469284</v>
+        <v>13.240954736006</v>
       </c>
       <c r="L23" t="n">
-        <v>116.2559606469284</v>
+        <v>177.0977695940803</v>
       </c>
       <c r="M23" t="n">
-        <v>280.1127755050026</v>
+        <v>340.9545844521546</v>
       </c>
       <c r="N23" t="n">
-        <v>443.9695903630769</v>
+        <v>504.8113993102288</v>
       </c>
       <c r="O23" t="n">
-        <v>572.3876815082491</v>
+        <v>654.0063494528769</v>
       </c>
       <c r="P23" t="n">
         <v>662.0477368003001</v>
@@ -6016,25 +6016,25 @@
         <v>601.6636579594257</v>
       </c>
       <c r="S23" t="n">
-        <v>481.5311431134041</v>
+        <v>601.6636579594257</v>
       </c>
       <c r="T23" t="n">
-        <v>481.5311431134041</v>
+        <v>467.3131835397819</v>
       </c>
       <c r="U23" t="n">
-        <v>318.6455138011289</v>
+        <v>467.3131835397819</v>
       </c>
       <c r="V23" t="n">
-        <v>151.4617418818612</v>
+        <v>467.3131835397819</v>
       </c>
       <c r="W23" t="n">
-        <v>151.4617418818612</v>
+        <v>467.3131835397819</v>
       </c>
       <c r="X23" t="n">
-        <v>151.4617418818612</v>
+        <v>467.3131835397819</v>
       </c>
       <c r="Y23" t="n">
-        <v>151.4617418818612</v>
+        <v>467.3131835397819</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>111.1339465280739</v>
+        <v>348.5071562201901</v>
       </c>
       <c r="C24" t="n">
-        <v>111.1339465280739</v>
+        <v>265.0529955134914</v>
       </c>
       <c r="D24" t="n">
-        <v>53.1984054412509</v>
+        <v>207.1174544266684</v>
       </c>
       <c r="E24" t="n">
-        <v>13.240954736006</v>
+        <v>138.8788679956412</v>
       </c>
       <c r="F24" t="n">
-        <v>13.240954736006</v>
+        <v>83.34317859695452</v>
       </c>
       <c r="G24" t="n">
-        <v>13.240954736006</v>
+        <v>35.61122175399836</v>
       </c>
       <c r="H24" t="n">
         <v>13.240954736006</v>
@@ -6071,16 +6071,16 @@
         <v>13.240954736006</v>
       </c>
       <c r="K24" t="n">
-        <v>101.082733712748</v>
+        <v>138.5985147938434</v>
       </c>
       <c r="L24" t="n">
-        <v>101.082733712748</v>
+        <v>264.9395485708222</v>
       </c>
       <c r="M24" t="n">
-        <v>101.082733712748</v>
+        <v>428.7963634288965</v>
       </c>
       <c r="N24" t="n">
-        <v>264.9395485708222</v>
+        <v>428.7963634288965</v>
       </c>
       <c r="O24" t="n">
         <v>428.7963634288965</v>
@@ -6095,25 +6095,25 @@
         <v>662.0477368003001</v>
       </c>
       <c r="S24" t="n">
-        <v>579.6292608253972</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="T24" t="n">
-        <v>468.4415347585915</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="U24" t="n">
-        <v>468.4415347585915</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="V24" t="n">
-        <v>468.4415347585915</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="W24" t="n">
-        <v>305.2030466048182</v>
+        <v>498.8092486465267</v>
       </c>
       <c r="X24" t="n">
-        <v>188.3504149737136</v>
+        <v>498.8092486465267</v>
       </c>
       <c r="Y24" t="n">
-        <v>188.3504149737136</v>
+        <v>425.7236246658298</v>
       </c>
     </row>
     <row r="25">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>13.240954736006</v>
+        <v>126.0462586674528</v>
       </c>
       <c r="C25" t="n">
-        <v>13.240954736006</v>
+        <v>126.0462586674528</v>
       </c>
       <c r="D25" t="n">
-        <v>13.240954736006</v>
+        <v>126.0462586674528</v>
       </c>
       <c r="E25" t="n">
-        <v>13.240954736006</v>
+        <v>69.13203365948803</v>
       </c>
       <c r="F25" t="n">
         <v>13.240954736006</v>
@@ -6150,13 +6150,13 @@
         <v>13.240954736006</v>
       </c>
       <c r="K25" t="n">
-        <v>80.38214891817913</v>
+        <v>80.38214891817915</v>
       </c>
       <c r="L25" t="n">
         <v>196.8842650156893</v>
       </c>
       <c r="M25" t="n">
-        <v>325.2602942977087</v>
+        <v>325.2602942977086</v>
       </c>
       <c r="N25" t="n">
         <v>458.1391360429421</v>
@@ -6165,34 +6165,34 @@
         <v>571.6664037676386</v>
       </c>
       <c r="P25" t="n">
-        <v>658.1601685296804</v>
+        <v>658.1601685296803</v>
       </c>
       <c r="Q25" t="n">
         <v>662.0477368003001</v>
       </c>
       <c r="R25" t="n">
-        <v>573.9623716604158</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="S25" t="n">
-        <v>438.6818482783065</v>
+        <v>526.7672134181907</v>
       </c>
       <c r="T25" t="n">
-        <v>299.4326467231575</v>
+        <v>526.7672134181907</v>
       </c>
       <c r="U25" t="n">
-        <v>299.4326467231575</v>
+        <v>359.583441498923</v>
       </c>
       <c r="V25" t="n">
-        <v>299.4326467231575</v>
+        <v>263.0369409910418</v>
       </c>
       <c r="W25" t="n">
-        <v>150.231637059595</v>
+        <v>263.0369409910418</v>
       </c>
       <c r="X25" t="n">
-        <v>13.240954736006</v>
+        <v>126.0462586674528</v>
       </c>
       <c r="Y25" t="n">
-        <v>13.240954736006</v>
+        <v>126.0462586674528</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>13.240954736006</v>
+        <v>134.8439948185534</v>
       </c>
       <c r="C26" t="n">
-        <v>13.240954736006</v>
+        <v>134.8439948185534</v>
       </c>
       <c r="D26" t="n">
-        <v>13.240954736006</v>
+        <v>134.8439948185534</v>
       </c>
       <c r="E26" t="n">
-        <v>13.240954736006</v>
+        <v>134.8439948185534</v>
       </c>
       <c r="F26" t="n">
-        <v>13.240954736006</v>
+        <v>134.8439948185534</v>
       </c>
       <c r="G26" t="n">
-        <v>13.240954736006</v>
+        <v>134.8439948185534</v>
       </c>
       <c r="H26" t="n">
-        <v>13.240954736006</v>
+        <v>134.8439948185534</v>
       </c>
       <c r="I26" t="n">
         <v>13.240954736006</v>
@@ -6229,49 +6229,49 @@
         <v>13.240954736006</v>
       </c>
       <c r="K26" t="n">
-        <v>13.240954736006</v>
+        <v>116.2559606469284</v>
       </c>
       <c r="L26" t="n">
-        <v>177.0977695940802</v>
+        <v>280.1127755050026</v>
       </c>
       <c r="M26" t="n">
-        <v>259.3359165075267</v>
+        <v>443.9695903630769</v>
       </c>
       <c r="N26" t="n">
-        <v>423.1927313656009</v>
+        <v>607.8264052211512</v>
       </c>
       <c r="O26" t="n">
-        <v>572.387681508249</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="P26" t="n">
-        <v>662.0477368003</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="Q26" t="n">
-        <v>662.0477368003</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="R26" t="n">
-        <v>662.0477368003</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="S26" t="n">
-        <v>541.9152219542784</v>
+        <v>632.097167969364</v>
       </c>
       <c r="T26" t="n">
-        <v>407.5647475346346</v>
+        <v>632.097167969364</v>
       </c>
       <c r="U26" t="n">
-        <v>407.5647475346346</v>
+        <v>469.2115386570888</v>
       </c>
       <c r="V26" t="n">
-        <v>347.6084985745414</v>
+        <v>302.0277667378211</v>
       </c>
       <c r="W26" t="n">
-        <v>180.4247266552737</v>
+        <v>302.0277667378211</v>
       </c>
       <c r="X26" t="n">
-        <v>180.4247266552737</v>
+        <v>134.8439948185534</v>
       </c>
       <c r="Y26" t="n">
-        <v>13.240954736006</v>
+        <v>134.8439948185534</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>75.01746347358973</v>
+        <v>289.9453408856544</v>
       </c>
       <c r="C27" t="n">
-        <v>75.01746347358973</v>
+        <v>242.682728495499</v>
       </c>
       <c r="D27" t="n">
-        <v>75.01746347358973</v>
+        <v>184.7471874086761</v>
       </c>
       <c r="E27" t="n">
-        <v>13.240954736006</v>
+        <v>116.5086009776489</v>
       </c>
       <c r="F27" t="n">
-        <v>13.240954736006</v>
+        <v>60.97291157896217</v>
       </c>
       <c r="G27" t="n">
         <v>13.240954736006</v>
@@ -6308,49 +6308,49 @@
         <v>13.240954736006</v>
       </c>
       <c r="K27" t="n">
-        <v>13.240954736006</v>
+        <v>138.5985147938434</v>
       </c>
       <c r="L27" t="n">
-        <v>177.0977695940802</v>
+        <v>264.9395485708222</v>
       </c>
       <c r="M27" t="n">
-        <v>264.9395485708221</v>
+        <v>264.9395485708222</v>
       </c>
       <c r="N27" t="n">
-        <v>428.7963634288964</v>
+        <v>264.9395485708222</v>
       </c>
       <c r="O27" t="n">
-        <v>428.7963634288964</v>
+        <v>428.7963634288965</v>
       </c>
       <c r="P27" t="n">
-        <v>592.6531782869706</v>
+        <v>592.6531782869707</v>
       </c>
       <c r="Q27" t="n">
-        <v>662.0477368003</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="R27" t="n">
-        <v>651.877075927614</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="S27" t="n">
-        <v>569.4585999527111</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="T27" t="n">
-        <v>569.4585999527111</v>
+        <v>550.8600107334944</v>
       </c>
       <c r="U27" t="n">
-        <v>432.2338502635284</v>
+        <v>550.8600107334944</v>
       </c>
       <c r="V27" t="n">
-        <v>432.2338502635284</v>
+        <v>406.70677107618</v>
       </c>
       <c r="W27" t="n">
-        <v>268.9953621097551</v>
+        <v>406.70677107618</v>
       </c>
       <c r="X27" t="n">
-        <v>268.9953621097551</v>
+        <v>406.70677107618</v>
       </c>
       <c r="Y27" t="n">
-        <v>152.2339319192295</v>
+        <v>289.9453408856544</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>13.240954736006</v>
+        <v>213.8428361931739</v>
       </c>
       <c r="C28" t="n">
-        <v>13.240954736006</v>
+        <v>213.8428361931739</v>
       </c>
       <c r="D28" t="n">
-        <v>13.240954736006</v>
+        <v>213.8428361931739</v>
       </c>
       <c r="E28" t="n">
-        <v>13.240954736006</v>
+        <v>213.8428361931739</v>
       </c>
       <c r="F28" t="n">
-        <v>13.240954736006</v>
+        <v>157.9517572696919</v>
       </c>
       <c r="G28" t="n">
-        <v>13.240954736006</v>
+        <v>79.26276790628303</v>
       </c>
       <c r="H28" t="n">
-        <v>13.240954736006</v>
+        <v>79.26276790628303</v>
       </c>
       <c r="I28" t="n">
         <v>13.240954736006</v>
@@ -6387,10 +6387,10 @@
         <v>13.240954736006</v>
       </c>
       <c r="K28" t="n">
-        <v>80.38214891817913</v>
+        <v>80.38214891817904</v>
       </c>
       <c r="L28" t="n">
-        <v>196.8842650156893</v>
+        <v>196.8842650156892</v>
       </c>
       <c r="M28" t="n">
         <v>325.2602942977086</v>
@@ -6405,31 +6405,31 @@
         <v>658.1601685296803</v>
       </c>
       <c r="Q28" t="n">
-        <v>662.0477368003</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="R28" t="n">
-        <v>573.9623716604157</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="S28" t="n">
-        <v>438.6818482783063</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="T28" t="n">
-        <v>299.4326467231573</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="U28" t="n">
-        <v>132.2488748038897</v>
+        <v>494.8639648810324</v>
       </c>
       <c r="V28" t="n">
-        <v>132.2488748038897</v>
+        <v>331.1783452495738</v>
       </c>
       <c r="W28" t="n">
-        <v>132.2488748038897</v>
+        <v>331.1783452495738</v>
       </c>
       <c r="X28" t="n">
-        <v>132.2488748038897</v>
+        <v>331.1783452495738</v>
       </c>
       <c r="Y28" t="n">
-        <v>103.8905509918174</v>
+        <v>304.4924324489853</v>
       </c>
     </row>
     <row r="29">
@@ -6442,16 +6442,16 @@
         <v>347.6084985745414</v>
       </c>
       <c r="C29" t="n">
-        <v>347.6084985745414</v>
+        <v>180.4247266552737</v>
       </c>
       <c r="D29" t="n">
-        <v>347.6084985745414</v>
+        <v>180.4247266552737</v>
       </c>
       <c r="E29" t="n">
         <v>180.4247266552737</v>
       </c>
       <c r="F29" t="n">
-        <v>13.240954736006</v>
+        <v>180.4247266552737</v>
       </c>
       <c r="G29" t="n">
         <v>13.240954736006</v>
@@ -6466,49 +6466,49 @@
         <v>13.240954736006</v>
       </c>
       <c r="K29" t="n">
-        <v>13.240954736006</v>
+        <v>21.28234208342923</v>
       </c>
       <c r="L29" t="n">
-        <v>177.0977695940802</v>
+        <v>185.1391569415035</v>
       </c>
       <c r="M29" t="n">
-        <v>340.9545844521544</v>
+        <v>348.9959717995778</v>
       </c>
       <c r="N29" t="n">
-        <v>423.1927313656009</v>
+        <v>512.852786657652</v>
       </c>
       <c r="O29" t="n">
-        <v>572.387681508249</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="P29" t="n">
-        <v>662.0477368003</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="Q29" t="n">
-        <v>662.0477368003</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="R29" t="n">
-        <v>601.6636579594256</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="S29" t="n">
-        <v>601.6636579594256</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="T29" t="n">
-        <v>601.6636579594256</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="U29" t="n">
-        <v>601.6636579594256</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="V29" t="n">
-        <v>601.6636579594256</v>
+        <v>514.7922704938092</v>
       </c>
       <c r="W29" t="n">
-        <v>434.4798860401579</v>
+        <v>514.7922704938092</v>
       </c>
       <c r="X29" t="n">
-        <v>434.4798860401579</v>
+        <v>514.7922704938092</v>
       </c>
       <c r="Y29" t="n">
-        <v>347.6084985745414</v>
+        <v>514.7922704938092</v>
       </c>
     </row>
     <row r="30">
@@ -6518,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>13.240954736006</v>
+        <v>137.0152305657199</v>
       </c>
       <c r="C30" t="n">
-        <v>13.240954736006</v>
+        <v>137.0152305657199</v>
       </c>
       <c r="D30" t="n">
-        <v>13.240954736006</v>
+        <v>137.0152305657199</v>
       </c>
       <c r="E30" t="n">
-        <v>13.240954736006</v>
+        <v>68.77664413469272</v>
       </c>
       <c r="F30" t="n">
         <v>13.240954736006</v>
@@ -6545,49 +6545,49 @@
         <v>13.240954736006</v>
       </c>
       <c r="K30" t="n">
-        <v>13.240954736006</v>
+        <v>138.5985147938434</v>
       </c>
       <c r="L30" t="n">
-        <v>13.240954736006</v>
+        <v>302.4553296519177</v>
       </c>
       <c r="M30" t="n">
-        <v>177.0977695940802</v>
+        <v>302.4553296519177</v>
       </c>
       <c r="N30" t="n">
-        <v>340.9545844521544</v>
+        <v>334.3341070841516</v>
       </c>
       <c r="O30" t="n">
-        <v>428.7963634288964</v>
+        <v>498.1909219422258</v>
       </c>
       <c r="P30" t="n">
-        <v>592.6531782869706</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="Q30" t="n">
-        <v>662.0477368003</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="R30" t="n">
-        <v>651.877075927614</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="S30" t="n">
-        <v>569.4585999527112</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="T30" t="n">
-        <v>458.2708738859055</v>
+        <v>550.8600107334944</v>
       </c>
       <c r="U30" t="n">
-        <v>321.0461241967229</v>
+        <v>413.6352610443117</v>
       </c>
       <c r="V30" t="n">
-        <v>207.3100548127503</v>
+        <v>269.4820213869973</v>
       </c>
       <c r="W30" t="n">
-        <v>207.3100548127503</v>
+        <v>269.4820213869973</v>
       </c>
       <c r="X30" t="n">
-        <v>90.45742318164572</v>
+        <v>214.2316990113596</v>
       </c>
       <c r="Y30" t="n">
-        <v>90.45742318164572</v>
+        <v>214.2316990113596</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>13.240954736006</v>
+        <v>297.7224877816778</v>
       </c>
       <c r="C31" t="n">
-        <v>13.240954736006</v>
+        <v>297.7224877816778</v>
       </c>
       <c r="D31" t="n">
-        <v>13.240954736006</v>
+        <v>238.6047169437704</v>
       </c>
       <c r="E31" t="n">
-        <v>13.240954736006</v>
+        <v>208.0208090709323</v>
       </c>
       <c r="F31" t="n">
-        <v>13.240954736006</v>
+        <v>152.1297301474502</v>
       </c>
       <c r="G31" t="n">
-        <v>13.240954736006</v>
+        <v>152.1297301474502</v>
       </c>
       <c r="H31" t="n">
-        <v>13.240954736006</v>
+        <v>79.26276790628303</v>
       </c>
       <c r="I31" t="n">
         <v>13.240954736006</v>
@@ -6624,49 +6624,49 @@
         <v>13.240954736006</v>
       </c>
       <c r="K31" t="n">
-        <v>80.38214891817914</v>
+        <v>80.38214891817915</v>
       </c>
       <c r="L31" t="n">
         <v>196.8842650156893</v>
       </c>
       <c r="M31" t="n">
-        <v>325.2602942977085</v>
+        <v>325.2602942977087</v>
       </c>
       <c r="N31" t="n">
-        <v>458.139136042942</v>
+        <v>458.1391360429422</v>
       </c>
       <c r="O31" t="n">
-        <v>571.6664037676385</v>
+        <v>571.6664037676386</v>
       </c>
       <c r="P31" t="n">
         <v>658.1601685296803</v>
       </c>
       <c r="Q31" t="n">
-        <v>662.0477368003</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="R31" t="n">
-        <v>573.9623716604157</v>
+        <v>573.9623716604158</v>
       </c>
       <c r="S31" t="n">
-        <v>438.6818482783063</v>
+        <v>573.9623716604158</v>
       </c>
       <c r="T31" t="n">
-        <v>299.4326467231573</v>
+        <v>434.7131701052668</v>
       </c>
       <c r="U31" t="n">
-        <v>132.2488748038897</v>
+        <v>434.7131701052668</v>
       </c>
       <c r="V31" t="n">
-        <v>132.2488748038897</v>
+        <v>434.7131701052668</v>
       </c>
       <c r="W31" t="n">
-        <v>13.240954736006</v>
+        <v>434.7131701052668</v>
       </c>
       <c r="X31" t="n">
-        <v>13.240954736006</v>
+        <v>297.7224877816778</v>
       </c>
       <c r="Y31" t="n">
-        <v>13.240954736006</v>
+        <v>297.7224877816778</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>180.4247266552737</v>
+        <v>13.240954736006</v>
       </c>
       <c r="C32" t="n">
-        <v>180.4247266552737</v>
+        <v>13.240954736006</v>
       </c>
       <c r="D32" t="n">
-        <v>180.4247266552737</v>
+        <v>13.240954736006</v>
       </c>
       <c r="E32" t="n">
-        <v>180.4247266552737</v>
+        <v>13.240954736006</v>
       </c>
       <c r="F32" t="n">
-        <v>180.4247266552737</v>
+        <v>13.240954736006</v>
       </c>
       <c r="G32" t="n">
         <v>13.240954736006</v>
@@ -6703,46 +6703,46 @@
         <v>13.240954736006</v>
       </c>
       <c r="K32" t="n">
-        <v>13.240954736006</v>
+        <v>80.81723693402631</v>
       </c>
       <c r="L32" t="n">
-        <v>177.0977695940802</v>
+        <v>244.6740517921006</v>
       </c>
       <c r="M32" t="n">
-        <v>259.3359165075267</v>
+        <v>408.5308666501749</v>
       </c>
       <c r="N32" t="n">
-        <v>423.1927313656009</v>
+        <v>572.3876815082491</v>
       </c>
       <c r="O32" t="n">
-        <v>572.387681508249</v>
+        <v>572.3876815082491</v>
       </c>
       <c r="P32" t="n">
-        <v>662.0477368003</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="Q32" t="n">
-        <v>662.0477368003</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="R32" t="n">
-        <v>602.3628973910103</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="S32" t="n">
-        <v>482.9296219765735</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="T32" t="n">
-        <v>482.9296219765735</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="U32" t="n">
-        <v>482.9296219765735</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="V32" t="n">
-        <v>482.9296219765735</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="W32" t="n">
-        <v>315.7458500573058</v>
+        <v>514.7922704938092</v>
       </c>
       <c r="X32" t="n">
-        <v>315.7458500573058</v>
+        <v>347.6084985745414</v>
       </c>
       <c r="Y32" t="n">
         <v>180.4247266552737</v>
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>95.99587601111995</v>
+        <v>261.5567983555674</v>
       </c>
       <c r="C33" t="n">
-        <v>13.240954736006</v>
+        <v>261.5567983555674</v>
       </c>
       <c r="D33" t="n">
-        <v>13.240954736006</v>
+        <v>204.3204967003292</v>
       </c>
       <c r="E33" t="n">
-        <v>13.240954736006</v>
+        <v>136.7811497008868</v>
       </c>
       <c r="F33" t="n">
-        <v>13.240954736006</v>
+        <v>81.94469973378492</v>
       </c>
       <c r="G33" t="n">
-        <v>13.240954736006</v>
+        <v>34.91198232241355</v>
       </c>
       <c r="H33" t="n">
         <v>13.240954736006</v>
@@ -6782,49 +6782,49 @@
         <v>13.240954736006</v>
       </c>
       <c r="K33" t="n">
-        <v>101.0827337127479</v>
+        <v>13.240954736006</v>
       </c>
       <c r="L33" t="n">
-        <v>101.0827337127479</v>
+        <v>177.0977695940803</v>
       </c>
       <c r="M33" t="n">
-        <v>264.9395485708221</v>
+        <v>340.9545844521546</v>
       </c>
       <c r="N33" t="n">
-        <v>428.7963634288964</v>
+        <v>504.8113993102288</v>
       </c>
       <c r="O33" t="n">
-        <v>428.7963634288964</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="P33" t="n">
-        <v>592.6531782869706</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="Q33" t="n">
-        <v>662.0477368003</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="R33" t="n">
-        <v>652.5763153591988</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="S33" t="n">
-        <v>570.8570788158808</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="T33" t="n">
-        <v>460.3685921806599</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="U33" t="n">
-        <v>355.5120669957904</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="V33" t="n">
-        <v>212.0580667700608</v>
+        <v>616.7666682913305</v>
       </c>
       <c r="W33" t="n">
-        <v>212.0580667700608</v>
+        <v>454.2274195691419</v>
       </c>
       <c r="X33" t="n">
-        <v>212.0580667700608</v>
+        <v>338.0740273696223</v>
       </c>
       <c r="Y33" t="n">
-        <v>95.99587601111995</v>
+        <v>338.0740273696223</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>13.240954736006</v>
+        <v>143.7250857466785</v>
       </c>
       <c r="C34" t="n">
-        <v>13.240954736006</v>
+        <v>66.48701082478475</v>
       </c>
       <c r="D34" t="n">
-        <v>13.240954736006</v>
+        <v>66.48701082478475</v>
       </c>
       <c r="E34" t="n">
-        <v>13.240954736006</v>
+        <v>66.48701082478475</v>
       </c>
       <c r="F34" t="n">
-        <v>13.240954736006</v>
+        <v>66.48701082478475</v>
       </c>
       <c r="G34" t="n">
-        <v>13.240954736006</v>
+        <v>66.48701082478475</v>
       </c>
       <c r="H34" t="n">
         <v>13.240954736006</v>
@@ -6861,49 +6861,49 @@
         <v>13.240954736006</v>
       </c>
       <c r="K34" t="n">
-        <v>81.0674734850754</v>
+        <v>81.06747348507544</v>
       </c>
       <c r="L34" t="n">
-        <v>198.2549141494818</v>
+        <v>193.4576421812079</v>
       </c>
       <c r="M34" t="n">
-        <v>322.5189960301236</v>
+        <v>322.5189960301235</v>
       </c>
       <c r="N34" t="n">
-        <v>456.0831623422533</v>
+        <v>456.0831623422532</v>
       </c>
       <c r="O34" t="n">
-        <v>570.2957546338461</v>
+        <v>570.2957546338459</v>
       </c>
       <c r="P34" t="n">
         <v>657.474843962784</v>
       </c>
       <c r="Q34" t="n">
-        <v>662.0477368003</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="R34" t="n">
-        <v>662.0477368003</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="S34" t="n">
-        <v>527.4664528497754</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="T34" t="n">
-        <v>388.9164907262111</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="U34" t="n">
-        <v>221.7327188069434</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="V34" t="n">
-        <v>221.7327188069434</v>
+        <v>499.0613566004263</v>
       </c>
       <c r="W34" t="n">
-        <v>221.7327188069434</v>
+        <v>499.0613566004263</v>
       </c>
       <c r="X34" t="n">
-        <v>85.44127591493918</v>
+        <v>362.7699137084221</v>
       </c>
       <c r="Y34" t="n">
-        <v>85.44127591493918</v>
+        <v>233.6754425709051</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>180.4247266552737</v>
+        <v>347.6084985745414</v>
       </c>
       <c r="C35" t="n">
-        <v>180.4247266552737</v>
+        <v>347.6084985745414</v>
       </c>
       <c r="D35" t="n">
-        <v>180.4247266552737</v>
+        <v>347.6084985745414</v>
       </c>
       <c r="E35" t="n">
         <v>180.4247266552737</v>
       </c>
       <c r="F35" t="n">
-        <v>13.240954736006</v>
+        <v>180.4247266552737</v>
       </c>
       <c r="G35" t="n">
         <v>13.240954736006</v>
@@ -6940,13 +6940,13 @@
         <v>13.240954736006</v>
       </c>
       <c r="K35" t="n">
-        <v>95.47910164945253</v>
+        <v>116.2559606469284</v>
       </c>
       <c r="L35" t="n">
+        <v>116.2559606469284</v>
+      </c>
+      <c r="M35" t="n">
         <v>259.3359165075268</v>
-      </c>
-      <c r="M35" t="n">
-        <v>423.192731365601</v>
       </c>
       <c r="N35" t="n">
         <v>423.192731365601</v>
@@ -6961,28 +6961,28 @@
         <v>662.0477368003001</v>
       </c>
       <c r="R35" t="n">
-        <v>662.0477368003001</v>
+        <v>602.3628973910105</v>
       </c>
       <c r="S35" t="n">
-        <v>662.0477368003001</v>
+        <v>602.3628973910105</v>
       </c>
       <c r="T35" t="n">
-        <v>662.0477368003001</v>
+        <v>602.3628973910105</v>
       </c>
       <c r="U35" t="n">
-        <v>499.8613469196096</v>
+        <v>602.3628973910105</v>
       </c>
       <c r="V35" t="n">
-        <v>499.8613469196096</v>
+        <v>602.3628973910105</v>
       </c>
       <c r="W35" t="n">
-        <v>499.8613469196096</v>
+        <v>602.3628973910105</v>
       </c>
       <c r="X35" t="n">
-        <v>499.8613469196096</v>
+        <v>514.7922704938092</v>
       </c>
       <c r="Y35" t="n">
-        <v>332.6775750003419</v>
+        <v>347.6084985745414</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>17.8498329751439</v>
+        <v>242.442552252208</v>
       </c>
       <c r="C36" t="n">
-        <v>17.8498329751439</v>
+        <v>159.6876309770941</v>
       </c>
       <c r="D36" t="n">
-        <v>17.8498329751439</v>
+        <v>102.4513293218559</v>
       </c>
       <c r="E36" t="n">
-        <v>17.8498329751439</v>
+        <v>34.91198232241355</v>
       </c>
       <c r="F36" t="n">
-        <v>17.8498329751439</v>
+        <v>34.91198232241355</v>
       </c>
       <c r="G36" t="n">
-        <v>13.240954736006</v>
+        <v>34.91198232241355</v>
       </c>
       <c r="H36" t="n">
         <v>13.240954736006</v>
@@ -7019,49 +7019,49 @@
         <v>13.240954736006</v>
       </c>
       <c r="K36" t="n">
-        <v>13.240954736006</v>
+        <v>138.5985147938434</v>
       </c>
       <c r="L36" t="n">
-        <v>101.082733712748</v>
+        <v>302.4553296519177</v>
       </c>
       <c r="M36" t="n">
-        <v>101.082733712748</v>
+        <v>334.3341070841516</v>
       </c>
       <c r="N36" t="n">
-        <v>264.9395485708222</v>
+        <v>334.3341070841516</v>
       </c>
       <c r="O36" t="n">
-        <v>428.7963634288965</v>
+        <v>498.1909219422258</v>
       </c>
       <c r="P36" t="n">
-        <v>592.6531782869707</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="Q36" t="n">
         <v>662.0477368003001</v>
       </c>
       <c r="R36" t="n">
-        <v>652.5763153591988</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="S36" t="n">
-        <v>570.8570788158808</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="T36" t="n">
-        <v>460.3685921806599</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="U36" t="n">
-        <v>323.8430819230621</v>
+        <v>578.5671736915122</v>
       </c>
       <c r="V36" t="n">
-        <v>180.3890816973324</v>
+        <v>435.1131734657826</v>
       </c>
       <c r="W36" t="n">
-        <v>17.8498329751439</v>
+        <v>435.1131734657826</v>
       </c>
       <c r="X36" t="n">
-        <v>17.8498329751439</v>
+        <v>318.9597812662629</v>
       </c>
       <c r="Y36" t="n">
-        <v>17.8498329751439</v>
+        <v>318.9597812662629</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>13.240954736006</v>
+        <v>289.7436267544674</v>
       </c>
       <c r="C37" t="n">
-        <v>13.240954736006</v>
+        <v>289.7436267544674</v>
       </c>
       <c r="D37" t="n">
-        <v>13.240954736006</v>
+        <v>231.3250953481448</v>
       </c>
       <c r="E37" t="n">
-        <v>13.240954736006</v>
+        <v>231.3250953481448</v>
       </c>
       <c r="F37" t="n">
-        <v>13.240954736006</v>
+        <v>231.3250953481448</v>
       </c>
       <c r="G37" t="n">
-        <v>13.240954736006</v>
+        <v>153.3353454163208</v>
       </c>
       <c r="H37" t="n">
-        <v>13.240954736006</v>
+        <v>81.16762260673842</v>
       </c>
       <c r="I37" t="n">
-        <v>13.240954736006</v>
+        <v>15.84504886804619</v>
       </c>
       <c r="J37" t="n">
         <v>13.240954736006</v>
       </c>
       <c r="K37" t="n">
-        <v>81.0674734850754</v>
+        <v>81.06747348507544</v>
       </c>
       <c r="L37" t="n">
-        <v>198.0305350187241</v>
+        <v>198.2549141494819</v>
       </c>
       <c r="M37" t="n">
-        <v>327.0918888676397</v>
+        <v>327.3162679983975</v>
       </c>
       <c r="N37" t="n">
-        <v>460.6560551797694</v>
+        <v>460.8804343105272</v>
       </c>
       <c r="O37" t="n">
-        <v>574.8686474713621</v>
+        <v>575.0930266021199</v>
       </c>
       <c r="P37" t="n">
-        <v>662.0477368003001</v>
+        <v>657.474843962784</v>
       </c>
       <c r="Q37" t="n">
         <v>662.0477368003001</v>
       </c>
       <c r="R37" t="n">
-        <v>574.6616110920005</v>
+        <v>591.5086826242596</v>
       </c>
       <c r="S37" t="n">
-        <v>440.0803271414759</v>
+        <v>456.9273986737351</v>
       </c>
       <c r="T37" t="n">
-        <v>343.4111068551475</v>
+        <v>456.9273986737351</v>
       </c>
       <c r="U37" t="n">
-        <v>176.2273349358798</v>
+        <v>289.7436267544674</v>
       </c>
       <c r="V37" t="n">
-        <v>13.240954736006</v>
+        <v>289.7436267544674</v>
       </c>
       <c r="W37" t="n">
-        <v>13.240954736006</v>
+        <v>289.7436267544674</v>
       </c>
       <c r="X37" t="n">
-        <v>13.240954736006</v>
+        <v>289.7436267544674</v>
       </c>
       <c r="Y37" t="n">
-        <v>13.240954736006</v>
+        <v>289.7436267544674</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>100.1123422016225</v>
+        <v>180.4247266552737</v>
       </c>
       <c r="C38" t="n">
-        <v>100.1123422016225</v>
+        <v>180.4247266552737</v>
       </c>
       <c r="D38" t="n">
-        <v>100.1123422016225</v>
+        <v>180.4247266552737</v>
       </c>
       <c r="E38" t="n">
-        <v>100.1123422016225</v>
+        <v>180.4247266552737</v>
       </c>
       <c r="F38" t="n">
-        <v>13.240954736006</v>
+        <v>180.4247266552737</v>
       </c>
       <c r="G38" t="n">
         <v>13.240954736006</v>
@@ -7177,13 +7177,13 @@
         <v>13.240954736006</v>
       </c>
       <c r="K38" t="n">
-        <v>95.47910164945253</v>
+        <v>116.2559606469284</v>
       </c>
       <c r="L38" t="n">
-        <v>95.47910164945253</v>
+        <v>280.1127755050026</v>
       </c>
       <c r="M38" t="n">
-        <v>259.3359165075268</v>
+        <v>280.1127755050026</v>
       </c>
       <c r="N38" t="n">
         <v>423.192731365601</v>
@@ -7198,28 +7198,28 @@
         <v>662.0477368003001</v>
       </c>
       <c r="R38" t="n">
-        <v>601.6636579594257</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="S38" t="n">
-        <v>601.6636579594257</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="T38" t="n">
-        <v>601.6636579594257</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="U38" t="n">
-        <v>601.6636579594257</v>
+        <v>514.7922704938092</v>
       </c>
       <c r="V38" t="n">
-        <v>434.479886040158</v>
+        <v>514.7922704938092</v>
       </c>
       <c r="W38" t="n">
-        <v>267.2961141208903</v>
+        <v>514.7922704938092</v>
       </c>
       <c r="X38" t="n">
-        <v>267.2961141208903</v>
+        <v>514.7922704938092</v>
       </c>
       <c r="Y38" t="n">
-        <v>100.1123422016225</v>
+        <v>347.6084985745414</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>51.21686672510988</v>
+        <v>304.8313500103615</v>
       </c>
       <c r="C39" t="n">
-        <v>51.21686672510988</v>
+        <v>221.3771893036628</v>
       </c>
       <c r="D39" t="n">
-        <v>35.61122175399839</v>
+        <v>163.4416482168398</v>
       </c>
       <c r="E39" t="n">
-        <v>35.61122175399839</v>
+        <v>138.8788679956412</v>
       </c>
       <c r="F39" t="n">
-        <v>35.61122175399839</v>
+        <v>83.34317859695452</v>
       </c>
       <c r="G39" t="n">
-        <v>35.61122175399839</v>
+        <v>35.61122175399836</v>
       </c>
       <c r="H39" t="n">
         <v>13.240954736006</v>
@@ -7262,16 +7262,16 @@
         <v>177.0977695940803</v>
       </c>
       <c r="M39" t="n">
-        <v>177.0977695940803</v>
+        <v>340.9545844521546</v>
       </c>
       <c r="N39" t="n">
-        <v>264.9395485708222</v>
+        <v>504.8113993102288</v>
       </c>
       <c r="O39" t="n">
-        <v>428.7963634288965</v>
+        <v>504.8113993102288</v>
       </c>
       <c r="P39" t="n">
-        <v>592.6531782869707</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="Q39" t="n">
         <v>662.0477368003001</v>
@@ -7280,25 +7280,25 @@
         <v>662.0477368003001</v>
       </c>
       <c r="S39" t="n">
-        <v>579.6292608253972</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="T39" t="n">
-        <v>468.4415347585915</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="U39" t="n">
-        <v>331.2167850694088</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="V39" t="n">
-        <v>331.2167850694088</v>
+        <v>662.0477368003001</v>
       </c>
       <c r="W39" t="n">
-        <v>167.9782969156355</v>
+        <v>498.8092486465267</v>
       </c>
       <c r="X39" t="n">
-        <v>167.9782969156355</v>
+        <v>498.8092486465267</v>
       </c>
       <c r="Y39" t="n">
-        <v>51.21686672510988</v>
+        <v>382.0478184560012</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>13.240954736006</v>
+        <v>16.54428829963099</v>
       </c>
       <c r="C40" t="n">
-        <v>13.240954736006</v>
+        <v>16.54428829963099</v>
       </c>
       <c r="D40" t="n">
-        <v>13.240954736006</v>
+        <v>16.54428829963099</v>
       </c>
       <c r="E40" t="n">
-        <v>13.240954736006</v>
+        <v>16.54428829963099</v>
       </c>
       <c r="F40" t="n">
-        <v>13.240954736006</v>
+        <v>16.54428829963099</v>
       </c>
       <c r="G40" t="n">
-        <v>13.240954736006</v>
+        <v>16.54428829963099</v>
       </c>
       <c r="H40" t="n">
-        <v>13.240954736006</v>
+        <v>16.54428829963099</v>
       </c>
       <c r="I40" t="n">
-        <v>13.240954736006</v>
+        <v>16.54428829963099</v>
       </c>
       <c r="J40" t="n">
         <v>13.240954736006</v>
       </c>
       <c r="K40" t="n">
-        <v>80.38214891817927</v>
+        <v>80.38214891817915</v>
       </c>
       <c r="L40" t="n">
-        <v>196.8842650156895</v>
+        <v>196.8842650156893</v>
       </c>
       <c r="M40" t="n">
-        <v>325.2602942977088</v>
+        <v>325.2602942977086</v>
       </c>
       <c r="N40" t="n">
-        <v>458.1391360429423</v>
+        <v>458.139136042942</v>
       </c>
       <c r="O40" t="n">
-        <v>571.6664037676387</v>
+        <v>571.6664037676385</v>
       </c>
       <c r="P40" t="n">
-        <v>658.1601685296804</v>
+        <v>658.1601685296803</v>
       </c>
       <c r="Q40" t="n">
         <v>662.0477368003001</v>
       </c>
       <c r="R40" t="n">
-        <v>573.9623716604158</v>
+        <v>651.588134093214</v>
       </c>
       <c r="S40" t="n">
-        <v>438.6818482783065</v>
+        <v>651.588134093214</v>
       </c>
       <c r="T40" t="n">
-        <v>299.4326467231575</v>
+        <v>651.588134093214</v>
       </c>
       <c r="U40" t="n">
-        <v>180.4247266552737</v>
+        <v>484.4043621739463</v>
       </c>
       <c r="V40" t="n">
-        <v>180.4247266552737</v>
+        <v>320.7187425424877</v>
       </c>
       <c r="W40" t="n">
-        <v>13.240954736006</v>
+        <v>153.53497062322</v>
       </c>
       <c r="X40" t="n">
-        <v>13.240954736006</v>
+        <v>16.54428829963099</v>
       </c>
       <c r="Y40" t="n">
-        <v>13.240954736006</v>
+        <v>16.54428829963099</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>258.9082991656212</v>
+        <v>274.6541508291633</v>
       </c>
       <c r="C41" t="n">
-        <v>258.9082991656212</v>
+        <v>274.6541508291633</v>
       </c>
       <c r="D41" t="n">
-        <v>258.9082991656212</v>
+        <v>142.5580798262952</v>
       </c>
       <c r="E41" t="n">
-        <v>258.9082991656212</v>
+        <v>142.5580798262952</v>
       </c>
       <c r="F41" t="n">
-        <v>258.9082991656212</v>
+        <v>142.5580798262952</v>
       </c>
       <c r="G41" t="n">
-        <v>126.8122281627532</v>
+        <v>10.46200882342715</v>
       </c>
       <c r="H41" t="n">
-        <v>126.8122281627532</v>
+        <v>10.46200882342715</v>
       </c>
       <c r="I41" t="n">
-        <v>10.46200882342714</v>
+        <v>10.46200882342715</v>
       </c>
       <c r="J41" t="n">
-        <v>10.46200882342714</v>
+        <v>10.46200882342715</v>
       </c>
       <c r="K41" t="n">
         <v>113.4770147343495</v>
       </c>
       <c r="L41" t="n">
-        <v>134.6983636016245</v>
+        <v>174.5056674994845</v>
       </c>
       <c r="M41" t="n">
-        <v>264.1657227915354</v>
+        <v>303.9730266893955</v>
       </c>
       <c r="N41" t="n">
-        <v>393.6330819814463</v>
+        <v>303.9730266893955</v>
       </c>
       <c r="O41" t="n">
-        <v>523.1004411713571</v>
+        <v>433.4403858793065</v>
       </c>
       <c r="P41" t="n">
-        <v>523.1004411713571</v>
+        <v>523.1004411713575</v>
       </c>
       <c r="Q41" t="n">
-        <v>523.1004411713571</v>
+        <v>523.1004411713575</v>
       </c>
       <c r="R41" t="n">
-        <v>523.1004411713571</v>
+        <v>440.2219261427226</v>
       </c>
       <c r="S41" t="n">
-        <v>523.1004411713571</v>
+        <v>440.2219261427226</v>
       </c>
       <c r="T41" t="n">
-        <v>523.1004411713571</v>
+        <v>440.2219261427226</v>
       </c>
       <c r="U41" t="n">
-        <v>523.1004411713571</v>
+        <v>440.2219261427226</v>
       </c>
       <c r="V41" t="n">
-        <v>523.1004411713571</v>
+        <v>440.2219261427226</v>
       </c>
       <c r="W41" t="n">
-        <v>523.1004411713571</v>
+        <v>440.2219261427226</v>
       </c>
       <c r="X41" t="n">
-        <v>391.0043701684892</v>
+        <v>406.7502218320313</v>
       </c>
       <c r="Y41" t="n">
-        <v>258.9082991656212</v>
+        <v>406.7502218320313</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>10.46200882342714</v>
+        <v>201.0203537848376</v>
       </c>
       <c r="C42" t="n">
-        <v>10.46200882342714</v>
+        <v>201.0203537848376</v>
       </c>
       <c r="D42" t="n">
-        <v>10.46200882342714</v>
+        <v>201.0203537848376</v>
       </c>
       <c r="E42" t="n">
-        <v>10.46200882342714</v>
+        <v>110.28733116605</v>
       </c>
       <c r="F42" t="n">
-        <v>10.46200882342714</v>
+        <v>32.2572055796028</v>
       </c>
       <c r="G42" t="n">
-        <v>10.46200882342714</v>
+        <v>32.2572055796028</v>
       </c>
       <c r="H42" t="n">
-        <v>10.46200882342714</v>
+        <v>32.2572055796028</v>
       </c>
       <c r="I42" t="n">
-        <v>10.46200882342714</v>
+        <v>10.46200882342715</v>
       </c>
       <c r="J42" t="n">
-        <v>10.46200882342714</v>
+        <v>10.46200882342715</v>
       </c>
       <c r="K42" t="n">
         <v>135.8195688812646</v>
       </c>
       <c r="L42" t="n">
-        <v>194.7711642782061</v>
+        <v>135.8195688812646</v>
       </c>
       <c r="M42" t="n">
-        <v>324.238523468117</v>
+        <v>194.7711642782063</v>
       </c>
       <c r="N42" t="n">
-        <v>324.238523468117</v>
+        <v>324.2385234681173</v>
       </c>
       <c r="O42" t="n">
-        <v>324.238523468117</v>
+        <v>324.2385234681173</v>
       </c>
       <c r="P42" t="n">
-        <v>453.7058826580279</v>
+        <v>453.7058826580282</v>
       </c>
       <c r="Q42" t="n">
-        <v>523.1004411713571</v>
+        <v>523.1004411713575</v>
       </c>
       <c r="R42" t="n">
-        <v>523.1004411713571</v>
+        <v>523.1004411713575</v>
       </c>
       <c r="S42" t="n">
-        <v>418.1875290086938</v>
+        <v>418.1875290086942</v>
       </c>
       <c r="T42" t="n">
-        <v>418.1875290086938</v>
+        <v>418.1875290086942</v>
       </c>
       <c r="U42" t="n">
-        <v>286.0914580058259</v>
+        <v>418.1875290086942</v>
       </c>
       <c r="V42" t="n">
-        <v>153.9953870029579</v>
+        <v>418.1875290086942</v>
       </c>
       <c r="W42" t="n">
-        <v>21.89931600008993</v>
+        <v>418.1875290086942</v>
       </c>
       <c r="X42" t="n">
-        <v>21.89931600008993</v>
+        <v>418.1875290086942</v>
       </c>
       <c r="Y42" t="n">
-        <v>21.89931600008993</v>
+        <v>286.0914580058262</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>10.46200882342714</v>
+        <v>36.2597785748126</v>
       </c>
       <c r="C43" t="n">
-        <v>10.46200882342714</v>
+        <v>36.2597785748126</v>
       </c>
       <c r="D43" t="n">
-        <v>10.46200882342714</v>
+        <v>36.2597785748126</v>
       </c>
       <c r="E43" t="n">
-        <v>10.46200882342714</v>
+        <v>36.2597785748126</v>
       </c>
       <c r="F43" t="n">
-        <v>10.46200882342714</v>
+        <v>36.2597785748126</v>
       </c>
       <c r="G43" t="n">
-        <v>10.46200882342714</v>
+        <v>36.2597785748126</v>
       </c>
       <c r="H43" t="n">
-        <v>10.46200882342714</v>
+        <v>36.2597785748126</v>
       </c>
       <c r="I43" t="n">
-        <v>10.46200882342714</v>
+        <v>36.2597785748126</v>
       </c>
       <c r="J43" t="n">
-        <v>10.46200882342714</v>
+        <v>10.46200882342715</v>
       </c>
       <c r="K43" t="n">
-        <v>55.55640609797625</v>
+        <v>55.55640609797632</v>
       </c>
       <c r="L43" t="n">
-        <v>150.0117252878624</v>
+        <v>150.0117252878625</v>
       </c>
       <c r="M43" t="n">
-        <v>256.3409576622577</v>
+        <v>256.3409576622579</v>
       </c>
       <c r="N43" t="n">
-        <v>367.1730024998672</v>
+        <v>367.1730024998673</v>
       </c>
       <c r="O43" t="n">
-        <v>458.6534733169394</v>
+        <v>458.6534733169398</v>
       </c>
       <c r="P43" t="n">
-        <v>523.1004411713571</v>
+        <v>523.1004411713575</v>
       </c>
       <c r="Q43" t="n">
-        <v>504.5725066371215</v>
+        <v>523.1004411713575</v>
       </c>
       <c r="R43" t="n">
-        <v>393.9927053094767</v>
+        <v>523.1004411713575</v>
       </c>
       <c r="S43" t="n">
-        <v>274.6541508291631</v>
+        <v>391.0043701684895</v>
       </c>
       <c r="T43" t="n">
-        <v>142.5580798262951</v>
+        <v>391.0043701684895</v>
       </c>
       <c r="U43" t="n">
-        <v>142.5580798262951</v>
+        <v>391.0043701684895</v>
       </c>
       <c r="V43" t="n">
-        <v>10.46200882342714</v>
+        <v>391.0043701684895</v>
       </c>
       <c r="W43" t="n">
-        <v>10.46200882342714</v>
+        <v>258.9082991656214</v>
       </c>
       <c r="X43" t="n">
-        <v>10.46200882342714</v>
+        <v>168.3558495776807</v>
       </c>
       <c r="Y43" t="n">
-        <v>10.46200882342714</v>
+        <v>36.2597785748126</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>142.5580798262951</v>
+        <v>258.9082991656214</v>
       </c>
       <c r="C44" t="n">
-        <v>142.5580798262951</v>
+        <v>258.9082991656214</v>
       </c>
       <c r="D44" t="n">
-        <v>142.5580798262951</v>
+        <v>258.9082991656214</v>
       </c>
       <c r="E44" t="n">
-        <v>142.5580798262951</v>
+        <v>142.5580798262952</v>
       </c>
       <c r="F44" t="n">
-        <v>142.5580798262951</v>
+        <v>10.46200882342715</v>
       </c>
       <c r="G44" t="n">
         <v>10.46200882342715</v>
@@ -7651,7 +7651,7 @@
         <v>10.46200882342715</v>
       </c>
       <c r="K44" t="n">
-        <v>113.4770147343495</v>
+        <v>45.03830830957355</v>
       </c>
       <c r="L44" t="n">
         <v>174.5056674994845</v>
@@ -7660,40 +7660,40 @@
         <v>174.5056674994845</v>
       </c>
       <c r="N44" t="n">
-        <v>303.9730266893954</v>
+        <v>303.9730266893955</v>
       </c>
       <c r="O44" t="n">
-        <v>433.4403858793063</v>
+        <v>433.4403858793065</v>
       </c>
       <c r="P44" t="n">
-        <v>523.1004411713573</v>
+        <v>523.1004411713575</v>
       </c>
       <c r="Q44" t="n">
-        <v>523.1004411713573</v>
+        <v>523.1004411713575</v>
       </c>
       <c r="R44" t="n">
-        <v>523.1004411713573</v>
+        <v>523.1004411713575</v>
       </c>
       <c r="S44" t="n">
-        <v>523.1004411713573</v>
+        <v>523.1004411713575</v>
       </c>
       <c r="T44" t="n">
-        <v>523.1004411713573</v>
+        <v>523.1004411713575</v>
       </c>
       <c r="U44" t="n">
-        <v>406.7502218320311</v>
+        <v>523.1004411713575</v>
       </c>
       <c r="V44" t="n">
-        <v>406.7502218320311</v>
+        <v>391.0043701684895</v>
       </c>
       <c r="W44" t="n">
-        <v>406.7502218320311</v>
+        <v>258.9082991656214</v>
       </c>
       <c r="X44" t="n">
-        <v>406.7502218320311</v>
+        <v>258.9082991656214</v>
       </c>
       <c r="Y44" t="n">
-        <v>274.6541508291631</v>
+        <v>258.9082991656214</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>90.89198609801059</v>
+        <v>77.12190878535559</v>
       </c>
       <c r="C45" t="n">
-        <v>90.89198609801059</v>
+        <v>77.12190878535559</v>
       </c>
       <c r="D45" t="n">
-        <v>10.46200882342715</v>
+        <v>77.12190878535559</v>
       </c>
       <c r="E45" t="n">
-        <v>10.46200882342715</v>
+        <v>77.12190878535559</v>
       </c>
       <c r="F45" t="n">
-        <v>10.46200882342715</v>
+        <v>77.12190878535559</v>
       </c>
       <c r="G45" t="n">
-        <v>10.46200882342715</v>
+        <v>77.12190878535559</v>
       </c>
       <c r="H45" t="n">
-        <v>10.46200882342715</v>
+        <v>32.25720557960279</v>
       </c>
       <c r="I45" t="n">
         <v>10.46200882342715</v>
@@ -7730,49 +7730,49 @@
         <v>10.46200882342715</v>
       </c>
       <c r="K45" t="n">
-        <v>65.30380508829518</v>
+        <v>135.8195688812646</v>
       </c>
       <c r="L45" t="n">
-        <v>194.7711642782061</v>
+        <v>194.7711642782063</v>
       </c>
       <c r="M45" t="n">
-        <v>194.7711642782061</v>
+        <v>194.7711642782063</v>
       </c>
       <c r="N45" t="n">
-        <v>324.238523468117</v>
+        <v>194.7711642782063</v>
       </c>
       <c r="O45" t="n">
-        <v>453.705882658028</v>
+        <v>324.2385234681173</v>
       </c>
       <c r="P45" t="n">
-        <v>453.705882658028</v>
+        <v>453.7058826580282</v>
       </c>
       <c r="Q45" t="n">
-        <v>523.1004411713573</v>
+        <v>523.1004411713575</v>
       </c>
       <c r="R45" t="n">
-        <v>523.1004411713573</v>
+        <v>523.1004411713575</v>
       </c>
       <c r="S45" t="n">
-        <v>523.1004411713573</v>
+        <v>523.1004411713575</v>
       </c>
       <c r="T45" t="n">
-        <v>523.1004411713573</v>
+        <v>523.1004411713575</v>
       </c>
       <c r="U45" t="n">
-        <v>454.7950327371468</v>
+        <v>391.0043701684895</v>
       </c>
       <c r="V45" t="n">
-        <v>322.6989617342788</v>
+        <v>258.9082991656214</v>
       </c>
       <c r="W45" t="n">
-        <v>190.6028907314108</v>
+        <v>126.8122281627534</v>
       </c>
       <c r="X45" t="n">
-        <v>190.6028907314108</v>
+        <v>77.12190878535559</v>
       </c>
       <c r="Y45" t="n">
-        <v>190.6028907314108</v>
+        <v>77.12190878535559</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>232.8046025549096</v>
+        <v>321.320851912947</v>
       </c>
       <c r="C46" t="n">
-        <v>232.8046025549096</v>
+        <v>321.320851912947</v>
       </c>
       <c r="D46" t="n">
-        <v>232.8046025549096</v>
+        <v>321.320851912947</v>
       </c>
       <c r="E46" t="n">
-        <v>232.8046025549096</v>
+        <v>321.320851912947</v>
       </c>
       <c r="F46" t="n">
-        <v>232.8046025549096</v>
+        <v>321.320851912947</v>
       </c>
       <c r="G46" t="n">
-        <v>131.6211770037403</v>
+        <v>220.1374263617777</v>
       </c>
       <c r="H46" t="n">
-        <v>36.25977857481264</v>
+        <v>124.7760279328501</v>
       </c>
       <c r="I46" t="n">
-        <v>36.25977857481264</v>
+        <v>36.25977857481259</v>
       </c>
       <c r="J46" t="n">
         <v>10.46200882342715</v>
@@ -7818,40 +7818,40 @@
         <v>256.3409576622578</v>
       </c>
       <c r="N46" t="n">
-        <v>367.1730024998672</v>
+        <v>367.1730024998673</v>
       </c>
       <c r="O46" t="n">
-        <v>458.6534733169396</v>
+        <v>458.6534733169398</v>
       </c>
       <c r="P46" t="n">
-        <v>523.1004411713573</v>
+        <v>523.1004411713575</v>
       </c>
       <c r="Q46" t="n">
-        <v>523.1004411713573</v>
+        <v>504.5725066371219</v>
       </c>
       <c r="R46" t="n">
-        <v>496.9967445606457</v>
+        <v>393.9927053094772</v>
       </c>
       <c r="S46" t="n">
-        <v>496.9967445606457</v>
+        <v>321.320851912947</v>
       </c>
       <c r="T46" t="n">
-        <v>496.9967445606457</v>
+        <v>321.320851912947</v>
       </c>
       <c r="U46" t="n">
-        <v>364.9006735577776</v>
+        <v>321.320851912947</v>
       </c>
       <c r="V46" t="n">
-        <v>364.9006735577776</v>
+        <v>321.320851912947</v>
       </c>
       <c r="W46" t="n">
-        <v>232.8046025549096</v>
+        <v>321.320851912947</v>
       </c>
       <c r="X46" t="n">
-        <v>232.8046025549096</v>
+        <v>321.320851912947</v>
       </c>
       <c r="Y46" t="n">
-        <v>232.8046025549096</v>
+        <v>321.320851912947</v>
       </c>
     </row>
   </sheetData>
@@ -9166,22 +9166,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>254.8266749522163</v>
+        <v>253.4231669155602</v>
       </c>
       <c r="L17" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M17" t="n">
-        <v>265.0830571345084</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N17" t="n">
-        <v>262.7463794671706</v>
+        <v>264.1498875038266</v>
       </c>
       <c r="O17" t="n">
         <v>264.8350353289224</v>
       </c>
       <c r="P17" t="n">
-        <v>231.2329957552695</v>
+        <v>265.9698196625052</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9248,10 +9248,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>173.2912036871099</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>176.870857829254</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>164.675027953913</v>
@@ -9260,10 +9260,10 @@
         <v>177.3330683516801</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>168.7112313215659</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>174.7185979932572</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9330,7 +9330,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M19" t="n">
-        <v>173.6626078548408</v>
+        <v>173.6626078548407</v>
       </c>
       <c r="N19" t="n">
         <v>162.4223683724689</v>
@@ -9406,16 +9406,16 @@
         <v>254.8266749522162</v>
       </c>
       <c r="L20" t="n">
-        <v>235.7664149699872</v>
+        <v>270.5032388772229</v>
       </c>
       <c r="M20" t="n">
-        <v>265.0830571345084</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N20" t="n">
-        <v>264.1498875038266</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O20" t="n">
-        <v>230.0982114216867</v>
+        <v>264.8350353289224</v>
       </c>
       <c r="P20" t="n">
         <v>264.5663116258492</v>
@@ -9482,22 +9482,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>171.1747548449387</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>173.2912036871099</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>164.675027953913</v>
       </c>
       <c r="O21" t="n">
         <v>177.3330683516801</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>168.7112313215659</v>
       </c>
       <c r="Q21" t="n">
         <v>174.7185979932572</v>
@@ -9640,10 +9640,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L23" t="n">
-        <v>235.7664149699872</v>
+        <v>401.2783491700623</v>
       </c>
       <c r="M23" t="n">
         <v>395.8581674273478</v>
@@ -9652,10 +9652,10 @@
         <v>394.9249977966659</v>
       </c>
       <c r="O23" t="n">
-        <v>359.8134550026688</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>239.3556092375152</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9719,19 +9719,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>226.5705086478357</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>266.1715856152064</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>307.6459681220933</v>
       </c>
       <c r="N24" t="n">
-        <v>296.8536462834084</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>308.1081786445195</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>299.4863416144053</v>
@@ -9877,22 +9877,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>401.2783491700623</v>
       </c>
       <c r="M26" t="n">
-        <v>313.4150684933803</v>
+        <v>395.8581674273478</v>
       </c>
       <c r="N26" t="n">
         <v>394.9249977966659</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>284.8672332188069</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9956,22 +9956,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>304.0663139799492</v>
+        <v>266.1715856152064</v>
       </c>
       <c r="M27" t="n">
-        <v>230.863103595495</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>296.8536462834083</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>308.1081786445195</v>
       </c>
       <c r="P27" t="n">
-        <v>299.4863416144052</v>
+        <v>299.4863416144053</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10114,22 +10114,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>220.0898510449805</v>
+        <v>228.2124645272262</v>
       </c>
       <c r="L29" t="n">
         <v>401.2783491700623</v>
       </c>
       <c r="M29" t="n">
-        <v>395.8581674273477</v>
+        <v>395.8581674273478</v>
       </c>
       <c r="N29" t="n">
-        <v>312.4818988626985</v>
+        <v>394.9249977966659</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10193,25 +10193,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>304.0663139799492</v>
       </c>
       <c r="M30" t="n">
-        <v>307.6459681220933</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>296.8536462834083</v>
+        <v>163.5424973684181</v>
       </c>
       <c r="O30" t="n">
-        <v>231.3253141179211</v>
+        <v>308.1081786445195</v>
       </c>
       <c r="P30" t="n">
-        <v>299.4863416144052</v>
+        <v>299.4863416144053</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10351,19 +10351,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>220.0898510449805</v>
+        <v>288.3487219520717</v>
       </c>
       <c r="L32" t="n">
         <v>401.2783491700623</v>
       </c>
       <c r="M32" t="n">
-        <v>313.4150684933803</v>
+        <v>395.8581674273478</v>
       </c>
       <c r="N32" t="n">
         <v>394.9249977966659</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10430,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>226.5705086478357</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>304.0663139799492</v>
       </c>
       <c r="M33" t="n">
         <v>307.6459681220933</v>
       </c>
       <c r="N33" t="n">
-        <v>296.8536462834083</v>
+        <v>296.8536462834084</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>301.4208277677487</v>
       </c>
       <c r="P33" t="n">
-        <v>299.4863416144052</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10588,16 +10588,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>303.1586863110882</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>401.2783491700623</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M35" t="n">
-        <v>395.8581674273478</v>
+        <v>374.8714411672711</v>
       </c>
       <c r="N35" t="n">
-        <v>229.4130635965909</v>
+        <v>394.9249977966659</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10667,16 +10667,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>227.2834494533509</v>
+        <v>304.0663139799492</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>174.3348192071031</v>
       </c>
       <c r="N36" t="n">
-        <v>296.8536462834084</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>308.1081786445195</v>
@@ -10685,7 +10685,7 @@
         <v>299.4863416144053</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10825,16 +10825,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>303.1586863110882</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>235.7664149699872</v>
+        <v>401.2783491700623</v>
       </c>
       <c r="M38" t="n">
-        <v>395.8581674273478</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N38" t="n">
-        <v>394.9249977966659</v>
+        <v>373.9382715365894</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10910,19 +10910,19 @@
         <v>304.0663139799492</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>307.6459681220933</v>
       </c>
       <c r="N39" t="n">
-        <v>220.07078175681</v>
+        <v>296.8536462834084</v>
       </c>
       <c r="O39" t="n">
-        <v>308.1081786445195</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>299.4863416144053</v>
+        <v>292.7989907376345</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11065,19 +11065,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>257.2021208965276</v>
+        <v>297.4115187731539</v>
       </c>
       <c r="M41" t="n">
-        <v>361.121343520112</v>
+        <v>361.1213435201121</v>
       </c>
       <c r="N41" t="n">
-        <v>360.1881738894302</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O41" t="n">
-        <v>360.873321714526</v>
+        <v>360.8733217145261</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11144,19 +11144,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>198.1014458373909</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>272.9091442148576</v>
+        <v>201.6810999795352</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>262.1168223761726</v>
       </c>
       <c r="O42" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>264.7495177071695</v>
+        <v>264.7495177071696</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11299,19 +11299,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>255.0154060814921</v>
       </c>
       <c r="L44" t="n">
-        <v>297.4115187731539</v>
+        <v>366.5415252628266</v>
       </c>
       <c r="M44" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N44" t="n">
-        <v>360.1881738894302</v>
+        <v>360.1881738894303</v>
       </c>
       <c r="O44" t="n">
-        <v>360.873321714526</v>
+        <v>360.8733217145261</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11378,22 +11378,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>193.237192777256</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>269.3294900727135</v>
+        <v>198.1014458373911</v>
       </c>
       <c r="M45" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>262.1168223761726</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>273.3713547372838</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>264.7495177071696</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>258.6003849048298</v>
+        <v>293.3372088120655</v>
       </c>
       <c r="C17" t="n">
-        <v>241.1394350123568</v>
+        <v>275.8762589195925</v>
       </c>
       <c r="D17" t="n">
         <v>265.2864087692679</v>
@@ -23746,7 +23746,7 @@
         <v>317.4794128902964</v>
       </c>
       <c r="G17" t="n">
-        <v>325.90610466372</v>
+        <v>295.3099101662268</v>
       </c>
       <c r="H17" t="n">
         <v>250.0781692643521</v>
@@ -23779,19 +23779,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>60.4724850897346</v>
+        <v>25.73566118249893</v>
       </c>
       <c r="S17" t="n">
-        <v>84.88661282759458</v>
+        <v>84.88661282759459</v>
       </c>
       <c r="T17" t="n">
-        <v>133.6992167127163</v>
+        <v>98.96239280548062</v>
       </c>
       <c r="U17" t="n">
         <v>161.9490200564214</v>
       </c>
       <c r="V17" t="n">
-        <v>207.7594311212267</v>
+        <v>238.3556256187198</v>
       </c>
       <c r="W17" t="n">
         <v>259.8443358659979</v>
@@ -23813,22 +23813,22 @@
         <v>77.13655079845226</v>
       </c>
       <c r="C18" t="n">
-        <v>83.31186613690066</v>
+        <v>48.57504222966499</v>
       </c>
       <c r="D18" t="n">
-        <v>23.31160880598799</v>
+        <v>58.04843271322368</v>
       </c>
       <c r="E18" t="n">
-        <v>68.24844760398587</v>
+        <v>33.51162369675019</v>
       </c>
       <c r="F18" t="n">
-        <v>55.6725795419688</v>
+        <v>35.83758634570371</v>
       </c>
       <c r="G18" t="n">
-        <v>13.21006040455987</v>
+        <v>47.94688431179556</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23858,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>10.76120130122806</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>82.28653825242274</v>
+        <v>47.54971434518707</v>
       </c>
       <c r="T18" t="n">
         <v>110.7680958434065</v>
@@ -23870,7 +23870,7 @@
         <v>136.5447492295597</v>
       </c>
       <c r="V18" t="n">
-        <v>108.6671303907745</v>
+        <v>143.4039542980102</v>
       </c>
       <c r="W18" t="n">
         <v>162.2983503095045</v>
@@ -23879,7 +23879,7 @@
         <v>116.3763523520624</v>
       </c>
       <c r="Y18" t="n">
-        <v>108.5286798134775</v>
+        <v>116.2860629258893</v>
       </c>
     </row>
     <row r="19">
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>53.15993461851872</v>
+        <v>87.89675852575441</v>
       </c>
       <c r="S19" t="n">
-        <v>99.8831412783215</v>
+        <v>134.6199651855572</v>
       </c>
       <c r="T19" t="n">
-        <v>103.8121326696307</v>
+        <v>103.8121326696308</v>
       </c>
       <c r="U19" t="n">
-        <v>166.3262020075826</v>
+        <v>162.1855725978401</v>
       </c>
       <c r="V19" t="n">
-        <v>162.7410104724129</v>
+        <v>128.0041865651773</v>
       </c>
       <c r="W19" t="n">
         <v>197.1263654851759</v>
       </c>
       <c r="X19" t="n">
-        <v>136.3130225376221</v>
+        <v>105.7168280401289</v>
       </c>
       <c r="Y19" t="n">
         <v>129.1880205006797</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>293.3372088120655</v>
+        <v>258.6003849048299</v>
       </c>
       <c r="C20" t="n">
         <v>275.8762589195925</v>
@@ -24025,13 +24025,13 @@
         <v>133.6992167127163</v>
       </c>
       <c r="U20" t="n">
-        <v>127.2121961491858</v>
+        <v>161.9490200564214</v>
       </c>
       <c r="V20" t="n">
-        <v>238.3556256187198</v>
+        <v>207.7594311212267</v>
       </c>
       <c r="W20" t="n">
-        <v>229.2481413685048</v>
+        <v>259.8443358659979</v>
       </c>
       <c r="X20" t="n">
         <v>280.334467827054</v>
@@ -24095,25 +24095,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>10.76120130122806</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>47.54971434518707</v>
       </c>
       <c r="T21" t="n">
-        <v>110.7680958434065</v>
+        <v>76.03127193617085</v>
       </c>
       <c r="U21" t="n">
-        <v>101.8079253223241</v>
+        <v>136.5447492295597</v>
       </c>
       <c r="V21" t="n">
-        <v>112.8077598005171</v>
+        <v>143.4039542980102</v>
       </c>
       <c r="W21" t="n">
         <v>127.5615264022689</v>
       </c>
       <c r="X21" t="n">
-        <v>116.3763523520624</v>
+        <v>96.54135915579731</v>
       </c>
       <c r="Y21" t="n">
         <v>116.2860629258893</v>
@@ -24147,7 +24147,7 @@
         <v>72.8305396560245</v>
       </c>
       <c r="I22" t="n">
-        <v>66.05384207584321</v>
+        <v>31.31701816860753</v>
       </c>
       <c r="J22" t="n">
         <v>3.962547265257697</v>
@@ -24177,13 +24177,13 @@
         <v>53.15993461851873</v>
       </c>
       <c r="S22" t="n">
-        <v>99.88314127832152</v>
+        <v>134.6199651855572</v>
       </c>
       <c r="T22" t="n">
-        <v>138.5489565768664</v>
+        <v>103.8121326696308</v>
       </c>
       <c r="U22" t="n">
-        <v>162.1855725978401</v>
+        <v>196.9223965050758</v>
       </c>
       <c r="V22" t="n">
         <v>162.7410104724129</v>
@@ -24192,10 +24192,10 @@
         <v>197.1263654851759</v>
       </c>
       <c r="X22" t="n">
-        <v>105.7168280401289</v>
+        <v>136.3130225376221</v>
       </c>
       <c r="Y22" t="n">
-        <v>129.1880205006797</v>
+        <v>98.59182600318658</v>
       </c>
     </row>
     <row r="23">
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>155.8063825003999</v>
+        <v>292.6449617747966</v>
       </c>
       <c r="C23" t="n">
         <v>275.1840118823235</v>
       </c>
       <c r="D23" t="n">
-        <v>264.594161731999</v>
+        <v>100.9615990980577</v>
       </c>
       <c r="E23" t="n">
         <v>291.8414901835778</v>
@@ -24223,10 +24223,10 @@
         <v>325.213857626451</v>
       </c>
       <c r="H23" t="n">
-        <v>249.3859222270831</v>
+        <v>83.8739880270081</v>
       </c>
       <c r="I23" t="n">
-        <v>120.3870096817219</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>118.9311896975613</v>
       </c>
       <c r="T23" t="n">
-        <v>133.0069696754474</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>161.2567730191525</v>
       </c>
       <c r="V23" t="n">
-        <v>72.15144438137588</v>
+        <v>237.6633785814509</v>
       </c>
       <c r="W23" t="n">
         <v>259.152088828729</v>
@@ -24274,7 +24274,7 @@
         <v>279.642220789785</v>
       </c>
       <c r="Y23" t="n">
-        <v>296.1490587673696</v>
+        <v>296.1490587673695</v>
       </c>
     </row>
     <row r="24">
@@ -24287,22 +24287,22 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>82.61961909963173</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>27.99832436852449</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>54.98033250469987</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>47.25463727452663</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>22.14656434781246</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24332,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>10.06895426395913</v>
+        <v>10.0689542639591</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>81.59429121515379</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>110.0758488061376</v>
       </c>
       <c r="U24" t="n">
         <v>135.8525021922908</v>
       </c>
       <c r="V24" t="n">
-        <v>142.7117072607413</v>
+        <v>142.7117072607412</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>115.6841053147934</v>
       </c>
       <c r="Y24" t="n">
-        <v>115.5938158886204</v>
+        <v>43.23904814773036</v>
       </c>
     </row>
     <row r="25">
@@ -24363,31 +24363,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>89.74310029325329</v>
+        <v>89.74310029325326</v>
       </c>
       <c r="C25" t="n">
-        <v>77.15794120994383</v>
+        <v>77.1579412099438</v>
       </c>
       <c r="D25" t="n">
-        <v>58.52659312952835</v>
+        <v>58.52659312952832</v>
       </c>
       <c r="E25" t="n">
-        <v>56.34508275788517</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>55.33216813424724</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>77.90209946977475</v>
+        <v>77.90209946977473</v>
       </c>
       <c r="H25" t="n">
-        <v>72.13829261875557</v>
+        <v>72.13829261875554</v>
       </c>
       <c r="I25" t="n">
-        <v>65.36159503857428</v>
+        <v>65.36159503857425</v>
       </c>
       <c r="J25" t="n">
-        <v>3.27030022798877</v>
+        <v>3.270300227988741</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>87.20451148848545</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>137.8567095395975</v>
       </c>
       <c r="U25" t="n">
-        <v>196.2301494678069</v>
+        <v>30.71821526773184</v>
       </c>
       <c r="V25" t="n">
-        <v>162.048763435144</v>
+        <v>66.46772793234157</v>
       </c>
       <c r="W25" t="n">
-        <v>48.7251188809802</v>
+        <v>196.434118447907</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>249.3859222270831</v>
       </c>
       <c r="I26" t="n">
-        <v>120.3870096817219</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>59.78023805246568</v>
+        <v>59.78023805246565</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>89.28012655493463</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>133.0069696754473</v>
       </c>
       <c r="U26" t="n">
-        <v>161.2567730191525</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>178.3066921109586</v>
+        <v>72.15144438137585</v>
       </c>
       <c r="W26" t="n">
-        <v>93.64015462865402</v>
+        <v>259.152088828729</v>
       </c>
       <c r="X26" t="n">
-        <v>279.642220789785</v>
+        <v>114.13028658971</v>
       </c>
       <c r="Y26" t="n">
-        <v>130.6371245672946</v>
+        <v>296.1490587673695</v>
       </c>
     </row>
     <row r="27">
@@ -24521,25 +24521,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>76.44430376118331</v>
       </c>
       <c r="C27" t="n">
-        <v>82.61961909963173</v>
+        <v>35.82963283337789</v>
       </c>
       <c r="D27" t="n">
-        <v>57.35618567595475</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>6.397456916509057</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>54.98033250469987</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>47.25463727452663</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>22.14656434781246</v>
+        <v>22.14656434781243</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24569,25 +24569,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.0689542639591</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>81.59429121515379</v>
       </c>
       <c r="T27" t="n">
-        <v>110.0758488061376</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>135.8525021922908</v>
       </c>
       <c r="V27" t="n">
-        <v>142.7117072607413</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>161.6061032722356</v>
       </c>
       <c r="X27" t="n">
-        <v>115.6841053147935</v>
+        <v>115.6841053147934</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24603,28 +24603,28 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>77.15794120994383</v>
+        <v>77.1579412099438</v>
       </c>
       <c r="D28" t="n">
-        <v>58.52659312952835</v>
+        <v>58.52659312952832</v>
       </c>
       <c r="E28" t="n">
-        <v>56.34508275788517</v>
+        <v>56.34508275788514</v>
       </c>
       <c r="F28" t="n">
-        <v>55.33216813424724</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>77.90209946977475</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>72.13829261875557</v>
+        <v>72.13829261875554</v>
       </c>
       <c r="I28" t="n">
-        <v>65.36159503857428</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>3.27030022798877</v>
+        <v>3.270300227988741</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>87.20451148848545</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>133.9277181482882</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>137.8567095395975</v>
       </c>
       <c r="U28" t="n">
-        <v>30.71821526773189</v>
+        <v>30.71821526773184</v>
       </c>
       <c r="V28" t="n">
-        <v>162.048763435144</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>196.434118447907</v>
@@ -24669,7 +24669,7 @@
         <v>135.6207755003531</v>
       </c>
       <c r="Y28" t="n">
-        <v>100.4210328894593</v>
+        <v>102.0767197908281</v>
       </c>
     </row>
     <row r="29">
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>292.6449617747966</v>
+        <v>127.1330275747216</v>
       </c>
       <c r="C29" t="n">
-        <v>275.1840118823235</v>
+        <v>109.6720776822485</v>
       </c>
       <c r="D29" t="n">
         <v>264.594161731999</v>
       </c>
       <c r="E29" t="n">
-        <v>126.3295559835028</v>
+        <v>291.8414901835778</v>
       </c>
       <c r="F29" t="n">
-        <v>151.2752316529524</v>
+        <v>316.7871658530274</v>
       </c>
       <c r="G29" t="n">
-        <v>325.213857626451</v>
+        <v>159.701923426376</v>
       </c>
       <c r="H29" t="n">
         <v>249.3859222270831</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>59.78023805246565</v>
       </c>
       <c r="S29" t="n">
         <v>118.9311896975613</v>
       </c>
       <c r="T29" t="n">
-        <v>133.0069696754474</v>
+        <v>133.0069696754473</v>
       </c>
       <c r="U29" t="n">
         <v>161.2567730191525</v>
       </c>
       <c r="V29" t="n">
-        <v>237.6633785814509</v>
+        <v>91.88046693802488</v>
       </c>
       <c r="W29" t="n">
-        <v>93.64015462865402</v>
+        <v>259.152088828729</v>
       </c>
       <c r="X29" t="n">
         <v>279.642220789785</v>
       </c>
       <c r="Y29" t="n">
-        <v>210.1463851764092</v>
+        <v>296.1490587673695</v>
       </c>
     </row>
     <row r="30">
@@ -24761,22 +24761,22 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>82.61961909963172</v>
+        <v>82.61961909963171</v>
       </c>
       <c r="D30" t="n">
-        <v>57.35618567595473</v>
+        <v>57.35618567595472</v>
       </c>
       <c r="E30" t="n">
-        <v>67.55620056671692</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>54.98033250469986</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>47.25463727452662</v>
+        <v>47.2546372745266</v>
       </c>
       <c r="H30" t="n">
-        <v>22.14656434781244</v>
+        <v>22.14656434781243</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24806,10 +24806,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.0689542639591</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>81.59429121515379</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24818,13 +24818,13 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>30.11299857060838</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>161.6061032722356</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>60.9862861629121</v>
       </c>
       <c r="Y30" t="n">
         <v>115.5938158886203</v>
@@ -24837,31 +24837,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.74310029325328</v>
+        <v>89.74310029325326</v>
       </c>
       <c r="C31" t="n">
-        <v>77.15794120994381</v>
+        <v>77.1579412099438</v>
       </c>
       <c r="D31" t="n">
-        <v>58.52659312952834</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>56.34508275788515</v>
+        <v>26.06701396377537</v>
       </c>
       <c r="F31" t="n">
-        <v>55.33216813424723</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>77.90209946977474</v>
+        <v>77.90209946977473</v>
       </c>
       <c r="H31" t="n">
-        <v>72.13829261875556</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>65.36159503857427</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>3.270300227988756</v>
+        <v>3.270300227988741</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24888,22 +24888,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>133.9277181482882</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>30.71821526773189</v>
+        <v>196.2301494678069</v>
       </c>
       <c r="V31" t="n">
         <v>162.048763435144</v>
       </c>
       <c r="W31" t="n">
-        <v>78.61627758070217</v>
+        <v>196.434118447907</v>
       </c>
       <c r="X31" t="n">
-        <v>135.6207755003531</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>128.4957734634108</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>291.9527147375276</v>
+        <v>126.4407805374526</v>
       </c>
       <c r="C32" t="n">
-        <v>274.4917648450546</v>
+        <v>274.4917648450545</v>
       </c>
       <c r="D32" t="n">
         <v>263.90191469473</v>
@@ -24928,16 +24928,16 @@
         <v>291.1492431463088</v>
       </c>
       <c r="F32" t="n">
-        <v>316.0949188157585</v>
+        <v>316.0949188157584</v>
       </c>
       <c r="G32" t="n">
-        <v>159.0096763891071</v>
+        <v>324.521610589182</v>
       </c>
       <c r="H32" t="n">
-        <v>248.6936751898142</v>
+        <v>248.6936751898141</v>
       </c>
       <c r="I32" t="n">
-        <v>119.694762644453</v>
+        <v>119.6947626444529</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,10 +24964,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>59.08799101519669</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>118.2389426602924</v>
       </c>
       <c r="T32" t="n">
         <v>132.3147226381784</v>
@@ -24976,16 +24976,16 @@
         <v>160.5645259818835</v>
       </c>
       <c r="V32" t="n">
-        <v>236.971131544182</v>
+        <v>236.9711315441819</v>
       </c>
       <c r="W32" t="n">
-        <v>92.94790759138507</v>
+        <v>112.676930148034</v>
       </c>
       <c r="X32" t="n">
-        <v>278.9499737525161</v>
+        <v>113.438039552441</v>
       </c>
       <c r="Y32" t="n">
-        <v>161.4888995620888</v>
+        <v>129.9448775300256</v>
       </c>
     </row>
     <row r="33">
@@ -24995,25 +24995,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>75.75205672391439</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>81.92737206236275</v>
       </c>
       <c r="D33" t="n">
-        <v>56.66393863868581</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>66.863953529448</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>54.28808546743093</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>46.56239023725769</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>21.45431731054352</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25043,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>9.376707226690144</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>80.90204417788483</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>109.3836017688686</v>
       </c>
       <c r="U33" t="n">
-        <v>31.35229522200108</v>
+        <v>135.1602551550218</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>97.19120239959236</v>
       </c>
       <c r="W33" t="n">
-        <v>160.9138562349667</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>114.9918582775245</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>114.9015688513514</v>
       </c>
     </row>
     <row r="34">
@@ -25074,31 +25074,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>17.57253528884051</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>76.46569417267489</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>57.83434609225941</v>
+        <v>57.83434609225937</v>
       </c>
       <c r="E34" t="n">
-        <v>55.65283572061622</v>
+        <v>55.65283572061618</v>
       </c>
       <c r="F34" t="n">
-        <v>54.6399210969783</v>
+        <v>54.63992109697826</v>
       </c>
       <c r="G34" t="n">
-        <v>77.20985243250581</v>
+        <v>77.20985243250577</v>
       </c>
       <c r="H34" t="n">
-        <v>71.44604558148663</v>
+        <v>18.73245005359563</v>
       </c>
       <c r="I34" t="n">
-        <v>64.66934800130534</v>
+        <v>64.66934800130529</v>
       </c>
       <c r="J34" t="n">
-        <v>2.578053190719828</v>
+        <v>2.578053190719785</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>86.51226445121654</v>
+        <v>86.5122644512165</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>133.2354711110193</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>137.1644625023285</v>
       </c>
       <c r="U34" t="n">
-        <v>30.02596823046295</v>
+        <v>195.5379024305379</v>
       </c>
       <c r="V34" t="n">
-        <v>161.3565163978751</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>195.7418714106381</v>
+        <v>195.741871410638</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>127.8035264261418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.2223948759101</v>
+        <v>291.9527147375276</v>
       </c>
       <c r="C35" t="n">
-        <v>274.4917648450546</v>
+        <v>274.4917648450545</v>
       </c>
       <c r="D35" t="n">
         <v>263.90191469473</v>
       </c>
       <c r="E35" t="n">
-        <v>291.1492431463088</v>
+        <v>125.6373089462338</v>
       </c>
       <c r="F35" t="n">
-        <v>150.5829846156835</v>
+        <v>316.0949188157584</v>
       </c>
       <c r="G35" t="n">
-        <v>324.5216105891821</v>
+        <v>159.009676389107</v>
       </c>
       <c r="H35" t="n">
-        <v>248.6936751898142</v>
+        <v>248.6936751898141</v>
       </c>
       <c r="I35" t="n">
-        <v>119.694762644453</v>
+        <v>119.6947626444529</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>59.08799101519674</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>118.2389426602924</v>
@@ -25210,16 +25210,16 @@
         <v>132.3147226381784</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>160.5645259818835</v>
       </c>
       <c r="V35" t="n">
-        <v>236.971131544182</v>
+        <v>236.9711315441819</v>
       </c>
       <c r="W35" t="n">
-        <v>258.4598417914601</v>
+        <v>258.45984179146</v>
       </c>
       <c r="X35" t="n">
-        <v>278.9499737525161</v>
+        <v>192.2550531242867</v>
       </c>
       <c r="Y35" t="n">
         <v>129.9448775300256</v>
@@ -25232,25 +25232,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>75.75205672391439</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>81.92737206236279</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>56.66393863868581</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>66.863953529448</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>54.28808546743093</v>
+        <v>54.28808546743089</v>
       </c>
       <c r="G36" t="n">
-        <v>41.99960078051117</v>
+        <v>46.56239023725765</v>
       </c>
       <c r="H36" t="n">
-        <v>21.45431731054352</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25280,25 +25280,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>9.376707226690144</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>80.90204417788483</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>109.3836017688686</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>52.51449767732181</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>160.9138562349666</v>
       </c>
       <c r="X36" t="n">
-        <v>114.9918582775245</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>114.9015688513514</v>
@@ -25311,31 +25311,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>89.05085325598435</v>
+        <v>89.05085325598431</v>
       </c>
       <c r="C37" t="n">
-        <v>76.46569417267489</v>
+        <v>76.46569417267484</v>
       </c>
       <c r="D37" t="n">
-        <v>57.83434609225941</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>55.65283572061622</v>
+        <v>55.65283572061618</v>
       </c>
       <c r="F37" t="n">
-        <v>54.6399210969783</v>
+        <v>54.63992109697826</v>
       </c>
       <c r="G37" t="n">
-        <v>77.20985243250581</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>71.44604558148663</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>64.66934800130534</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.578053190719828</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>16.6786008169364</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>41.46193441886341</v>
+        <v>137.1644625023285</v>
       </c>
       <c r="U37" t="n">
-        <v>30.02596823046292</v>
+        <v>30.02596823046287</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>161.356516397875</v>
       </c>
       <c r="W37" t="n">
-        <v>195.7418714106381</v>
+        <v>195.741871410638</v>
       </c>
       <c r="X37" t="n">
-        <v>134.9285284630842</v>
+        <v>134.9285284630841</v>
       </c>
       <c r="Y37" t="n">
         <v>127.8035264261418</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>292.6449617747966</v>
+        <v>127.1330275747216</v>
       </c>
       <c r="C38" t="n">
         <v>275.1840118823235</v>
@@ -25402,10 +25402,10 @@
         <v>291.8414901835778</v>
       </c>
       <c r="F38" t="n">
-        <v>230.7844922620671</v>
+        <v>316.7871658530274</v>
       </c>
       <c r="G38" t="n">
-        <v>325.213857626451</v>
+        <v>159.701923426376</v>
       </c>
       <c r="H38" t="n">
         <v>249.3859222270831</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>59.78023805246565</v>
       </c>
       <c r="S38" t="n">
         <v>118.9311896975613</v>
       </c>
       <c r="T38" t="n">
-        <v>133.0069696754474</v>
+        <v>133.0069696754473</v>
       </c>
       <c r="U38" t="n">
-        <v>161.2567730191525</v>
+        <v>15.47386137572647</v>
       </c>
       <c r="V38" t="n">
-        <v>72.15144438137588</v>
+        <v>237.6633785814509</v>
       </c>
       <c r="W38" t="n">
-        <v>93.64015462865399</v>
+        <v>259.152088828729</v>
       </c>
       <c r="X38" t="n">
         <v>279.642220789785</v>
       </c>
       <c r="Y38" t="n">
-        <v>130.6371245672946</v>
+        <v>130.6371245672945</v>
       </c>
     </row>
     <row r="39">
@@ -25469,22 +25469,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>76.44430376118333</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>82.61961909963173</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>41.90659715455437</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>67.55620056671694</v>
+        <v>43.23904814773032</v>
       </c>
       <c r="F39" t="n">
-        <v>54.98033250469987</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>47.25463727452663</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -25517,25 +25517,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>10.06895426395913</v>
+        <v>10.0689542639591</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>81.59429121515379</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>110.0758488061376</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>135.8525021922908</v>
       </c>
       <c r="V39" t="n">
-        <v>142.7117072607413</v>
+        <v>142.7117072607412</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>115.6841053147935</v>
+        <v>115.6841053147934</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25548,31 +25548,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>89.74310029325329</v>
+        <v>89.74310029325326</v>
       </c>
       <c r="C40" t="n">
-        <v>77.15794120994383</v>
+        <v>77.1579412099438</v>
       </c>
       <c r="D40" t="n">
-        <v>58.52659312952835</v>
+        <v>58.52659312952832</v>
       </c>
       <c r="E40" t="n">
-        <v>56.34508275788517</v>
+        <v>56.34508275788514</v>
       </c>
       <c r="F40" t="n">
-        <v>55.33216813424724</v>
+        <v>55.33216813424721</v>
       </c>
       <c r="G40" t="n">
-        <v>77.90209946977475</v>
+        <v>77.90209946977473</v>
       </c>
       <c r="H40" t="n">
-        <v>72.13829261875557</v>
+        <v>72.13829261875554</v>
       </c>
       <c r="I40" t="n">
-        <v>65.36159503857428</v>
+        <v>65.36159503857425</v>
       </c>
       <c r="J40" t="n">
-        <v>3.27030022798877</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>76.84950480847021</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>133.9277181482882</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>137.8567095395975</v>
       </c>
       <c r="U40" t="n">
-        <v>78.41230860060197</v>
+        <v>30.71821526773184</v>
       </c>
       <c r="V40" t="n">
-        <v>162.048763435144</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>30.92218424783198</v>
+        <v>30.92218424783195</v>
       </c>
       <c r="X40" t="n">
-        <v>135.6207755003531</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>128.4957734634108</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>314.9144536006794</v>
+        <v>184.13934330784</v>
       </c>
       <c r="C41" t="n">
         <v>297.4535037082064</v>
       </c>
       <c r="D41" t="n">
-        <v>286.8636535578818</v>
+        <v>156.0885432650424</v>
       </c>
       <c r="E41" t="n">
         <v>314.1109820094606</v>
@@ -25642,13 +25642,13 @@
         <v>339.0566576789103</v>
       </c>
       <c r="G41" t="n">
-        <v>216.7082391594946</v>
+        <v>216.7082391594945</v>
       </c>
       <c r="H41" t="n">
         <v>271.655414052966</v>
       </c>
       <c r="I41" t="n">
-        <v>27.46978436167194</v>
+        <v>142.6565015076047</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>82.04972987834853</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>141.2006815234442</v>
@@ -25687,16 +25687,16 @@
         <v>183.5262648450353</v>
       </c>
       <c r="V41" t="n">
-        <v>259.9328704073338</v>
+        <v>259.9328704073337</v>
       </c>
       <c r="W41" t="n">
         <v>281.4215806546118</v>
       </c>
       <c r="X41" t="n">
-        <v>171.1366023228286</v>
+        <v>268.7747253480835</v>
       </c>
       <c r="Y41" t="n">
-        <v>187.6434403004132</v>
+        <v>318.4185505932524</v>
       </c>
     </row>
     <row r="42">
@@ -25706,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>87.39086148217004</v>
+        <v>14.49340240828744</v>
       </c>
       <c r="C42" t="n">
         <v>104.8891109255146</v>
       </c>
       <c r="D42" t="n">
-        <v>79.6256775018376</v>
+        <v>79.62567750183757</v>
       </c>
       <c r="E42" t="n">
-        <v>89.82569239259979</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>77.24982433058273</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>69.52412910040948</v>
+        <v>69.52412910040945</v>
       </c>
       <c r="H42" t="n">
-        <v>44.41605617369531</v>
+        <v>44.41605617369528</v>
       </c>
       <c r="I42" t="n">
-        <v>21.57724478861392</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>32.33844608984198</v>
+        <v>32.33844608984195</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>132.3453406320205</v>
+        <v>132.3453406320204</v>
       </c>
       <c r="U42" t="n">
-        <v>27.34688372533438</v>
+        <v>158.1219940181736</v>
       </c>
       <c r="V42" t="n">
-        <v>34.20608879378483</v>
+        <v>164.9811990866241</v>
       </c>
       <c r="W42" t="n">
-        <v>53.10048480527917</v>
+        <v>183.8755950981184</v>
       </c>
       <c r="X42" t="n">
         <v>137.9535971406763</v>
       </c>
       <c r="Y42" t="n">
-        <v>137.8633077145032</v>
+        <v>7.088197421663807</v>
       </c>
     </row>
     <row r="43">
@@ -25788,28 +25788,28 @@
         <v>112.0125921191361</v>
       </c>
       <c r="C43" t="n">
-        <v>99.42743303582668</v>
+        <v>99.42743303582665</v>
       </c>
       <c r="D43" t="n">
-        <v>80.7960849554112</v>
+        <v>80.79608495541117</v>
       </c>
       <c r="E43" t="n">
-        <v>78.61457458376802</v>
+        <v>78.61457458376799</v>
       </c>
       <c r="F43" t="n">
-        <v>77.60165996013009</v>
+        <v>77.60165996013006</v>
       </c>
       <c r="G43" t="n">
         <v>100.1715912956576</v>
       </c>
       <c r="H43" t="n">
-        <v>94.40778444463842</v>
+        <v>94.40778444463839</v>
       </c>
       <c r="I43" t="n">
-        <v>87.63108686445713</v>
+        <v>87.6310868644571</v>
       </c>
       <c r="J43" t="n">
-        <v>25.53979205387162</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,31 +25830,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>18.3426551888932</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.4740033143683</v>
       </c>
       <c r="S43" t="n">
-        <v>38.05204103866062</v>
+        <v>25.4220996813317</v>
       </c>
       <c r="T43" t="n">
-        <v>29.35109107264105</v>
+        <v>160.1262013654803</v>
       </c>
       <c r="U43" t="n">
         <v>218.4996412936897</v>
       </c>
       <c r="V43" t="n">
-        <v>53.54314496818756</v>
+        <v>184.3182552610268</v>
       </c>
       <c r="W43" t="n">
-        <v>218.7036102737898</v>
+        <v>87.92849998095045</v>
       </c>
       <c r="X43" t="n">
-        <v>157.890267326236</v>
+        <v>68.24334223417462</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.7652652892936</v>
+        <v>19.99015499645424</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>184.1393433078401</v>
+        <v>314.9144536006794</v>
       </c>
       <c r="C44" t="n">
         <v>297.4535037082064</v>
@@ -25873,19 +25873,19 @@
         <v>286.8636535578818</v>
       </c>
       <c r="E44" t="n">
-        <v>314.1109820094607</v>
+        <v>198.9242648635276</v>
       </c>
       <c r="F44" t="n">
-        <v>339.0566576789103</v>
+        <v>208.2815473860709</v>
       </c>
       <c r="G44" t="n">
-        <v>216.7082391594946</v>
+        <v>347.4833494523339</v>
       </c>
       <c r="H44" t="n">
         <v>271.655414052966</v>
       </c>
       <c r="I44" t="n">
-        <v>142.6565015076048</v>
+        <v>142.6565015076047</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>82.04972987834854</v>
+        <v>82.04972987834849</v>
       </c>
       <c r="S44" t="n">
-        <v>141.2006815234442</v>
+        <v>141.2006815234441</v>
       </c>
       <c r="T44" t="n">
         <v>155.2764615013302</v>
       </c>
       <c r="U44" t="n">
-        <v>68.3395476991025</v>
+        <v>183.5262648450353</v>
       </c>
       <c r="V44" t="n">
-        <v>259.9328704073338</v>
+        <v>129.1577601144944</v>
       </c>
       <c r="W44" t="n">
-        <v>281.4215806546119</v>
+        <v>150.6464703617725</v>
       </c>
       <c r="X44" t="n">
         <v>301.9117126156679</v>
       </c>
       <c r="Y44" t="n">
-        <v>187.6434403004131</v>
+        <v>318.4185505932524</v>
       </c>
     </row>
     <row r="45">
@@ -25943,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>98.71379558706614</v>
       </c>
       <c r="C45" t="n">
-        <v>104.8891109255146</v>
+        <v>104.8891109255145</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>79.62567750183756</v>
       </c>
       <c r="E45" t="n">
-        <v>89.82569239259981</v>
+        <v>89.82569239259975</v>
       </c>
       <c r="F45" t="n">
-        <v>77.24982433058274</v>
+        <v>77.24982433058268</v>
       </c>
       <c r="G45" t="n">
-        <v>69.5241291004095</v>
+        <v>69.52412910040944</v>
       </c>
       <c r="H45" t="n">
-        <v>44.41605617369532</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>21.57724478861394</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,25 +25991,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>32.33844608984199</v>
+        <v>32.33844608984194</v>
       </c>
       <c r="S45" t="n">
-        <v>103.8637830410367</v>
+        <v>103.8637830410366</v>
       </c>
       <c r="T45" t="n">
-        <v>132.3453406320205</v>
+        <v>132.3453406320204</v>
       </c>
       <c r="U45" t="n">
-        <v>90.49963966830532</v>
+        <v>27.34688372533424</v>
       </c>
       <c r="V45" t="n">
-        <v>34.20608879378483</v>
+        <v>34.20608879378472</v>
       </c>
       <c r="W45" t="n">
-        <v>53.10048480527917</v>
+        <v>53.10048480527905</v>
       </c>
       <c r="X45" t="n">
-        <v>137.9535971406763</v>
+        <v>88.76018095705246</v>
       </c>
       <c r="Y45" t="n">
         <v>137.8633077145032</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>112.0125921191362</v>
+        <v>112.0125921191361</v>
       </c>
       <c r="C46" t="n">
-        <v>99.4274330358267</v>
+        <v>99.42743303582664</v>
       </c>
       <c r="D46" t="n">
-        <v>80.79608495541122</v>
+        <v>80.79608495541116</v>
       </c>
       <c r="E46" t="n">
-        <v>78.61457458376803</v>
+        <v>78.61457458376798</v>
       </c>
       <c r="F46" t="n">
-        <v>77.60165996013011</v>
+        <v>77.60165996013005</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.63108686445715</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26067,31 +26067,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.34265518889325</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>83.63134366976385</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>156.1972099741711</v>
+        <v>84.25207511160619</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1262013654804</v>
+        <v>160.1262013654803</v>
       </c>
       <c r="U46" t="n">
-        <v>87.72453100085045</v>
+        <v>218.4996412936897</v>
       </c>
       <c r="V46" t="n">
-        <v>184.3182552610269</v>
+        <v>184.3182552610268</v>
       </c>
       <c r="W46" t="n">
-        <v>87.92849998095056</v>
+        <v>218.7036102737898</v>
       </c>
       <c r="X46" t="n">
         <v>157.890267326236</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.7652652892937</v>
+        <v>150.7652652892936</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>488222.2556335644</v>
+        <v>488222.2556335643</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>488222.2556335644</v>
+        <v>488222.2556335642</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>581150.1489518097</v>
+        <v>581150.1489518096</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>581150.1489518096</v>
+        <v>581150.1489518094</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>582513.8479253477</v>
+        <v>582513.847925348</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>581150.1489518097</v>
+        <v>581150.1489518099</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>511847.6455498389</v>
+        <v>511847.645549839</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>511847.645549839</v>
+        <v>511847.6455498391</v>
       </c>
     </row>
   </sheetData>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>737348.7048453349</v>
+      </c>
+      <c r="C2" t="n">
+        <v>737348.704845335</v>
+      </c>
+      <c r="D2" t="n">
         <v>737348.7048453348</v>
       </c>
-      <c r="C2" t="n">
-        <v>737348.7048453345</v>
-      </c>
-      <c r="D2" t="n">
-        <v>737348.7048453345</v>
-      </c>
       <c r="E2" t="n">
+        <v>243434.8264676396</v>
+      </c>
+      <c r="F2" t="n">
         <v>243434.8264676397</v>
       </c>
-      <c r="F2" t="n">
-        <v>243434.8264676396</v>
-      </c>
       <c r="G2" t="n">
-        <v>405106.5490578705</v>
+        <v>405106.5490578703</v>
       </c>
       <c r="H2" t="n">
         <v>405106.5490578706</v>
@@ -26337,10 +26337,10 @@
         <v>473237.5487285003</v>
       </c>
       <c r="J2" t="n">
-        <v>473237.5487285004</v>
+        <v>473237.5487285002</v>
       </c>
       <c r="K2" t="n">
-        <v>473237.5487285001</v>
+        <v>473237.5487285003</v>
       </c>
       <c r="L2" t="n">
         <v>474681.4652887175</v>
@@ -26352,10 +26352,10 @@
         <v>473237.5487285005</v>
       </c>
       <c r="O2" t="n">
-        <v>407853.7669439839</v>
+        <v>407853.7669439846</v>
       </c>
       <c r="P2" t="n">
-        <v>407853.7669439838</v>
+        <v>407853.7669439846</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>63222.55520104048</v>
+        <v>63222.55520104047</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26392,10 +26392,10 @@
         <v>17815.59346070628</v>
       </c>
       <c r="K3" t="n">
-        <v>1.13686837721616e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>54255.51045024092</v>
+        <v>54255.51045024094</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26441,16 +26441,16 @@
         <v>265334.3847879227</v>
       </c>
       <c r="J4" t="n">
-        <v>265334.3847879226</v>
+        <v>265334.3847879227</v>
       </c>
       <c r="K4" t="n">
-        <v>265334.3847879226</v>
+        <v>265334.3847879227</v>
       </c>
       <c r="L4" t="n">
-        <v>266250.0959350777</v>
+        <v>266250.0959350778</v>
       </c>
       <c r="M4" t="n">
-        <v>266250.0959350777</v>
+        <v>266250.0959350778</v>
       </c>
       <c r="N4" t="n">
         <v>265334.3847879227</v>
@@ -26459,7 +26459,7 @@
         <v>225637.2302947761</v>
       </c>
       <c r="P4" t="n">
-        <v>225637.230294776</v>
+        <v>225637.2302947761</v>
       </c>
     </row>
     <row r="5">
@@ -26484,7 +26484,7 @@
         <v>1872.173908310146</v>
       </c>
       <c r="G5" t="n">
-        <v>9627.484420745544</v>
+        <v>9627.484420745543</v>
       </c>
       <c r="H5" t="n">
         <v>9627.484420745543</v>
@@ -26508,10 +26508,10 @@
         <v>17636.80764272634</v>
       </c>
       <c r="O5" t="n">
-        <v>13652.63484085626</v>
+        <v>13652.63484085627</v>
       </c>
       <c r="P5" t="n">
-        <v>13652.63484085626</v>
+        <v>13652.63484085627</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>262071.8548495143</v>
+        <v>262027.7190708333</v>
       </c>
       <c r="C6" t="n">
-        <v>262071.854849514</v>
+        <v>262027.7190708334</v>
       </c>
       <c r="D6" t="n">
-        <v>262071.8548495141</v>
+        <v>262027.7190708332</v>
       </c>
       <c r="E6" t="n">
-        <v>95330.89792966453</v>
+        <v>81566.93219604743</v>
       </c>
       <c r="F6" t="n">
-        <v>113146.4913903708</v>
+        <v>99382.52565675373</v>
       </c>
       <c r="G6" t="n">
-        <v>103431.3525346266</v>
+        <v>94158.2679840714</v>
       </c>
       <c r="H6" t="n">
-        <v>166653.9077356672</v>
+        <v>157380.8231851121</v>
       </c>
       <c r="I6" t="n">
-        <v>154936.7105638539</v>
+        <v>147556.1537819274</v>
       </c>
       <c r="J6" t="n">
-        <v>172450.7628371451</v>
+        <v>165070.2060552183</v>
       </c>
       <c r="K6" t="n">
-        <v>190266.3562978512</v>
+        <v>182885.7995159248</v>
       </c>
       <c r="L6" t="n">
-        <v>136480.8547444963</v>
+        <v>129140.4067559092</v>
       </c>
       <c r="M6" t="n">
-        <v>190736.3651947373</v>
+        <v>183395.9172061501</v>
       </c>
       <c r="N6" t="n">
-        <v>190266.3562978514</v>
+        <v>182885.7995159249</v>
       </c>
       <c r="O6" t="n">
-        <v>168563.9018083515</v>
+        <v>159367.1288657447</v>
       </c>
       <c r="P6" t="n">
-        <v>168563.9018083515</v>
+        <v>159367.1288657447</v>
       </c>
     </row>
   </sheetData>
@@ -26706,28 +26706,28 @@
         <v>89.39663285141508</v>
       </c>
       <c r="I2" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="J2" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="K2" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="L2" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="M2" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="N2" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="O2" t="n">
-        <v>67.81938806280115</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="P2" t="n">
-        <v>67.81938806280114</v>
+        <v>67.8193880628012</v>
       </c>
     </row>
     <row r="3">
@@ -26804,7 +26804,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>34.73682390723569</v>
+        <v>34.73682390723567</v>
       </c>
       <c r="H4" t="n">
         <v>34.73682390723567</v>
@@ -26828,10 +26828,10 @@
         <v>165.511934200075</v>
       </c>
       <c r="O4" t="n">
-        <v>130.7751102928393</v>
+        <v>130.7751102928394</v>
       </c>
       <c r="P4" t="n">
-        <v>130.7751102928393</v>
+        <v>130.7751102928394</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.26949182588286</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26928,16 +26928,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6922470372689276</v>
+        <v>0.692247037268956</v>
       </c>
       <c r="J2" t="n">
-        <v>22.26949182588286</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="K2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>67.81938806280115</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>34.73682390723569</v>
+        <v>34.73682390723567</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>22.26949182588286</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27165,13 +27165,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.6922470372689276</v>
+        <v>0.692247037268956</v>
       </c>
       <c r="O2" t="n">
-        <v>22.26949182588286</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="P2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>34.73682390723569</v>
+        <v>34.73682390723567</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -28748,7 +28748,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="K19" t="n">
-        <v>22.26949182588285</v>
+        <v>34.9298888296217</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28763,10 +28763,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>18.6164273385661</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="R19" t="n">
         <v>89.39663285141508</v>
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="C23" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="D23" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="E23" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="F23" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="G23" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="H23" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="I23" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -29085,28 +29085,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="S23" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="T23" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="U23" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="V23" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="W23" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="X23" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="Y23" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
     </row>
     <row r="24">
@@ -29116,25 +29116,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="C24" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="D24" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="E24" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="F24" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="G24" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="H24" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -29164,28 +29164,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="S24" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="T24" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="U24" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="V24" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="W24" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="X24" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="Y24" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
     </row>
     <row r="25">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="C25" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="D25" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="E25" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="F25" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="G25" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="H25" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="I25" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="J25" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="K25" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="L25" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="M25" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="N25" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="O25" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="P25" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="Q25" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="R25" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="S25" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="T25" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="U25" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="V25" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="W25" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="X25" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
     </row>
     <row r="26">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="C26" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="D26" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="E26" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="F26" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="G26" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="H26" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="I26" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -29322,28 +29322,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="S26" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="T26" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="U26" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="V26" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="W26" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="X26" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="Y26" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
     </row>
     <row r="27">
@@ -29353,25 +29353,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="C27" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="D27" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="E27" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="F27" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="G27" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="H27" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
@@ -29401,28 +29401,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="S27" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="T27" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="U27" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="V27" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="W27" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="X27" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="Y27" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
     </row>
     <row r="28">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="C28" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="D28" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="E28" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="F28" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="G28" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="H28" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="I28" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="J28" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="K28" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="L28" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="M28" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="N28" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="O28" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="P28" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="Q28" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="R28" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="S28" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="T28" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="U28" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="V28" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="W28" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="X28" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="Y28" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="C29" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="D29" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="E29" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="F29" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="G29" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="H29" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="I29" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -29559,28 +29559,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="S29" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="T29" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="U29" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="V29" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="W29" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="X29" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="Y29" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
     </row>
     <row r="30">
@@ -29590,25 +29590,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="C30" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="D30" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="E30" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="F30" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="G30" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="H30" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -29638,28 +29638,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="S30" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="T30" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="U30" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="V30" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="W30" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="X30" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="Y30" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
     </row>
     <row r="31">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="C31" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="D31" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="E31" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="F31" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="G31" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="H31" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="I31" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="J31" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="K31" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="L31" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="M31" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="N31" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="O31" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="P31" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="Q31" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="R31" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="S31" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="T31" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="U31" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="V31" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="W31" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="X31" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="Y31" t="n">
-        <v>90.08887988868402</v>
+        <v>90.08887988868403</v>
       </c>
     </row>
     <row r="32">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="C32" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="D32" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="E32" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="F32" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="G32" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="H32" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="I32" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -29796,28 +29796,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="S32" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="T32" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="U32" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="V32" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="W32" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="X32" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="Y32" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
     </row>
     <row r="33">
@@ -29827,25 +29827,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="C33" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="D33" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="E33" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="F33" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="G33" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="H33" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -29875,28 +29875,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="S33" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="T33" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="U33" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="V33" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="W33" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="X33" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="Y33" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
     </row>
     <row r="34">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="C34" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="D34" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="E34" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="F34" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="G34" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="H34" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="I34" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="J34" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="K34" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="L34" t="n">
-        <v>90.78112692595295</v>
+        <v>85.93539766507014</v>
       </c>
       <c r="M34" t="n">
-        <v>85.93539766507034</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="N34" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="O34" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="P34" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="Q34" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="R34" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="S34" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="T34" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="U34" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="V34" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="W34" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="X34" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="Y34" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="C35" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="D35" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="E35" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="F35" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="G35" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="H35" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="I35" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -30033,28 +30033,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="S35" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="T35" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="U35" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="V35" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="W35" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="X35" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="Y35" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
     </row>
     <row r="36">
@@ -30064,25 +30064,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="C36" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="D36" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="E36" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="F36" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="G36" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="H36" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -30112,28 +30112,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="S36" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="T36" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="U36" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="V36" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="W36" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="X36" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="Y36" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
     </row>
     <row r="37">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="C37" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="D37" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="E37" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="F37" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="G37" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="H37" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="I37" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="J37" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="K37" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="L37" t="n">
-        <v>90.55448133932902</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="M37" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="N37" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="O37" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="P37" t="n">
-        <v>90.78112692595295</v>
+        <v>85.93539766507021</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="R37" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="S37" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="T37" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="U37" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="V37" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="W37" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="X37" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.78112692595295</v>
+        <v>90.78112692595299</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="C38" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="D38" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="E38" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="F38" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="G38" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="H38" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="I38" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -30270,28 +30270,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="S38" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="T38" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="U38" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="V38" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="W38" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="X38" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="Y38" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
     </row>
     <row r="39">
@@ -30301,25 +30301,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="C39" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="D39" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="E39" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="F39" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="G39" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="H39" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -30349,28 +30349,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="S39" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="T39" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="U39" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="V39" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="W39" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="X39" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="Y39" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
     </row>
     <row r="40">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="C40" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="D40" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="E40" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="F40" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="G40" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="H40" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="I40" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="J40" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="K40" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="L40" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="M40" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="N40" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="O40" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="P40" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="Q40" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="R40" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="S40" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="T40" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="U40" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="V40" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="W40" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="X40" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.088879888684</v>
+        <v>90.08887988868403</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>67.81938806280115</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="C41" t="n">
-        <v>67.81938806280115</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="D41" t="n">
-        <v>67.81938806280115</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="E41" t="n">
-        <v>67.81938806280115</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="F41" t="n">
-        <v>67.81938806280115</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="G41" t="n">
-        <v>67.81938806280115</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="H41" t="n">
-        <v>67.81938806280115</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="I41" t="n">
-        <v>67.81938806280115</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -30507,28 +30507,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>67.81938806280115</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="S41" t="n">
-        <v>67.81938806280115</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="T41" t="n">
-        <v>67.81938806280115</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="U41" t="n">
-        <v>67.81938806280115</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="V41" t="n">
-        <v>67.81938806280115</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="W41" t="n">
-        <v>67.81938806280115</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="X41" t="n">
-        <v>67.81938806280115</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="Y41" t="n">
-        <v>67.81938806280115</v>
+        <v>67.81938806280118</v>
       </c>
     </row>
     <row r="42">
@@ -30538,28 +30538,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>67.81938806280115</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="C42" t="n">
-        <v>67.81938806280115</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="D42" t="n">
-        <v>67.81938806280115</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="E42" t="n">
-        <v>67.81938806280115</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="F42" t="n">
-        <v>67.81938806280115</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="G42" t="n">
-        <v>67.81938806280115</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="H42" t="n">
-        <v>67.81938806280115</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="I42" t="n">
-        <v>67.81938806280115</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -30586,28 +30586,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>67.81938806280115</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="S42" t="n">
-        <v>67.81938806280115</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="T42" t="n">
-        <v>67.81938806280115</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="U42" t="n">
-        <v>67.81938806280115</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="V42" t="n">
-        <v>67.81938806280115</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="W42" t="n">
-        <v>67.81938806280115</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="X42" t="n">
-        <v>67.81938806280115</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="Y42" t="n">
-        <v>67.81938806280115</v>
+        <v>67.81938806280118</v>
       </c>
     </row>
     <row r="43">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>67.81938806280115</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="C43" t="n">
-        <v>67.81938806280115</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="D43" t="n">
-        <v>67.81938806280115</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="E43" t="n">
-        <v>67.81938806280115</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="F43" t="n">
-        <v>67.81938806280115</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="G43" t="n">
-        <v>67.81938806280115</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="H43" t="n">
-        <v>67.81938806280115</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="I43" t="n">
-        <v>67.81938806280115</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="J43" t="n">
-        <v>67.81938806280115</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="K43" t="n">
-        <v>67.81938806280115</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="L43" t="n">
-        <v>67.81938806280115</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="M43" t="n">
-        <v>67.81938806280115</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="N43" t="n">
-        <v>67.81938806280115</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="O43" t="n">
-        <v>67.81938806280115</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="P43" t="n">
-        <v>67.81938806280115</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="Q43" t="n">
-        <v>67.81938806280115</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="R43" t="n">
-        <v>67.81938806280115</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="S43" t="n">
-        <v>67.81938806280115</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="T43" t="n">
-        <v>67.81938806280115</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="U43" t="n">
-        <v>67.81938806280115</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="V43" t="n">
-        <v>67.81938806280115</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="W43" t="n">
-        <v>67.81938806280115</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="X43" t="n">
-        <v>67.81938806280115</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="Y43" t="n">
-        <v>67.81938806280115</v>
+        <v>67.81938806280118</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>67.81938806280114</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="C44" t="n">
-        <v>67.81938806280114</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="D44" t="n">
-        <v>67.81938806280114</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="E44" t="n">
-        <v>67.81938806280114</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="F44" t="n">
-        <v>67.81938806280114</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="G44" t="n">
-        <v>67.81938806280114</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="H44" t="n">
-        <v>67.81938806280114</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="I44" t="n">
-        <v>67.81938806280114</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -30744,28 +30744,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>67.81938806280114</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="S44" t="n">
-        <v>67.81938806280114</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="T44" t="n">
-        <v>67.81938806280114</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="U44" t="n">
-        <v>67.81938806280114</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="V44" t="n">
-        <v>67.81938806280114</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="W44" t="n">
-        <v>67.81938806280114</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="X44" t="n">
-        <v>67.81938806280114</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="Y44" t="n">
-        <v>67.81938806280114</v>
+        <v>67.8193880628012</v>
       </c>
     </row>
     <row r="45">
@@ -30775,28 +30775,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>67.81938806280114</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="C45" t="n">
-        <v>67.81938806280114</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="D45" t="n">
-        <v>67.81938806280114</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="E45" t="n">
-        <v>67.81938806280114</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="F45" t="n">
-        <v>67.81938806280114</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="G45" t="n">
-        <v>67.81938806280114</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="H45" t="n">
-        <v>67.81938806280114</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="I45" t="n">
-        <v>67.81938806280114</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -30823,28 +30823,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>67.81938806280114</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="S45" t="n">
-        <v>67.81938806280114</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="T45" t="n">
-        <v>67.81938806280114</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="U45" t="n">
-        <v>67.81938806280114</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="V45" t="n">
-        <v>67.81938806280114</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="W45" t="n">
-        <v>67.81938806280114</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="X45" t="n">
-        <v>67.81938806280114</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="Y45" t="n">
-        <v>67.81938806280114</v>
+        <v>67.8193880628012</v>
       </c>
     </row>
     <row r="46">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>67.81938806280114</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="C46" t="n">
-        <v>67.81938806280114</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="D46" t="n">
-        <v>67.81938806280114</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="E46" t="n">
-        <v>67.81938806280114</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="F46" t="n">
-        <v>67.81938806280114</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="G46" t="n">
-        <v>67.81938806280114</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="H46" t="n">
-        <v>67.81938806280114</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="I46" t="n">
-        <v>67.81938806280114</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="J46" t="n">
-        <v>67.81938806280114</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="K46" t="n">
-        <v>67.81938806280114</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="L46" t="n">
-        <v>67.81938806280114</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="M46" t="n">
-        <v>67.81938806280114</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="N46" t="n">
-        <v>67.81938806280114</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="O46" t="n">
-        <v>67.81938806280114</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="P46" t="n">
-        <v>67.81938806280114</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="Q46" t="n">
-        <v>67.81938806280114</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="R46" t="n">
-        <v>67.81938806280114</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="S46" t="n">
-        <v>67.81938806280114</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="T46" t="n">
-        <v>67.81938806280114</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="U46" t="n">
-        <v>67.81938806280114</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="V46" t="n">
-        <v>67.81938806280114</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="W46" t="n">
-        <v>67.81938806280114</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="X46" t="n">
-        <v>67.81938806280114</v>
+        <v>67.8193880628012</v>
       </c>
       <c r="Y46" t="n">
-        <v>67.81938806280114</v>
+        <v>67.8193880628012</v>
       </c>
     </row>
   </sheetData>
@@ -35886,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>34.73682390723569</v>
+        <v>33.33331587057968</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>34.73682390723569</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>33.33331587057971</v>
+        <v>34.73682390723567</v>
       </c>
       <c r="O17" t="n">
-        <v>34.73682390723569</v>
+        <v>34.73682390723567</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>34.73682390723567</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35968,22 +35968,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>34.73682390723569</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>34.73682390723569</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>33.33331587057971</v>
+        <v>33.33331587057968</v>
       </c>
       <c r="O18" t="n">
-        <v>34.73682390723569</v>
+        <v>34.73682390723567</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>34.73682390723567</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>34.73682390723567</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,25 +36044,25 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>12.66039700373884</v>
       </c>
       <c r="L19" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="M19" t="n">
-        <v>34.73682390723569</v>
+        <v>34.73682390723567</v>
       </c>
       <c r="N19" t="n">
-        <v>34.73682390723569</v>
+        <v>34.73682390723567</v>
       </c>
       <c r="O19" t="n">
         <v>24.58512791403967</v>
       </c>
       <c r="P19" t="n">
-        <v>15.89498660345959</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>3.234589599720692</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,16 +36126,16 @@
         <v>34.73682390723567</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>34.73682390723567</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>34.73682390723567</v>
-      </c>
-      <c r="N20" t="n">
-        <v>34.73682390723567</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>33.33331587057968</v>
@@ -36202,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
         <v>33.33331587057968</v>
-      </c>
-      <c r="L21" t="n">
-        <v>34.73682390723567</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>34.73682390723567</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>34.73682390723567</v>
       </c>
       <c r="Q21" t="n">
         <v>34.73682390723567</v>
@@ -36360,10 +36360,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>165.511934200075</v>
       </c>
       <c r="M23" t="n">
         <v>165.511934200075</v>
@@ -36372,10 +36372,10 @@
         <v>165.511934200075</v>
       </c>
       <c r="O23" t="n">
-        <v>129.715243580982</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P23" t="n">
-        <v>90.5657124162131</v>
+        <v>8.122613482245667</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36439,19 +36439,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>88.72906967347673</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>127.6172058353322</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>165.511934200075</v>
       </c>
       <c r="N24" t="n">
-        <v>165.511934200075</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>165.511934200075</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>165.511934200075</v>
@@ -36518,10 +36518,10 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>67.81938806280115</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="L25" t="n">
-        <v>117.6789051490001</v>
+        <v>117.6789051490002</v>
       </c>
       <c r="M25" t="n">
         <v>129.6727568505246</v>
@@ -36533,10 +36533,10 @@
         <v>114.6740078027237</v>
       </c>
       <c r="P25" t="n">
-        <v>87.36743915357749</v>
+        <v>87.36743915357752</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.92683663698962</v>
+        <v>3.926836636989648</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,22 +36597,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L26" t="n">
         <v>165.511934200075</v>
       </c>
       <c r="M26" t="n">
-        <v>83.06883526610753</v>
+        <v>165.511934200075</v>
       </c>
       <c r="N26" t="n">
         <v>165.511934200075</v>
       </c>
       <c r="O26" t="n">
-        <v>150.7019698410586</v>
+        <v>54.76902179712011</v>
       </c>
       <c r="P26" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36676,19 +36676,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
+        <v>127.6172058353322</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
         <v>165.511934200075</v>
-      </c>
-      <c r="M27" t="n">
-        <v>88.72906967347666</v>
-      </c>
-      <c r="N27" t="n">
-        <v>165.511934200075</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>165.511934200075</v>
@@ -36755,10 +36755,10 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>67.81938806280115</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="L28" t="n">
-        <v>117.6789051490001</v>
+        <v>117.6789051490002</v>
       </c>
       <c r="M28" t="n">
         <v>129.6727568505246</v>
@@ -36770,10 +36770,10 @@
         <v>114.6740078027237</v>
       </c>
       <c r="P28" t="n">
-        <v>87.36743915357749</v>
+        <v>87.36743915357752</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.92683663698962</v>
+        <v>3.926836636989648</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>8.122613482245683</v>
       </c>
       <c r="L29" t="n">
         <v>165.511934200075</v>
@@ -36843,13 +36843,13 @@
         <v>165.511934200075</v>
       </c>
       <c r="N29" t="n">
-        <v>83.06883526610756</v>
+        <v>165.511934200075</v>
       </c>
       <c r="O29" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P29" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>165.511934200075</v>
       </c>
       <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>32.20078528508475</v>
+      </c>
+      <c r="O30" t="n">
         <v>165.511934200075</v>
-      </c>
-      <c r="N30" t="n">
-        <v>165.511934200075</v>
-      </c>
-      <c r="O30" t="n">
-        <v>88.72906967347669</v>
       </c>
       <c r="P30" t="n">
         <v>165.511934200075</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>67.81938806280117</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="L31" t="n">
         <v>117.6789051490002</v>
@@ -37007,10 +37007,10 @@
         <v>114.6740078027237</v>
       </c>
       <c r="P31" t="n">
-        <v>87.36743915357751</v>
+        <v>87.36743915357752</v>
       </c>
       <c r="Q31" t="n">
-        <v>3.926836636989634</v>
+        <v>3.926836636989648</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,19 +37071,19 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>68.25887090709122</v>
       </c>
       <c r="L32" t="n">
         <v>165.511934200075</v>
       </c>
       <c r="M32" t="n">
-        <v>83.06883526610753</v>
+        <v>165.511934200075</v>
       </c>
       <c r="N32" t="n">
         <v>165.511934200075</v>
       </c>
       <c r="O32" t="n">
-        <v>150.7019698410586</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>90.5657124162131</v>
@@ -37150,10 +37150,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>88.72906967347664</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>165.511934200075</v>
       </c>
       <c r="M33" t="n">
         <v>165.511934200075</v>
@@ -37162,13 +37162,13 @@
         <v>165.511934200075</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>158.8245833233043</v>
       </c>
       <c r="P33" t="n">
-        <v>165.511934200075</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,25 +37229,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>68.51163510007009</v>
+        <v>68.51163510007014</v>
       </c>
       <c r="L34" t="n">
-        <v>118.3711521862691</v>
+        <v>113.5254229253863</v>
       </c>
       <c r="M34" t="n">
-        <v>125.5192746269109</v>
+        <v>130.3650038877936</v>
       </c>
       <c r="N34" t="n">
-        <v>134.9132993051815</v>
+        <v>134.9132993051816</v>
       </c>
       <c r="O34" t="n">
-        <v>115.3662548399926</v>
+        <v>115.3662548399927</v>
       </c>
       <c r="P34" t="n">
-        <v>88.05968619084643</v>
+        <v>88.05968619084648</v>
       </c>
       <c r="Q34" t="n">
-        <v>4.619083674258562</v>
+        <v>4.619083674258604</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,16 +37308,16 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>83.0688352661076</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>144.5252079399984</v>
+      </c>
+      <c r="N35" t="n">
         <v>165.511934200075</v>
-      </c>
-      <c r="M35" t="n">
-        <v>165.511934200075</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>150.7019698410586</v>
@@ -37387,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>88.72906967347673</v>
+        <v>165.511934200075</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>32.20078528508475</v>
       </c>
       <c r="N36" t="n">
-        <v>165.511934200075</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>165.511934200075</v>
@@ -37405,7 +37405,7 @@
         <v>165.511934200075</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,25 +37466,25 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>68.51163510007009</v>
+        <v>68.51163510007014</v>
       </c>
       <c r="L37" t="n">
-        <v>118.1445065996452</v>
+        <v>118.3711521862691</v>
       </c>
       <c r="M37" t="n">
-        <v>130.3650038877935</v>
+        <v>130.3650038877936</v>
       </c>
       <c r="N37" t="n">
-        <v>134.9132993051815</v>
+        <v>134.9132993051816</v>
       </c>
       <c r="O37" t="n">
-        <v>115.3662548399926</v>
+        <v>115.3662548399927</v>
       </c>
       <c r="P37" t="n">
-        <v>88.05968619084643</v>
+        <v>83.2139569299637</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>4.619083674258604</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,16 +37545,16 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>83.0688352661076</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>165.511934200075</v>
       </c>
       <c r="M38" t="n">
-        <v>165.511934200075</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>165.511934200075</v>
+        <v>144.5252079399984</v>
       </c>
       <c r="O38" t="n">
         <v>150.7019698410586</v>
@@ -37630,19 +37630,19 @@
         <v>165.511934200075</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>165.511934200075</v>
       </c>
       <c r="N39" t="n">
-        <v>88.72906967347674</v>
+        <v>165.511934200075</v>
       </c>
       <c r="O39" t="n">
-        <v>165.511934200075</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>165.511934200075</v>
+        <v>158.8245833233043</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,10 +37703,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>67.81938806280115</v>
+        <v>67.81938806280118</v>
       </c>
       <c r="L40" t="n">
-        <v>117.6789051490001</v>
+        <v>117.6789051490002</v>
       </c>
       <c r="M40" t="n">
         <v>129.6727568505246</v>
@@ -37718,10 +37718,10 @@
         <v>114.6740078027237</v>
       </c>
       <c r="P40" t="n">
-        <v>87.36743915357749</v>
+        <v>87.36743915357752</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.92683663698962</v>
+        <v>3.926836636989648</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,19 +37785,19 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>21.43570592654037</v>
+        <v>61.64510380316669</v>
       </c>
       <c r="M41" t="n">
-        <v>130.7751102928393</v>
+        <v>130.7751102928394</v>
       </c>
       <c r="N41" t="n">
-        <v>130.7751102928393</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>130.7751102928393</v>
+        <v>130.7751102928394</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37864,19 +37864,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>59.54706605751668</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>130.7751102928393</v>
+        <v>59.54706605751688</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>130.7751102928394</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>130.7751102928393</v>
+        <v>130.7751102928394</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
@@ -37940,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>45.5498962369183</v>
+        <v>45.54989623691833</v>
       </c>
       <c r="L43" t="n">
-        <v>95.40941332311729</v>
+        <v>95.40941332311732</v>
       </c>
       <c r="M43" t="n">
-        <v>107.4032650246417</v>
+        <v>107.4032650246418</v>
       </c>
       <c r="N43" t="n">
-        <v>111.9515604420297</v>
+        <v>111.9515604420298</v>
       </c>
       <c r="O43" t="n">
-        <v>92.40451597684083</v>
+        <v>92.40451597684086</v>
       </c>
       <c r="P43" t="n">
-        <v>65.09794732769464</v>
+        <v>65.09794732769467</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38019,19 +38019,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>104.0555615261842</v>
+        <v>34.92555503651152</v>
       </c>
       <c r="L44" t="n">
-        <v>61.64510380316665</v>
+        <v>130.7751102928394</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>130.7751102928393</v>
+        <v>130.7751102928394</v>
       </c>
       <c r="O44" t="n">
-        <v>130.7751102928393</v>
+        <v>130.7751102928394</v>
       </c>
       <c r="P44" t="n">
         <v>90.5657124162131</v>
@@ -38098,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>55.395753802897</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>130.7751102928393</v>
+        <v>59.54706605751688</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>130.7751102928393</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>130.7751102928393</v>
+        <v>130.7751102928394</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>130.7751102928394</v>
       </c>
       <c r="Q45" t="n">
         <v>70.09551364982758</v>
@@ -38177,22 +38177,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>45.54989623691829</v>
+        <v>45.54989623691834</v>
       </c>
       <c r="L46" t="n">
-        <v>95.40941332311728</v>
+        <v>95.40941332311733</v>
       </c>
       <c r="M46" t="n">
-        <v>107.4032650246417</v>
+        <v>107.4032650246418</v>
       </c>
       <c r="N46" t="n">
-        <v>111.9515604420297</v>
+        <v>111.9515604420298</v>
       </c>
       <c r="O46" t="n">
-        <v>92.40451597684081</v>
+        <v>92.40451597684087</v>
       </c>
       <c r="P46" t="n">
-        <v>65.09794732769463</v>
+        <v>65.09794732769468</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
